--- a/R/data/dictionaries/core/1_1/1_1_non_repeated.xlsx
+++ b/R/data/dictionaries/core/1_1/1_1_non_repeated.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/R/data/dictionaries/1_0/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB16D3F-5AF0-8F4E-A118-9E9F431A3F00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="525" windowWidth="28800" windowHeight="16380"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="485">
   <si>
     <t>name</t>
   </si>
@@ -1416,13 +1410,73 @@
   </si>
   <si>
     <t>Unique identifer for the row in Opal</t>
+  </si>
+  <si>
+    <t>sleept_psc</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>h/day</t>
+  </si>
+  <si>
+    <t>sleep (day + night), h/day, preschool age</t>
+  </si>
+  <si>
+    <t>sleeptage_psc</t>
+  </si>
+  <si>
+    <t>Age at sleept_psc collection</t>
+  </si>
+  <si>
+    <t>outdoorp_psc</t>
+  </si>
+  <si>
+    <t>time spent playing outdoors h/day, preschool age</t>
+  </si>
+  <si>
+    <t>outdoorpage_psc</t>
+  </si>
+  <si>
+    <t>Age at outdoop_psc collection</t>
+  </si>
+  <si>
+    <t>tv_psc</t>
+  </si>
+  <si>
+    <t>time spent watching TV, h/day, preschool age</t>
+  </si>
+  <si>
+    <t>screenoth_psc</t>
+  </si>
+  <si>
+    <t>time spent watching screens (except TV) h/day, preschool age</t>
+  </si>
+  <si>
+    <t>screenage_psc</t>
+  </si>
+  <si>
+    <t>Age at tv_psc and screenoth_psc collection</t>
+  </si>
+  <si>
+    <t>patternA_snackscreen_psc</t>
+  </si>
+  <si>
+    <t>child’s score on the snack screen pattern (relative, derived from PCA loadings), preschool age</t>
+  </si>
+  <si>
+    <t>patternB_psc</t>
+  </si>
+  <si>
+    <t>child’s score on the second multibehavioral pattern (relative, derived from PCA loadings), preschool age</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1454,6 +1508,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1463,7 +1530,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1497,13 +1564,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1517,11 +1602,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="4"/>
+    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 3 2" xfId="5"/>
+    <cellStyle name="Normal 4" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1596,9 +1686,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1979,23 +2066,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BG120"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="73" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2064,7 +2151,7 @@
       <c r="BF1"/>
       <c r="BG1"/>
     </row>
-    <row r="2" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>463</v>
       </c>
@@ -2133,7 +2220,7 @@
       <c r="BF2"/>
       <c r="BG2"/>
     </row>
-    <row r="3" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>383</v>
       </c>
@@ -2148,7 +2235,7 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>384</v>
       </c>
@@ -2163,7 +2250,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>385</v>
       </c>
@@ -2178,7 +2265,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>387</v>
       </c>
@@ -2193,7 +2280,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2208,7 +2295,7 @@
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -2223,7 +2310,7 @@
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>70</v>
       </c>
@@ -2238,7 +2325,7 @@
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>71</v>
       </c>
@@ -2253,7 +2340,7 @@
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>72</v>
       </c>
@@ -2268,7 +2355,7 @@
       </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>73</v>
       </c>
@@ -2283,7 +2370,7 @@
       </c>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -2298,7 +2385,7 @@
       </c>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -2313,7 +2400,7 @@
       </c>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
@@ -2328,7 +2415,7 @@
       </c>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>75</v>
       </c>
@@ -2343,7 +2430,7 @@
       </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>76</v>
       </c>
@@ -2358,7 +2445,7 @@
       </c>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>77</v>
       </c>
@@ -2373,7 +2460,7 @@
       </c>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>78</v>
       </c>
@@ -2388,7 +2475,7 @@
       </c>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>79</v>
       </c>
@@ -2403,7 +2490,7 @@
       </c>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>80</v>
       </c>
@@ -2418,7 +2505,7 @@
       </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>81</v>
       </c>
@@ -2433,7 +2520,7 @@
       </c>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>82</v>
       </c>
@@ -2448,7 +2535,7 @@
       </c>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>83</v>
       </c>
@@ -2463,7 +2550,7 @@
       </c>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>85</v>
       </c>
@@ -2478,7 +2565,7 @@
       </c>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>86</v>
       </c>
@@ -2493,7 +2580,7 @@
       </c>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>87</v>
       </c>
@@ -2508,7 +2595,7 @@
       </c>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>88</v>
       </c>
@@ -2523,7 +2610,7 @@
       </c>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>89</v>
       </c>
@@ -2538,7 +2625,7 @@
       </c>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>90</v>
       </c>
@@ -2553,7 +2640,7 @@
       </c>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>91</v>
       </c>
@@ -2568,7 +2655,7 @@
       </c>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>92</v>
       </c>
@@ -2583,7 +2670,7 @@
       </c>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>93</v>
       </c>
@@ -2598,7 +2685,7 @@
       </c>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>94</v>
       </c>
@@ -2613,7 +2700,7 @@
       </c>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>95</v>
       </c>
@@ -2628,7 +2715,7 @@
       </c>
       <c r="E35"/>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>96</v>
       </c>
@@ -2643,7 +2730,7 @@
       </c>
       <c r="E36"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>64</v>
       </c>
@@ -2658,7 +2745,7 @@
       </c>
       <c r="E37"/>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>65</v>
       </c>
@@ -2673,7 +2760,7 @@
       </c>
       <c r="E38"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>13</v>
       </c>
@@ -2688,7 +2775,7 @@
       </c>
       <c r="E39"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>14</v>
       </c>
@@ -2703,7 +2790,7 @@
       </c>
       <c r="E40"/>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>15</v>
       </c>
@@ -2718,7 +2805,7 @@
       </c>
       <c r="E41"/>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>16</v>
       </c>
@@ -2733,7 +2820,7 @@
       </c>
       <c r="E42"/>
     </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>17</v>
       </c>
@@ -2748,7 +2835,7 @@
       </c>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>97</v>
       </c>
@@ -2763,7 +2850,7 @@
       </c>
       <c r="E44"/>
     </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>98</v>
       </c>
@@ -2778,7 +2865,7 @@
       </c>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>99</v>
       </c>
@@ -2793,7 +2880,7 @@
       </c>
       <c r="E46"/>
     </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>100</v>
       </c>
@@ -2808,7 +2895,7 @@
       </c>
       <c r="E47"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>101</v>
       </c>
@@ -2823,7 +2910,7 @@
       </c>
       <c r="E48"/>
     </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>102</v>
       </c>
@@ -2838,7 +2925,7 @@
       </c>
       <c r="E49"/>
     </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>103</v>
       </c>
@@ -2853,7 +2940,7 @@
       </c>
       <c r="E50"/>
     </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>104</v>
       </c>
@@ -2868,7 +2955,7 @@
       </c>
       <c r="E51"/>
     </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>105</v>
       </c>
@@ -2883,7 +2970,7 @@
       </c>
       <c r="E52"/>
     </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>106</v>
       </c>
@@ -2898,7 +2985,7 @@
       </c>
       <c r="E53"/>
     </row>
-    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>113</v>
       </c>
@@ -2913,7 +3000,7 @@
       </c>
       <c r="E54"/>
     </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>114</v>
       </c>
@@ -2928,7 +3015,7 @@
       </c>
       <c r="E55"/>
     </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>389</v>
       </c>
@@ -2943,7 +3030,7 @@
       </c>
       <c r="E56"/>
     </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>116</v>
       </c>
@@ -2958,7 +3045,7 @@
       </c>
       <c r="E57"/>
     </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>18</v>
       </c>
@@ -2973,7 +3060,7 @@
       </c>
       <c r="E58"/>
     </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>120</v>
       </c>
@@ -2988,7 +3075,7 @@
       </c>
       <c r="E59"/>
     </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>121</v>
       </c>
@@ -3003,7 +3090,7 @@
       </c>
       <c r="E60"/>
     </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>124</v>
       </c>
@@ -3018,7 +3105,7 @@
       </c>
       <c r="E61"/>
     </row>
-    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>125</v>
       </c>
@@ -3033,7 +3120,7 @@
       </c>
       <c r="E62"/>
     </row>
-    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>126</v>
       </c>
@@ -3048,7 +3135,7 @@
       </c>
       <c r="E63"/>
     </row>
-    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>127</v>
       </c>
@@ -3063,7 +3150,7 @@
       </c>
       <c r="E64"/>
     </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>128</v>
       </c>
@@ -3078,7 +3165,7 @@
       </c>
       <c r="E65"/>
     </row>
-    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>129</v>
       </c>
@@ -3093,7 +3180,7 @@
       </c>
       <c r="E66"/>
     </row>
-    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>136</v>
       </c>
@@ -3108,7 +3195,7 @@
       </c>
       <c r="E67"/>
     </row>
-    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>137</v>
       </c>
@@ -3123,7 +3210,7 @@
       </c>
       <c r="E68"/>
     </row>
-    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>138</v>
       </c>
@@ -3138,7 +3225,7 @@
       </c>
       <c r="E69"/>
     </row>
-    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>133</v>
       </c>
@@ -3153,7 +3240,7 @@
       </c>
       <c r="E70"/>
     </row>
-    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>134</v>
       </c>
@@ -3168,7 +3255,7 @@
       </c>
       <c r="E71"/>
     </row>
-    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>135</v>
       </c>
@@ -3183,7 +3270,7 @@
       </c>
       <c r="E72"/>
     </row>
-    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>141</v>
       </c>
@@ -3198,7 +3285,7 @@
       </c>
       <c r="E73"/>
     </row>
-    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>142</v>
       </c>
@@ -3213,7 +3300,7 @@
       </c>
       <c r="E74"/>
     </row>
-    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>143</v>
       </c>
@@ -3228,7 +3315,7 @@
       </c>
       <c r="E75"/>
     </row>
-    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>144</v>
       </c>
@@ -3243,7 +3330,7 @@
       </c>
       <c r="E76"/>
     </row>
-    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>145</v>
       </c>
@@ -3258,7 +3345,7 @@
       </c>
       <c r="E77"/>
     </row>
-    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>146</v>
       </c>
@@ -3273,7 +3360,7 @@
       </c>
       <c r="E78"/>
     </row>
-    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>147</v>
       </c>
@@ -3288,7 +3375,7 @@
       </c>
       <c r="E79"/>
     </row>
-    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>148</v>
       </c>
@@ -3303,7 +3390,7 @@
       </c>
       <c r="E80"/>
     </row>
-    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>149</v>
       </c>
@@ -3318,7 +3405,7 @@
       </c>
       <c r="E81"/>
     </row>
-    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>159</v>
       </c>
@@ -3333,7 +3420,7 @@
       </c>
       <c r="E82"/>
     </row>
-    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>160</v>
       </c>
@@ -3348,7 +3435,7 @@
       </c>
       <c r="E83"/>
     </row>
-    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>161</v>
       </c>
@@ -3363,7 +3450,7 @@
       </c>
       <c r="E84"/>
     </row>
-    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>165</v>
       </c>
@@ -3378,7 +3465,7 @@
       </c>
       <c r="E85"/>
     </row>
-    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>166</v>
       </c>
@@ -3393,7 +3480,7 @@
       </c>
       <c r="E86"/>
     </row>
-    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>167</v>
       </c>
@@ -3408,7 +3495,7 @@
       </c>
       <c r="E87"/>
     </row>
-    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>168</v>
       </c>
@@ -3423,7 +3510,7 @@
       </c>
       <c r="E88"/>
     </row>
-    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>19</v>
       </c>
@@ -3438,7 +3525,7 @@
       </c>
       <c r="E89"/>
     </row>
-    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>20</v>
       </c>
@@ -3453,7 +3540,7 @@
       </c>
       <c r="E90"/>
     </row>
-    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>66</v>
       </c>
@@ -3468,7 +3555,7 @@
       </c>
       <c r="E91"/>
     </row>
-    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>67</v>
       </c>
@@ -3483,7 +3570,7 @@
       </c>
       <c r="E92"/>
     </row>
-    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>68</v>
       </c>
@@ -3498,7 +3585,7 @@
       </c>
       <c r="E93"/>
     </row>
-    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>21</v>
       </c>
@@ -3513,7 +3600,7 @@
       </c>
       <c r="E94"/>
     </row>
-    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>173</v>
       </c>
@@ -3528,7 +3615,7 @@
       </c>
       <c r="E95"/>
     </row>
-    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>176</v>
       </c>
@@ -3543,7 +3630,7 @@
       </c>
       <c r="E96"/>
     </row>
-    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>177</v>
       </c>
@@ -3558,7 +3645,7 @@
       </c>
       <c r="E97"/>
     </row>
-    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>175</v>
       </c>
@@ -3573,7 +3660,7 @@
       </c>
       <c r="E98"/>
     </row>
-    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>180</v>
       </c>
@@ -3588,7 +3675,7 @@
       </c>
       <c r="E99"/>
     </row>
-    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>181</v>
       </c>
@@ -3603,7 +3690,7 @@
       </c>
       <c r="E100"/>
     </row>
-    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>182</v>
       </c>
@@ -3618,7 +3705,7 @@
       </c>
       <c r="E101"/>
     </row>
-    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>183</v>
       </c>
@@ -3633,7 +3720,7 @@
       </c>
       <c r="E102"/>
     </row>
-    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>184</v>
       </c>
@@ -3648,7 +3735,7 @@
       </c>
       <c r="E103"/>
     </row>
-    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>190</v>
       </c>
@@ -3662,7 +3749,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>191</v>
       </c>
@@ -3676,7 +3763,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>24</v>
       </c>
@@ -3690,7 +3777,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>25</v>
       </c>
@@ -3704,7 +3791,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>26</v>
       </c>
@@ -3718,7 +3805,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>69</v>
       </c>
@@ -3732,7 +3819,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>194</v>
       </c>
@@ -3746,7 +3833,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>460</v>
       </c>
@@ -3758,6 +3845,128 @@
       </c>
       <c r="D111" s="12" t="s">
         <v>461</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="14" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="14" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="B119" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="C119" s="13"/>
+      <c r="D119" s="14" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="C120" s="13"/>
+      <c r="D120" s="14" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -3770,22 +3979,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D472"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A274" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C472"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="8.83203125" style="1"/>
-    <col min="4" max="4" width="54.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -3799,7 +4008,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3813,7 +4022,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3827,7 +4036,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -3841,7 +4050,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -3855,7 +4064,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3869,7 +4078,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -3883,7 +4092,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -3897,7 +4106,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -3911,7 +4120,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -3925,7 +4134,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -3939,7 +4148,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -3953,7 +4162,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -3967,7 +4176,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -3981,7 +4190,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -3995,7 +4204,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -4009,7 +4218,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -4023,7 +4232,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -4037,7 +4246,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -4051,7 +4260,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -4065,7 +4274,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
@@ -4079,7 +4288,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
@@ -4093,7 +4302,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
@@ -4107,7 +4316,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
@@ -4121,7 +4330,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
@@ -4135,7 +4344,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
@@ -4149,7 +4358,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -4163,7 +4372,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
@@ -4177,7 +4386,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
@@ -4191,7 +4400,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
@@ -4205,7 +4414,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>70</v>
       </c>
@@ -4219,7 +4428,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>70</v>
       </c>
@@ -4233,7 +4442,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>70</v>
       </c>
@@ -4247,7 +4456,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>71</v>
       </c>
@@ -4261,7 +4470,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>71</v>
       </c>
@@ -4275,7 +4484,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>71</v>
       </c>
@@ -4289,7 +4498,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>72</v>
       </c>
@@ -4303,7 +4512,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>72</v>
       </c>
@@ -4317,7 +4526,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>72</v>
       </c>
@@ -4331,7 +4540,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>73</v>
       </c>
@@ -4345,7 +4554,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>73</v>
       </c>
@@ -4359,7 +4568,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>73</v>
       </c>
@@ -4373,7 +4582,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>74</v>
       </c>
@@ -4387,7 +4596,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>74</v>
       </c>
@@ -4401,7 +4610,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>77</v>
       </c>
@@ -4415,7 +4624,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>77</v>
       </c>
@@ -4429,7 +4638,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>80</v>
       </c>
@@ -4443,7 +4652,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>80</v>
       </c>
@@ -4457,7 +4666,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>83</v>
       </c>
@@ -4471,7 +4680,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>83</v>
       </c>
@@ -4485,7 +4694,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>83</v>
       </c>
@@ -4499,7 +4708,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>83</v>
       </c>
@@ -4513,7 +4722,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>86</v>
       </c>
@@ -4527,7 +4736,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>86</v>
       </c>
@@ -4541,7 +4750,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>87</v>
       </c>
@@ -4555,7 +4764,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>87</v>
       </c>
@@ -4569,7 +4778,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>87</v>
       </c>
@@ -4583,7 +4792,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>87</v>
       </c>
@@ -4597,7 +4806,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>87</v>
       </c>
@@ -4611,7 +4820,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>88</v>
       </c>
@@ -4625,7 +4834,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>88</v>
       </c>
@@ -4639,7 +4848,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>89</v>
       </c>
@@ -4653,7 +4862,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>89</v>
       </c>
@@ -4667,7 +4876,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>90</v>
       </c>
@@ -4681,7 +4890,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>90</v>
       </c>
@@ -4695,7 +4904,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>91</v>
       </c>
@@ -4709,7 +4918,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>91</v>
       </c>
@@ -4723,7 +4932,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>92</v>
       </c>
@@ -4737,7 +4946,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>92</v>
       </c>
@@ -4751,7 +4960,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>93</v>
       </c>
@@ -4765,7 +4974,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>93</v>
       </c>
@@ -4779,7 +4988,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>94</v>
       </c>
@@ -4793,7 +5002,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>94</v>
       </c>
@@ -4807,7 +5016,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>95</v>
       </c>
@@ -4821,7 +5030,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>95</v>
       </c>
@@ -4835,7 +5044,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>96</v>
       </c>
@@ -4849,7 +5058,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>96</v>
       </c>
@@ -4863,7 +5072,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>64</v>
       </c>
@@ -4877,7 +5086,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>64</v>
       </c>
@@ -4891,7 +5100,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>65</v>
       </c>
@@ -4905,7 +5114,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>65</v>
       </c>
@@ -4919,7 +5128,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>65</v>
       </c>
@@ -4933,7 +5142,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>13</v>
       </c>
@@ -4947,7 +5156,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>13</v>
       </c>
@@ -4961,7 +5170,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>14</v>
       </c>
@@ -4975,7 +5184,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>14</v>
       </c>
@@ -4989,7 +5198,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>15</v>
       </c>
@@ -5003,7 +5212,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>15</v>
       </c>
@@ -5017,7 +5226,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>16</v>
       </c>
@@ -5031,7 +5240,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>16</v>
       </c>
@@ -5045,7 +5254,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>17</v>
       </c>
@@ -5059,7 +5268,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>17</v>
       </c>
@@ -5073,7 +5282,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>17</v>
       </c>
@@ -5087,7 +5296,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>97</v>
       </c>
@@ -5101,7 +5310,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>97</v>
       </c>
@@ -5115,7 +5324,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>98</v>
       </c>
@@ -5129,7 +5338,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>98</v>
       </c>
@@ -5143,7 +5352,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>98</v>
       </c>
@@ -5157,7 +5366,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
@@ -5171,7 +5380,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>98</v>
       </c>
@@ -5185,7 +5394,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>337</v>
       </c>
@@ -5199,7 +5408,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>337</v>
       </c>
@@ -5213,7 +5422,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>338</v>
       </c>
@@ -5227,7 +5436,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>338</v>
       </c>
@@ -5241,7 +5450,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>338</v>
       </c>
@@ -5255,7 +5464,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>338</v>
       </c>
@@ -5269,7 +5478,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>101</v>
       </c>
@@ -5283,7 +5492,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>101</v>
       </c>
@@ -5297,7 +5506,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>102</v>
       </c>
@@ -5311,7 +5520,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>102</v>
       </c>
@@ -5325,7 +5534,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>103</v>
       </c>
@@ -5339,7 +5548,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>103</v>
       </c>
@@ -5353,7 +5562,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>104</v>
       </c>
@@ -5367,7 +5576,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>104</v>
       </c>
@@ -5381,7 +5590,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>105</v>
       </c>
@@ -5395,7 +5604,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>105</v>
       </c>
@@ -5409,7 +5618,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>106</v>
       </c>
@@ -5423,7 +5632,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>106</v>
       </c>
@@ -5437,7 +5646,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>113</v>
       </c>
@@ -5451,7 +5660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>113</v>
       </c>
@@ -5465,7 +5674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>113</v>
       </c>
@@ -5479,7 +5688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>113</v>
       </c>
@@ -5493,7 +5702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>113</v>
       </c>
@@ -5507,7 +5716,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>114</v>
       </c>
@@ -5521,7 +5730,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>114</v>
       </c>
@@ -5535,7 +5744,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>115</v>
       </c>
@@ -5549,7 +5758,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>115</v>
       </c>
@@ -5563,7 +5772,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>116</v>
       </c>
@@ -5577,7 +5786,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>116</v>
       </c>
@@ -5591,7 +5800,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>18</v>
       </c>
@@ -5605,7 +5814,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>18</v>
       </c>
@@ -5619,7 +5828,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>18</v>
       </c>
@@ -5633,7 +5842,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>18</v>
       </c>
@@ -5647,7 +5856,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>18</v>
       </c>
@@ -5661,7 +5870,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>18</v>
       </c>
@@ -5675,7 +5884,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>120</v>
       </c>
@@ -5689,7 +5898,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>120</v>
       </c>
@@ -5703,7 +5912,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>120</v>
       </c>
@@ -5717,7 +5926,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>120</v>
       </c>
@@ -5731,7 +5940,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>120</v>
       </c>
@@ -5745,7 +5954,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>121</v>
       </c>
@@ -5759,7 +5968,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>121</v>
       </c>
@@ -5773,7 +5982,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>124</v>
       </c>
@@ -5787,7 +5996,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>124</v>
       </c>
@@ -5801,7 +6010,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>124</v>
       </c>
@@ -5815,7 +6024,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>125</v>
       </c>
@@ -5829,7 +6038,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>125</v>
       </c>
@@ -5843,7 +6052,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>125</v>
       </c>
@@ -5857,7 +6066,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>125</v>
       </c>
@@ -5871,7 +6080,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>126</v>
       </c>
@@ -5885,7 +6094,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>126</v>
       </c>
@@ -5899,7 +6108,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>126</v>
       </c>
@@ -5913,7 +6122,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>127</v>
       </c>
@@ -5927,7 +6136,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>127</v>
       </c>
@@ -5941,7 +6150,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>127</v>
       </c>
@@ -5955,7 +6164,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>128</v>
       </c>
@@ -5969,7 +6178,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>128</v>
       </c>
@@ -5983,7 +6192,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>128</v>
       </c>
@@ -5997,7 +6206,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>129</v>
       </c>
@@ -6011,7 +6220,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>129</v>
       </c>
@@ -6025,7 +6234,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>129</v>
       </c>
@@ -6039,7 +6248,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>129</v>
       </c>
@@ -6053,7 +6262,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>133</v>
       </c>
@@ -6067,7 +6276,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>133</v>
       </c>
@@ -6081,7 +6290,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>135</v>
       </c>
@@ -6095,7 +6304,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>135</v>
       </c>
@@ -6109,7 +6318,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>135</v>
       </c>
@@ -6123,7 +6332,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>135</v>
       </c>
@@ -6137,7 +6346,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>142</v>
       </c>
@@ -6151,7 +6360,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>142</v>
       </c>
@@ -6165,7 +6374,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>142</v>
       </c>
@@ -6179,7 +6388,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>143</v>
       </c>
@@ -6193,7 +6402,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>143</v>
       </c>
@@ -6207,7 +6416,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>143</v>
       </c>
@@ -6221,7 +6430,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>143</v>
       </c>
@@ -6235,7 +6444,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>145</v>
       </c>
@@ -6249,7 +6458,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>145</v>
       </c>
@@ -6263,7 +6472,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>145</v>
       </c>
@@ -6277,7 +6486,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>146</v>
       </c>
@@ -6291,7 +6500,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>146</v>
       </c>
@@ -6305,7 +6514,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>146</v>
       </c>
@@ -6319,7 +6528,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>146</v>
       </c>
@@ -6333,7 +6542,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>147</v>
       </c>
@@ -6347,7 +6556,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>147</v>
       </c>
@@ -6361,7 +6570,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>147</v>
       </c>
@@ -6375,7 +6584,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>147</v>
       </c>
@@ -6389,7 +6598,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>148</v>
       </c>
@@ -6403,7 +6612,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>148</v>
       </c>
@@ -6417,7 +6626,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>149</v>
       </c>
@@ -6431,7 +6640,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>149</v>
       </c>
@@ -6445,7 +6654,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>159</v>
       </c>
@@ -6459,7 +6668,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>159</v>
       </c>
@@ -6473,7 +6682,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>160</v>
       </c>
@@ -6487,7 +6696,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>160</v>
       </c>
@@ -6501,7 +6710,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>160</v>
       </c>
@@ -6515,7 +6724,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>161</v>
       </c>
@@ -6529,7 +6738,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>161</v>
       </c>
@@ -6543,7 +6752,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>161</v>
       </c>
@@ -6557,7 +6766,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>161</v>
       </c>
@@ -6571,7 +6780,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>168</v>
       </c>
@@ -6585,7 +6794,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>168</v>
       </c>
@@ -6599,7 +6808,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>19</v>
       </c>
@@ -6613,7 +6822,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>19</v>
       </c>
@@ -6627,7 +6836,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>20</v>
       </c>
@@ -6641,7 +6850,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>20</v>
       </c>
@@ -6655,7 +6864,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>20</v>
       </c>
@@ -6669,7 +6878,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
         <v>175</v>
       </c>
@@ -6683,7 +6892,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>175</v>
       </c>
@@ -6697,7 +6906,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
         <v>175</v>
       </c>
@@ -6711,7 +6920,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>181</v>
       </c>
@@ -6725,7 +6934,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>181</v>
       </c>
@@ -6739,7 +6948,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>182</v>
       </c>
@@ -6753,7 +6962,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>182</v>
       </c>
@@ -6767,7 +6976,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>183</v>
       </c>
@@ -6781,7 +6990,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>183</v>
       </c>
@@ -6795,7 +7004,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>184</v>
       </c>
@@ -6809,7 +7018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>184</v>
       </c>
@@ -6823,7 +7032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>184</v>
       </c>
@@ -6837,7 +7046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>184</v>
       </c>
@@ -6851,7 +7060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>184</v>
       </c>
@@ -6865,7 +7074,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>190</v>
       </c>
@@ -6879,7 +7088,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>190</v>
       </c>
@@ -6893,7 +7102,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>26</v>
       </c>
@@ -6907,7 +7116,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>26</v>
       </c>
@@ -6921,7 +7130,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>195</v>
       </c>
@@ -6935,7 +7144,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>195</v>
       </c>
@@ -6949,7 +7158,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>196</v>
       </c>
@@ -6963,7 +7172,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>196</v>
       </c>
@@ -6977,7 +7186,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>197</v>
       </c>
@@ -6991,7 +7200,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>197</v>
       </c>
@@ -7005,7 +7214,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>198</v>
       </c>
@@ -7019,7 +7228,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>198</v>
       </c>
@@ -7033,7 +7242,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>199</v>
       </c>
@@ -7047,7 +7256,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>199</v>
       </c>
@@ -7061,7 +7270,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>200</v>
       </c>
@@ -7075,7 +7284,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>200</v>
       </c>
@@ -7089,7 +7298,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>201</v>
       </c>
@@ -7103,7 +7312,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>201</v>
       </c>
@@ -7117,7 +7326,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>202</v>
       </c>
@@ -7131,7 +7340,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>202</v>
       </c>
@@ -7145,7 +7354,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>203</v>
       </c>
@@ -7159,7 +7368,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>203</v>
       </c>
@@ -7173,7 +7382,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>204</v>
       </c>
@@ -7187,7 +7396,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>204</v>
       </c>
@@ -7201,7 +7410,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>205</v>
       </c>
@@ -7215,7 +7424,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>205</v>
       </c>
@@ -7229,7 +7438,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>206</v>
       </c>
@@ -7243,7 +7452,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>206</v>
       </c>
@@ -7257,7 +7466,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>207</v>
       </c>
@@ -7271,7 +7480,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>207</v>
       </c>
@@ -7285,7 +7494,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>208</v>
       </c>
@@ -7299,7 +7508,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>208</v>
       </c>
@@ -7313,7 +7522,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>209</v>
       </c>
@@ -7327,7 +7536,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>209</v>
       </c>
@@ -7341,7 +7550,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>210</v>
       </c>
@@ -7355,7 +7564,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>210</v>
       </c>
@@ -7369,7 +7578,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
         <v>44</v>
       </c>
@@ -7383,7 +7592,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
         <v>44</v>
       </c>
@@ -7397,7 +7606,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
         <v>45</v>
       </c>
@@ -7411,7 +7620,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
         <v>45</v>
       </c>
@@ -7425,7 +7634,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
         <v>46</v>
       </c>
@@ -7439,7 +7648,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
         <v>46</v>
       </c>
@@ -7453,7 +7662,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
         <v>47</v>
       </c>
@@ -7467,7 +7676,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
         <v>47</v>
       </c>
@@ -7481,7 +7690,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
         <v>48</v>
       </c>
@@ -7495,7 +7704,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
         <v>48</v>
       </c>
@@ -7509,7 +7718,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
         <v>49</v>
       </c>
@@ -7523,7 +7732,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
         <v>49</v>
       </c>
@@ -7537,7 +7746,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
         <v>50</v>
       </c>
@@ -7551,7 +7760,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
         <v>50</v>
       </c>
@@ -7565,7 +7774,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
         <v>51</v>
       </c>
@@ -7579,7 +7788,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
         <v>51</v>
       </c>
@@ -7593,7 +7802,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
         <v>52</v>
       </c>
@@ -7607,7 +7816,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
         <v>52</v>
       </c>
@@ -7621,7 +7830,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
         <v>53</v>
       </c>
@@ -7635,7 +7844,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
         <v>53</v>
       </c>
@@ -7649,7 +7858,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
         <v>54</v>
       </c>
@@ -7663,7 +7872,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
         <v>54</v>
       </c>
@@ -7677,7 +7886,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
         <v>55</v>
       </c>
@@ -7691,7 +7900,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
         <v>55</v>
       </c>
@@ -7705,7 +7914,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
         <v>56</v>
       </c>
@@ -7719,7 +7928,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
         <v>56</v>
       </c>
@@ -7733,7 +7942,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
         <v>57</v>
       </c>
@@ -7747,7 +7956,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
         <v>57</v>
       </c>
@@ -7761,7 +7970,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
         <v>58</v>
       </c>
@@ -7775,7 +7984,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
         <v>58</v>
       </c>
@@ -7789,7 +7998,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
         <v>59</v>
       </c>
@@ -7803,7 +8012,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
         <v>59</v>
       </c>
@@ -7817,7 +8026,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
         <v>60</v>
       </c>
@@ -7831,7 +8040,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
         <v>60</v>
       </c>
@@ -7845,7 +8054,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
         <v>61</v>
       </c>
@@ -7859,7 +8068,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
         <v>61</v>
       </c>
@@ -7873,7 +8082,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>211</v>
       </c>
@@ -7887,7 +8096,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>211</v>
       </c>
@@ -7901,7 +8110,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>212</v>
       </c>
@@ -7915,7 +8124,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>212</v>
       </c>
@@ -7929,7 +8138,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>213</v>
       </c>
@@ -7943,7 +8152,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>213</v>
       </c>
@@ -7957,7 +8166,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>214</v>
       </c>
@@ -7971,7 +8180,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>214</v>
       </c>
@@ -7985,7 +8194,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>215</v>
       </c>
@@ -7999,7 +8208,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>215</v>
       </c>
@@ -8013,7 +8222,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>216</v>
       </c>
@@ -8027,7 +8236,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>216</v>
       </c>
@@ -8041,7 +8250,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>217</v>
       </c>
@@ -8055,7 +8264,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>217</v>
       </c>
@@ -8069,7 +8278,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>218</v>
       </c>
@@ -8083,7 +8292,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>218</v>
       </c>
@@ -8097,7 +8306,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>219</v>
       </c>
@@ -8111,7 +8320,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>219</v>
       </c>
@@ -8125,7 +8334,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>220</v>
       </c>
@@ -8139,7 +8348,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>220</v>
       </c>
@@ -8153,7 +8362,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>221</v>
       </c>
@@ -8167,7 +8376,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>221</v>
       </c>
@@ -8181,7 +8390,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>222</v>
       </c>
@@ -8195,7 +8404,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>222</v>
       </c>
@@ -8209,7 +8418,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>223</v>
       </c>
@@ -8223,7 +8432,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>223</v>
       </c>
@@ -8237,7 +8446,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>224</v>
       </c>
@@ -8251,7 +8460,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>224</v>
       </c>
@@ -8265,7 +8474,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>225</v>
       </c>
@@ -8279,7 +8488,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>225</v>
       </c>
@@ -8293,7 +8502,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>226</v>
       </c>
@@ -8307,7 +8516,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>226</v>
       </c>
@@ -8321,7 +8530,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>227</v>
       </c>
@@ -8335,7 +8544,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>227</v>
       </c>
@@ -8349,7 +8558,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>228</v>
       </c>
@@ -8363,7 +8572,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>228</v>
       </c>
@@ -8377,7 +8586,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>229</v>
       </c>
@@ -8391,7 +8600,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>229</v>
       </c>
@@ -8405,7 +8614,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>230</v>
       </c>
@@ -8419,7 +8628,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>230</v>
       </c>
@@ -8433,7 +8642,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>231</v>
       </c>
@@ -8447,7 +8656,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>231</v>
       </c>
@@ -8461,7 +8670,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>232</v>
       </c>
@@ -8475,7 +8684,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>232</v>
       </c>
@@ -8489,7 +8698,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>233</v>
       </c>
@@ -8503,7 +8712,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>233</v>
       </c>
@@ -8517,7 +8726,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>234</v>
       </c>
@@ -8531,7 +8740,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>234</v>
       </c>
@@ -8545,7 +8754,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>235</v>
       </c>
@@ -8559,7 +8768,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>235</v>
       </c>
@@ -8573,7 +8782,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>236</v>
       </c>
@@ -8587,7 +8796,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>236</v>
       </c>
@@ -8601,7 +8810,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>237</v>
       </c>
@@ -8615,7 +8824,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>237</v>
       </c>
@@ -8629,7 +8838,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>238</v>
       </c>
@@ -8643,7 +8852,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>238</v>
       </c>
@@ -8657,7 +8866,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>239</v>
       </c>
@@ -8671,7 +8880,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>239</v>
       </c>
@@ -8685,7 +8894,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>240</v>
       </c>
@@ -8699,7 +8908,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>240</v>
       </c>
@@ -8713,7 +8922,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
         <v>241</v>
       </c>
@@ -8727,7 +8936,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>241</v>
       </c>
@@ -8741,7 +8950,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
         <v>242</v>
       </c>
@@ -8755,7 +8964,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
         <v>242</v>
       </c>
@@ -8769,7 +8978,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>243</v>
       </c>
@@ -8783,7 +8992,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>243</v>
       </c>
@@ -8797,7 +9006,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
         <v>244</v>
       </c>
@@ -8811,7 +9020,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>244</v>
       </c>
@@ -8825,7 +9034,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>245</v>
       </c>
@@ -8839,7 +9048,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>245</v>
       </c>
@@ -8853,7 +9062,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>246</v>
       </c>
@@ -8867,7 +9076,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
         <v>246</v>
       </c>
@@ -8881,7 +9090,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
         <v>247</v>
       </c>
@@ -8895,7 +9104,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>247</v>
       </c>
@@ -8909,7 +9118,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>247</v>
       </c>
@@ -8923,7 +9132,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>247</v>
       </c>
@@ -8937,7 +9146,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
         <v>248</v>
       </c>
@@ -8951,7 +9160,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
         <v>248</v>
       </c>
@@ -8965,7 +9174,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
         <v>248</v>
       </c>
@@ -8979,7 +9188,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
         <v>248</v>
       </c>
@@ -8993,7 +9202,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
         <v>249</v>
       </c>
@@ -9007,7 +9216,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
         <v>249</v>
       </c>
@@ -9021,7 +9230,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
         <v>249</v>
       </c>
@@ -9035,7 +9244,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
         <v>249</v>
       </c>
@@ -9049,7 +9258,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
         <v>250</v>
       </c>
@@ -9063,7 +9272,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
         <v>250</v>
       </c>
@@ -9077,7 +9286,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
         <v>250</v>
       </c>
@@ -9091,7 +9300,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
         <v>250</v>
       </c>
@@ -9105,7 +9314,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
         <v>251</v>
       </c>
@@ -9119,7 +9328,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
         <v>251</v>
       </c>
@@ -9133,7 +9342,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
         <v>251</v>
       </c>
@@ -9147,7 +9356,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
         <v>251</v>
       </c>
@@ -9161,7 +9370,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
         <v>252</v>
       </c>
@@ -9175,7 +9384,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
         <v>252</v>
       </c>
@@ -9189,7 +9398,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
         <v>252</v>
       </c>
@@ -9203,7 +9412,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
         <v>252</v>
       </c>
@@ -9217,7 +9426,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
         <v>253</v>
       </c>
@@ -9231,7 +9440,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
         <v>253</v>
       </c>
@@ -9245,7 +9454,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
         <v>253</v>
       </c>
@@ -9259,7 +9468,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
         <v>253</v>
       </c>
@@ -9273,7 +9482,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
         <v>254</v>
       </c>
@@ -9287,7 +9496,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
         <v>254</v>
       </c>
@@ -9301,7 +9510,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
         <v>254</v>
       </c>
@@ -9315,7 +9524,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
         <v>254</v>
       </c>
@@ -9329,7 +9538,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
         <v>255</v>
       </c>
@@ -9343,7 +9552,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
         <v>255</v>
       </c>
@@ -9357,7 +9566,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
         <v>255</v>
       </c>
@@ -9371,7 +9580,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
         <v>255</v>
       </c>
@@ -9385,7 +9594,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
         <v>256</v>
       </c>
@@ -9399,7 +9608,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
         <v>256</v>
       </c>
@@ -9413,7 +9622,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
         <v>256</v>
       </c>
@@ -9427,7 +9636,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
         <v>256</v>
       </c>
@@ -9441,7 +9650,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
         <v>257</v>
       </c>
@@ -9455,7 +9664,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
         <v>257</v>
       </c>
@@ -9469,7 +9678,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
         <v>257</v>
       </c>
@@ -9483,7 +9692,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
         <v>257</v>
       </c>
@@ -9497,7 +9706,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
         <v>258</v>
       </c>
@@ -9511,7 +9720,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
         <v>258</v>
       </c>
@@ -9525,7 +9734,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
         <v>258</v>
       </c>
@@ -9539,7 +9748,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
         <v>258</v>
       </c>
@@ -9553,7 +9762,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
         <v>259</v>
       </c>
@@ -9567,7 +9776,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
         <v>259</v>
       </c>
@@ -9581,7 +9790,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
         <v>259</v>
       </c>
@@ -9595,7 +9804,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
         <v>259</v>
       </c>
@@ -9609,7 +9818,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
         <v>260</v>
       </c>
@@ -9623,7 +9832,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
         <v>260</v>
       </c>
@@ -9637,7 +9846,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
         <v>260</v>
       </c>
@@ -9651,7 +9860,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
         <v>260</v>
       </c>
@@ -9665,7 +9874,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
         <v>261</v>
       </c>
@@ -9679,7 +9888,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
         <v>261</v>
       </c>
@@ -9693,7 +9902,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
         <v>261</v>
       </c>
@@ -9707,7 +9916,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
         <v>261</v>
       </c>
@@ -9721,7 +9930,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
         <v>262</v>
       </c>
@@ -9735,7 +9944,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
         <v>262</v>
       </c>
@@ -9749,7 +9958,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
         <v>262</v>
       </c>
@@ -9763,7 +9972,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
         <v>262</v>
       </c>
@@ -9777,7 +9986,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
         <v>263</v>
       </c>
@@ -9791,7 +10000,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
         <v>263</v>
       </c>
@@ -9805,7 +10014,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
         <v>263</v>
       </c>
@@ -9819,7 +10028,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
         <v>263</v>
       </c>
@@ -9833,7 +10042,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
         <v>264</v>
       </c>
@@ -9847,7 +10056,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
         <v>264</v>
       </c>
@@ -9861,7 +10070,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
         <v>264</v>
       </c>
@@ -9875,7 +10084,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
         <v>264</v>
       </c>
@@ -9889,7 +10098,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
         <v>265</v>
       </c>
@@ -9903,7 +10112,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="3" t="s">
         <v>265</v>
       </c>
@@ -9917,7 +10126,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="3" t="s">
         <v>266</v>
       </c>
@@ -9931,7 +10140,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="3" t="s">
         <v>266</v>
       </c>
@@ -9945,7 +10154,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="3" t="s">
         <v>267</v>
       </c>
@@ -9959,7 +10168,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
         <v>267</v>
       </c>
@@ -9973,7 +10182,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="3" t="s">
         <v>268</v>
       </c>
@@ -9987,7 +10196,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
         <v>268</v>
       </c>
@@ -10001,7 +10210,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
         <v>269</v>
       </c>
@@ -10015,7 +10224,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
         <v>269</v>
       </c>
@@ -10029,7 +10238,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
         <v>270</v>
       </c>
@@ -10043,7 +10252,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
         <v>270</v>
       </c>
@@ -10057,7 +10266,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
         <v>271</v>
       </c>
@@ -10071,7 +10280,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
         <v>271</v>
       </c>
@@ -10085,7 +10294,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
         <v>272</v>
       </c>
@@ -10099,7 +10308,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
         <v>272</v>
       </c>
@@ -10113,7 +10322,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
         <v>273</v>
       </c>
@@ -10127,7 +10336,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
         <v>273</v>
       </c>
@@ -10141,7 +10350,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="455" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
         <v>274</v>
       </c>
@@ -10155,7 +10364,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
         <v>274</v>
       </c>
@@ -10169,7 +10378,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
         <v>275</v>
       </c>
@@ -10183,7 +10392,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
         <v>275</v>
       </c>
@@ -10197,7 +10406,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
         <v>276</v>
       </c>
@@ -10211,7 +10420,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
         <v>276</v>
       </c>
@@ -10225,7 +10434,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
         <v>277</v>
       </c>
@@ -10239,7 +10448,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="3" t="s">
         <v>277</v>
       </c>
@@ -10253,7 +10462,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
         <v>278</v>
       </c>
@@ -10267,7 +10476,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
         <v>278</v>
       </c>
@@ -10281,7 +10490,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="3" t="s">
         <v>279</v>
       </c>
@@ -10295,7 +10504,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
         <v>279</v>
       </c>
@@ -10309,7 +10518,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
         <v>280</v>
       </c>
@@ -10323,7 +10532,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
         <v>280</v>
       </c>
@@ -10337,7 +10546,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
         <v>281</v>
       </c>
@@ -10351,7 +10560,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
         <v>281</v>
       </c>
@@ -10365,7 +10574,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
         <v>282</v>
       </c>
@@ -10379,7 +10588,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
         <v>282</v>
       </c>

--- a/R/data/dictionaries/core/1_1/1_1_non_repeated.xlsx
+++ b/R/data/dictionaries/core/1_1/1_1_non_repeated.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="484">
   <si>
     <t>name</t>
   </si>
@@ -1415,15 +1415,9 @@
     <t>sleept_psc</t>
   </si>
   <si>
-    <t>Decimal</t>
-  </si>
-  <si>
     <t>h/day</t>
   </si>
   <si>
-    <t>sleep (day + night), h/day, preschool age</t>
-  </si>
-  <si>
     <t>sleeptage_psc</t>
   </si>
   <si>
@@ -1433,9 +1427,6 @@
     <t>outdoorp_psc</t>
   </si>
   <si>
-    <t>time spent playing outdoors h/day, preschool age</t>
-  </si>
-  <si>
     <t>outdoorpage_psc</t>
   </si>
   <si>
@@ -1445,15 +1436,9 @@
     <t>tv_psc</t>
   </si>
   <si>
-    <t>time spent watching TV, h/day, preschool age</t>
-  </si>
-  <si>
     <t>screenoth_psc</t>
   </si>
   <si>
-    <t>time spent watching screens (except TV) h/day, preschool age</t>
-  </si>
-  <si>
     <t>screenage_psc</t>
   </si>
   <si>
@@ -1463,13 +1448,25 @@
     <t>patternA_snackscreen_psc</t>
   </si>
   <si>
-    <t>child’s score on the snack screen pattern (relative, derived from PCA loadings), preschool age</t>
-  </si>
-  <si>
     <t>patternB_psc</t>
   </si>
   <si>
-    <t>child’s score on the second multibehavioral pattern (relative, derived from PCA loadings), preschool age</t>
+    <t>Sleep (day + night), h/day, preschool age</t>
+  </si>
+  <si>
+    <t>Time spent playing outdoors h/day, preschool age</t>
+  </si>
+  <si>
+    <t>Time spent watching TV, h/day, preschool age</t>
+  </si>
+  <si>
+    <t>Time spent watching screens (except TV) h/day, preschool age</t>
+  </si>
+  <si>
+    <t>Child’s score on the snack screen pattern (relative, derived from PCA loadings), preschool age</t>
+  </si>
+  <si>
+    <t>Child’s score on the second multibehavioral pattern (relative, derived from PCA loadings), preschool age</t>
   </si>
 </sst>
 </file>
@@ -2069,8 +2066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG120"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112:D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3852,105 +3849,105 @@
         <v>465</v>
       </c>
       <c r="B112" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="C112" s="13" t="s">
-        <v>467</v>
-      </c>
       <c r="D112" s="13" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>466</v>
+        <v>11</v>
       </c>
       <c r="C113" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B114" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="C114" s="14" t="s">
-        <v>467</v>
-      </c>
       <c r="D114" s="13" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>466</v>
+        <v>11</v>
       </c>
       <c r="C115" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B116" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="C116" s="13" t="s">
-        <v>467</v>
-      </c>
       <c r="D116" s="13" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B117" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="C117" s="13" t="s">
-        <v>467</v>
-      </c>
       <c r="D117" s="13" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>466</v>
+        <v>11</v>
       </c>
       <c r="C118" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>466</v>
+        <v>11</v>
       </c>
       <c r="C119" s="13"/>
       <c r="D119" s="14" t="s">
@@ -3959,14 +3956,14 @@
     </row>
     <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>466</v>
+        <v>11</v>
       </c>
       <c r="C120" s="13"/>
       <c r="D120" s="14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/dictionaries/core/1_1/1_1_non_repeated.xlsx
+++ b/R/data/dictionaries/core/1_1/1_1_non_repeated.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\ProjectGroups\LifeCycle\WP1 final package\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="525" windowWidth="28800" windowHeight="16380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="488">
   <si>
     <t>name</t>
   </si>
@@ -1467,12 +1472,24 @@
   </si>
   <si>
     <t>Child’s score on the second multibehavioral pattern (relative, derived from PCA loadings), preschool age</t>
+  </si>
+  <si>
+    <t>KANC</t>
+  </si>
+  <si>
+    <t>GASPII</t>
+  </si>
+  <si>
+    <t>PICCOLIPU</t>
+  </si>
+  <si>
+    <t>ABCD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1683,6 +1700,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2067,10 +2087,10 @@
   <dimension ref="A1:BG120"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112:D120"/>
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
@@ -3807,7 +3827,7 @@
         <v>69</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>7</v>
@@ -3977,13 +3997,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D472"/>
+  <dimension ref="A1:D476"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A274" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C472"/>
+    <sheetView showGridLines="0" topLeftCell="A442" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
     <col min="2" max="3" width="8.85546875" style="1"/>
@@ -4259,58 +4279,58 @@
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="3">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="C20" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>301</v>
+      <c r="D20" s="4" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="3">
-        <v>208</v>
+        <v>120</v>
       </c>
       <c r="C21" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>302</v>
+      <c r="D21" s="4" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="3">
-        <v>246</v>
+        <v>121</v>
       </c>
       <c r="C22" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>303</v>
+      <c r="D22" s="4" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="3">
-        <v>250</v>
+        <v>122</v>
       </c>
       <c r="C23" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>304</v>
+      <c r="D23" s="4" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4318,13 +4338,13 @@
         <v>6</v>
       </c>
       <c r="B24" s="3">
-        <v>276</v>
+        <v>36</v>
       </c>
       <c r="C24" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4332,13 +4352,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="3">
-        <v>300</v>
+        <v>208</v>
       </c>
       <c r="C25" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4346,13 +4366,13 @@
         <v>6</v>
       </c>
       <c r="B26" s="3">
-        <v>380</v>
+        <v>246</v>
       </c>
       <c r="C26" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4360,13 +4380,13 @@
         <v>6</v>
       </c>
       <c r="B27" s="3">
-        <v>528</v>
+        <v>250</v>
       </c>
       <c r="C27" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4374,13 +4394,13 @@
         <v>6</v>
       </c>
       <c r="B28" s="3">
-        <v>578</v>
+        <v>276</v>
       </c>
       <c r="C28" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4388,13 +4408,13 @@
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>724</v>
+        <v>300</v>
       </c>
       <c r="C29" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4402,242 +4422,242 @@
         <v>6</v>
       </c>
       <c r="B30" s="3">
-        <v>826</v>
+        <v>380</v>
       </c>
       <c r="C30" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="B31" s="3">
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="C31" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="B32" s="3">
-        <v>1</v>
+        <v>578</v>
       </c>
       <c r="C32" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="3">
+        <v>724</v>
+      </c>
+      <c r="C33" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="3">
+        <v>826</v>
+      </c>
+      <c r="C34" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
+      <c r="C35" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="3">
         <v>2</v>
       </c>
-      <c r="C33" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="C37" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="3">
-        <v>1</v>
-      </c>
-      <c r="C34" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="3">
-        <v>2</v>
-      </c>
-      <c r="C35" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3">
-        <v>3</v>
-      </c>
-      <c r="C36" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="3">
-        <v>1</v>
-      </c>
-      <c r="C37" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>458</v>
+      <c r="D38" s="4" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>456</v>
+      <c r="D39" s="4" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B40" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>455</v>
+      <c r="D41" s="6" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2</v>
+      </c>
+      <c r="C42" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="3">
+        <v>3</v>
+      </c>
+      <c r="C43" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="3">
-        <v>3</v>
-      </c>
-      <c r="C42" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D42" s="4" t="s">
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+      <c r="C44" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="3">
+        <v>2</v>
+      </c>
+      <c r="C45" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="3">
+        <v>3</v>
+      </c>
+      <c r="C46" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>456</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="3">
-        <v>0</v>
-      </c>
-      <c r="C43" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B44" s="3">
-        <v>1</v>
-      </c>
-      <c r="C44" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" s="3">
-        <v>0</v>
-      </c>
-      <c r="C45" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" s="3">
-        <v>1</v>
-      </c>
-      <c r="C46" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B47" s="3">
         <v>0</v>
@@ -4646,12 +4666,12 @@
         <v>0</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B48" s="3">
         <v>1</v>
@@ -4660,12 +4680,12 @@
         <v>0</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>322</v>
+        <v>459</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B49" s="3">
         <v>0</v>
@@ -4679,7 +4699,7 @@
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B50" s="3">
         <v>1</v>
@@ -4693,35 +4713,35 @@
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B51" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C51" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B52" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C52" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B53" s="3">
         <v>0</v>
@@ -4735,7 +4755,7 @@
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B54" s="3">
         <v>1</v>
@@ -4749,58 +4769,58 @@
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B55" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B56" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C56" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B57" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C57" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B58" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C58" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4808,74 +4828,74 @@
         <v>87</v>
       </c>
       <c r="B59" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C59" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B60" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C60" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B61" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C61" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B62" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C62" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B63" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C63" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
@@ -4889,7 +4909,7 @@
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B65" s="3">
         <v>1</v>
@@ -4903,7 +4923,7 @@
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B66" s="3">
         <v>0</v>
@@ -4917,7 +4937,7 @@
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B67" s="3">
         <v>1</v>
@@ -4931,7 +4951,7 @@
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B68" s="3">
         <v>0</v>
@@ -4945,7 +4965,7 @@
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B69" s="3">
         <v>1</v>
@@ -4959,7 +4979,7 @@
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B70" s="3">
         <v>0</v>
@@ -4973,7 +4993,7 @@
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B71" s="3">
         <v>1</v>
@@ -4987,7 +5007,7 @@
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B72" s="3">
         <v>0</v>
@@ -5001,7 +5021,7 @@
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B73" s="3">
         <v>1</v>
@@ -5015,7 +5035,7 @@
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B74" s="3">
         <v>0</v>
@@ -5029,7 +5049,7 @@
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B75" s="3">
         <v>1</v>
@@ -5043,7 +5063,7 @@
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B76" s="3">
         <v>0</v>
@@ -5057,7 +5077,7 @@
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B77" s="3">
         <v>1</v>
@@ -5071,7 +5091,7 @@
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="B78" s="3">
         <v>0</v>
@@ -5085,7 +5105,7 @@
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="B79" s="3">
         <v>1</v>
@@ -5099,7 +5119,7 @@
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="B80" s="3">
         <v>0</v>
@@ -5107,13 +5127,13 @@
       <c r="C80" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>28</v>
+      <c r="D80" s="6" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="B81" s="3">
         <v>1</v>
@@ -5121,83 +5141,83 @@
       <c r="C81" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>29</v>
+      <c r="D81" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B82" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C82" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>30</v>
+      <c r="D82" s="6" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="B83" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B84" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D84" s="6" t="s">
-        <v>318</v>
+      <c r="D84" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="B85" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D85" s="6" t="s">
-        <v>317</v>
+      <c r="D85" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="B86" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C86" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D86" s="6" t="s">
-        <v>318</v>
+      <c r="D86" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B87" s="3">
         <v>0</v>
@@ -5211,7 +5231,7 @@
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B88" s="3">
         <v>1</v>
@@ -5224,8 +5244,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>16</v>
+      <c r="A89" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B89" s="3">
         <v>0</v>
@@ -5233,13 +5253,13 @@
       <c r="C89" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>330</v>
+      <c r="D89" s="6" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>16</v>
+      <c r="A90" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B90" s="3">
         <v>1</v>
@@ -5247,13 +5267,13 @@
       <c r="C90" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>331</v>
+      <c r="D90" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B91" s="3">
         <v>0</v>
@@ -5261,13 +5281,13 @@
       <c r="C91" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>28</v>
+      <c r="D91" s="6" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B92" s="3">
         <v>1</v>
@@ -5275,106 +5295,106 @@
       <c r="C92" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>29</v>
+      <c r="D92" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>17</v>
+      <c r="A93" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B93" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C93" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>30</v>
+        <v>330</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>97</v>
+      <c r="A94" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B94" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D94" s="6" t="s">
-        <v>317</v>
+      <c r="D94" s="4" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="B95" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D95" s="6" t="s">
-        <v>318</v>
+      <c r="D95" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="B96" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D96" s="6" t="s">
-        <v>332</v>
+      <c r="D96" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="B97" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C97" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D97" s="6" t="s">
-        <v>333</v>
+      <c r="D97" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C98" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>380</v>
+        <v>317</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C99" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>381</v>
+        <v>318</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5382,102 +5402,102 @@
         <v>98</v>
       </c>
       <c r="B100" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C100" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>382</v>
+        <v>332</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
-        <v>337</v>
+      <c r="A101" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="B101" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D101" s="4" t="s">
-        <v>330</v>
+      <c r="D101" s="6" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>337</v>
+      <c r="A102" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="B102" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C102" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>331</v>
+      <c r="D102" s="6" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>338</v>
+        <v>98</v>
       </c>
       <c r="B103" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C103" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D103" s="4" t="s">
-        <v>28</v>
+      <c r="D103" s="6" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>338</v>
+        <v>98</v>
       </c>
       <c r="B104" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C104" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D104" s="4" t="s">
-        <v>339</v>
+      <c r="D104" s="6" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>338</v>
+      <c r="A105" s="4" t="s">
+        <v>337</v>
       </c>
       <c r="B105" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C105" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>338</v>
+      <c r="A106" s="4" t="s">
+        <v>337</v>
       </c>
       <c r="B106" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C106" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>101</v>
+        <v>338</v>
       </c>
       <c r="B107" s="3">
         <v>0</v>
@@ -5486,12 +5506,12 @@
         <v>0</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>330</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>101</v>
+        <v>338</v>
       </c>
       <c r="B108" s="3">
         <v>1</v>
@@ -5500,40 +5520,40 @@
         <v>0</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>102</v>
+        <v>338</v>
       </c>
       <c r="B109" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C109" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>102</v>
+        <v>338</v>
       </c>
       <c r="B110" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C110" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B111" s="3">
         <v>0</v>
@@ -5547,7 +5567,7 @@
     </row>
     <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B112" s="3">
         <v>1</v>
@@ -5561,7 +5581,7 @@
     </row>
     <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B113" s="3">
         <v>0</v>
@@ -5575,7 +5595,7 @@
     </row>
     <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B114" s="3">
         <v>1</v>
@@ -5589,7 +5609,7 @@
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B115" s="3">
         <v>0</v>
@@ -5603,7 +5623,7 @@
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B116" s="3">
         <v>1</v>
@@ -5617,7 +5637,7 @@
     </row>
     <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B117" s="3">
         <v>0</v>
@@ -5631,7 +5651,7 @@
     </row>
     <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B118" s="3">
         <v>1</v>
@@ -5645,7 +5665,7 @@
     </row>
     <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B119" s="3">
         <v>0</v>
@@ -5653,13 +5673,13 @@
       <c r="C119" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D119" s="6">
-        <v>0</v>
+      <c r="D119" s="4" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B120" s="3">
         <v>1</v>
@@ -5667,36 +5687,36 @@
       <c r="C120" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D120" s="6">
-        <v>1</v>
+      <c r="D120" s="4" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B121" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C121" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D121" s="6">
-        <v>2</v>
+      <c r="D121" s="4" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B122" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C122" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D122" s="6">
-        <v>3</v>
+      <c r="D122" s="4" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5704,18 +5724,18 @@
         <v>113</v>
       </c>
       <c r="B123" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C123" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D123" s="8" t="s">
-        <v>342</v>
+      <c r="D123" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B124" s="3">
         <v>1</v>
@@ -5723,13 +5743,13 @@
       <c r="C124" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D124" s="6" t="s">
-        <v>344</v>
+      <c r="D124" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B125" s="3">
         <v>2</v>
@@ -5737,120 +5757,120 @@
       <c r="C125" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D125" s="6" t="s">
-        <v>343</v>
+      <c r="D125" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B126" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C126" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D126" s="4" t="s">
-        <v>330</v>
+      <c r="D126" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B127" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C127" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D127" s="4" t="s">
-        <v>331</v>
+      <c r="D127" s="8" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B128" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D128" s="4" t="s">
-        <v>330</v>
+      <c r="D128" s="6" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B129" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C129" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D129" s="4" t="s">
-        <v>331</v>
+      <c r="D129" s="6" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="B130" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>31</v>
+        <v>330</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="B131" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C131" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>32</v>
+        <v>331</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="B132" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C132" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>33</v>
+        <v>330</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="B133" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C133" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>34</v>
+        <v>331</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5858,13 +5878,13 @@
         <v>18</v>
       </c>
       <c r="B134" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C134" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5872,69 +5892,69 @@
         <v>18</v>
       </c>
       <c r="B135" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C135" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="B136" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C136" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D136" s="6" t="s">
-        <v>349</v>
+      <c r="D136" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="B137" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C137" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D137" s="6" t="s">
-        <v>345</v>
+      <c r="D137" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="B138" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C138" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D138" s="6" t="s">
-        <v>346</v>
+      <c r="D138" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="B139" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C139" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D139" s="6" t="s">
-        <v>347</v>
+      <c r="D139" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5942,158 +5962,158 @@
         <v>120</v>
       </c>
       <c r="B140" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C140" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B141" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C141" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D141" s="4" t="s">
-        <v>330</v>
+      <c r="D141" s="6" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B142" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C142" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D142" s="4" t="s">
-        <v>331</v>
+      <c r="D142" s="6" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B143" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C143" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B144" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C144" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B145" s="3">
+        <v>0</v>
+      </c>
+      <c r="C145" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B146" s="3">
+        <v>1</v>
+      </c>
+      <c r="C146" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B147" s="3">
+        <v>0</v>
+      </c>
+      <c r="C147" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B148" s="3">
+        <v>1</v>
+      </c>
+      <c r="C148" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B149" s="3">
         <v>2</v>
       </c>
-      <c r="C145" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D145" s="6" t="s">
+      <c r="C149" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D149" s="6" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="5" t="s">
+    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B146" s="3">
-        <v>1</v>
-      </c>
-      <c r="C146" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D146" s="6" t="s">
+      <c r="B150" s="3">
+        <v>1</v>
+      </c>
+      <c r="C150" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D150" s="6" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
+    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="B147" s="3">
-        <v>2</v>
-      </c>
-      <c r="C147" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D147" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B148" s="3">
-        <v>3</v>
-      </c>
-      <c r="C148" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D148" s="6" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B149" s="3">
-        <v>4</v>
-      </c>
-      <c r="C149" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D149" s="6" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B150" s="3">
-        <v>1</v>
-      </c>
-      <c r="C150" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="B151" s="3">
         <v>2</v>
@@ -6101,13 +6121,13 @@
       <c r="C151" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D151" s="4" t="s">
-        <v>313</v>
+      <c r="D151" s="6" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="s">
-        <v>126</v>
+      <c r="A152" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="B152" s="3">
         <v>3</v>
@@ -6115,433 +6135,433 @@
       <c r="C152" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D152" s="4" t="s">
-        <v>314</v>
+      <c r="D152" s="6" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="4" t="s">
-        <v>127</v>
+      <c r="A153" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="B153" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C153" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B154" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C154" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D154" s="6" t="s">
-        <v>334</v>
+      <c r="D154" s="4" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B155" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C155" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D155" s="6" t="s">
-        <v>314</v>
+      <c r="D155" s="4" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B156" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C156" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B157" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C157" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D157" s="4" t="s">
-        <v>313</v>
+      <c r="D157" s="6" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B158" s="3">
+        <v>2</v>
+      </c>
+      <c r="C158" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B159" s="3">
+        <v>3</v>
+      </c>
+      <c r="C159" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B158" s="3">
-        <v>3</v>
-      </c>
-      <c r="C158" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D158" s="4" t="s">
+      <c r="B160" s="3">
+        <v>1</v>
+      </c>
+      <c r="C160" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B161" s="3">
+        <v>2</v>
+      </c>
+      <c r="C161" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B162" s="3">
+        <v>3</v>
+      </c>
+      <c r="C162" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D162" s="4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="5" t="s">
+    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B159" s="3">
-        <v>1</v>
-      </c>
-      <c r="C159" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D159" s="6" t="s">
+      <c r="B163" s="3">
+        <v>1</v>
+      </c>
+      <c r="C163" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D163" s="6" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="5" t="s">
+    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B164" s="3">
         <v>2</v>
       </c>
-      <c r="C160" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D160" s="6" t="s">
+      <c r="C164" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D164" s="6" t="s">
         <v>351</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B161" s="3">
-        <v>3</v>
-      </c>
-      <c r="C161" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D161" s="6" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B162" s="3">
-        <v>4</v>
-      </c>
-      <c r="C162" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D162" s="6" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B163" s="3">
-        <v>0</v>
-      </c>
-      <c r="C163" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D163" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B164" s="3">
-        <v>1</v>
-      </c>
-      <c r="C164" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B165" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C165" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B166" s="3">
+        <v>4</v>
+      </c>
+      <c r="C166" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B167" s="3">
+        <v>0</v>
+      </c>
+      <c r="C167" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B168" s="3">
+        <v>1</v>
+      </c>
+      <c r="C168" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B169" s="3">
+        <v>1</v>
+      </c>
+      <c r="C169" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B170" s="3">
         <v>2</v>
       </c>
-      <c r="C166" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D166" s="6" t="s">
+      <c r="C170" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D170" s="6" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="5" t="s">
+    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B167" s="3">
-        <v>3</v>
-      </c>
-      <c r="C167" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D167" s="6" t="s">
+      <c r="B171" s="3">
+        <v>3</v>
+      </c>
+      <c r="C171" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D171" s="6" t="s">
         <v>352</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B168" s="3">
-        <v>4</v>
-      </c>
-      <c r="C168" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D168" s="6" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B169" s="3">
-        <v>0</v>
-      </c>
-      <c r="C169" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D169" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B170" s="3">
-        <v>1</v>
-      </c>
-      <c r="C170" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D170" s="6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B171" s="3">
-        <v>2</v>
-      </c>
-      <c r="C171" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D171" s="6" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B172" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C172" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="5" t="s">
-        <v>143</v>
+      <c r="A173" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="B173" s="3">
+        <v>0</v>
+      </c>
+      <c r="C173" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B174" s="3">
+        <v>1</v>
+      </c>
+      <c r="C174" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B175" s="3">
         <v>2</v>
       </c>
-      <c r="C173" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D173" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B174" s="3">
-        <v>3</v>
-      </c>
-      <c r="C174" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D174" s="6" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B175" s="3">
-        <v>4</v>
-      </c>
       <c r="C175" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B176" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B177" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C177" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B178" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C178" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B179" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C179" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B180" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C180" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B181" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C181" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B182" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C182" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B183" s="3">
         <v>1</v>
@@ -6550,12 +6570,12 @@
         <v>0</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B184" s="3">
         <v>2</v>
@@ -6564,12 +6584,12 @@
         <v>0</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B185" s="3">
         <v>3</v>
@@ -6578,12 +6598,12 @@
         <v>0</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B186" s="3">
         <v>4</v>
@@ -6592,68 +6612,68 @@
         <v>0</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B187" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C187" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B188" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C188" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B189" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C189" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B190" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C190" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B191" s="3">
         <v>0</v>
@@ -6667,7 +6687,7 @@
     </row>
     <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B192" s="3">
         <v>1</v>
@@ -6681,7 +6701,7 @@
     </row>
     <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B193" s="3">
         <v>0</v>
@@ -6690,12 +6710,12 @@
         <v>0</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>359</v>
+        <v>317</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B194" s="3">
         <v>1</v>
@@ -6704,26 +6724,26 @@
         <v>0</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B195" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C195" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>361</v>
+        <v>317</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B196" s="3">
         <v>1</v>
@@ -6732,208 +6752,208 @@
         <v>0</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B197" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C197" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B198" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C198" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B199" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C199" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B200" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B201" s="3">
+        <v>2</v>
+      </c>
+      <c r="C201" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B202" s="3">
+        <v>3</v>
+      </c>
+      <c r="C202" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B203" s="3">
+        <v>4</v>
+      </c>
+      <c r="C203" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B201" s="3">
-        <v>1</v>
-      </c>
-      <c r="C201" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D201" s="6" t="s">
+      <c r="B204" s="3">
+        <v>0</v>
+      </c>
+      <c r="C204" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B205" s="3">
+        <v>1</v>
+      </c>
+      <c r="C205" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D205" s="6" t="s">
         <v>318</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B202" s="3">
-        <v>1</v>
-      </c>
-      <c r="C202" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D202" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B203" s="3">
-        <v>2</v>
-      </c>
-      <c r="C203" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D203" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B204" s="3">
-        <v>1</v>
-      </c>
-      <c r="C204" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D204" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B205" s="3">
-        <v>2</v>
-      </c>
-      <c r="C205" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D205" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B206" s="3">
+        <v>1</v>
+      </c>
+      <c r="C206" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B207" s="3">
+        <v>2</v>
+      </c>
+      <c r="C207" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B206" s="3">
-        <v>3</v>
-      </c>
-      <c r="C206" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D206" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B207" s="3">
-        <v>1</v>
-      </c>
-      <c r="C207" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D207" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="B208" s="3">
+        <v>1</v>
+      </c>
+      <c r="C208" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B209" s="3">
         <v>2</v>
       </c>
-      <c r="C208" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D208" s="4" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B209" s="3">
-        <v>3</v>
-      </c>
       <c r="C209" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>364</v>
+        <v>40</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>181</v>
+        <v>20</v>
       </c>
       <c r="B210" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C210" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D210" s="6" t="s">
-        <v>317</v>
+      <c r="D210" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
-        <v>181</v>
+      <c r="A211" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="B211" s="3">
         <v>1</v>
@@ -6941,41 +6961,41 @@
       <c r="C211" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D211" s="6" t="s">
-        <v>318</v>
+      <c r="D211" s="4" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
-        <v>182</v>
+      <c r="A212" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="B212" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C212" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D212" s="6" t="s">
-        <v>317</v>
+      <c r="D212" s="4" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
-        <v>182</v>
+      <c r="A213" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="B213" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C213" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D213" s="6" t="s">
-        <v>318</v>
+      <c r="D213" s="4" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B214" s="3">
         <v>0</v>
@@ -6989,7 +7009,7 @@
     </row>
     <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B215" s="3">
         <v>1</v>
@@ -7003,58 +7023,58 @@
     </row>
     <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B216" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C216" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D216" s="6">
-        <v>1</v>
+      <c r="D216" s="6" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B217" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C217" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D217" s="6">
-        <v>2</v>
+      <c r="D217" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B218" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C218" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D218" s="6">
-        <v>3</v>
+      <c r="D218" s="6" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B219" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C219" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D219" s="6">
-        <v>4</v>
+      <c r="D219" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7062,74 +7082,74 @@
         <v>184</v>
       </c>
       <c r="B220" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C220" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D220" s="8" t="s">
-        <v>365</v>
+      <c r="D220" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B221" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C221" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D221" s="6" t="s">
-        <v>317</v>
+      <c r="D221" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B222" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C222" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D222" s="6" t="s">
-        <v>318</v>
+      <c r="D222" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>26</v>
+        <v>184</v>
       </c>
       <c r="B223" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C223" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D223" s="4" t="s">
-        <v>42</v>
+      <c r="D223" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>26</v>
+        <v>184</v>
       </c>
       <c r="B224" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C224" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D224" s="4" t="s">
-        <v>43</v>
+      <c r="D224" s="8" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B225" s="3">
         <v>0</v>
@@ -7138,12 +7158,12 @@
         <v>0</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>366</v>
+        <v>317</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B226" s="3">
         <v>1</v>
@@ -7152,12 +7172,12 @@
         <v>0</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>196</v>
+        <v>26</v>
       </c>
       <c r="B227" s="3">
         <v>0</v>
@@ -7165,13 +7185,13 @@
       <c r="C227" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D227" s="6" t="s">
-        <v>366</v>
+      <c r="D227" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>196</v>
+        <v>26</v>
       </c>
       <c r="B228" s="3">
         <v>1</v>
@@ -7179,13 +7199,13 @@
       <c r="C228" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D228" s="6" t="s">
-        <v>367</v>
+      <c r="D228" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B229" s="3">
         <v>0</v>
@@ -7199,7 +7219,7 @@
     </row>
     <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B230" s="3">
         <v>1</v>
@@ -7213,7 +7233,7 @@
     </row>
     <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B231" s="3">
         <v>0</v>
@@ -7227,7 +7247,7 @@
     </row>
     <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B232" s="3">
         <v>1</v>
@@ -7241,7 +7261,7 @@
     </row>
     <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B233" s="3">
         <v>0</v>
@@ -7250,12 +7270,12 @@
         <v>0</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B234" s="3">
         <v>1</v>
@@ -7264,12 +7284,12 @@
         <v>0</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B235" s="3">
         <v>0</v>
@@ -7278,12 +7298,12 @@
         <v>0</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B236" s="3">
         <v>1</v>
@@ -7292,12 +7312,12 @@
         <v>0</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B237" s="3">
         <v>0</v>
@@ -7311,7 +7331,7 @@
     </row>
     <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B238" s="3">
         <v>1</v>
@@ -7325,7 +7345,7 @@
     </row>
     <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B239" s="3">
         <v>0</v>
@@ -7339,7 +7359,7 @@
     </row>
     <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B240" s="3">
         <v>1</v>
@@ -7353,7 +7373,7 @@
     </row>
     <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B241" s="3">
         <v>0</v>
@@ -7362,12 +7382,12 @@
         <v>0</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B242" s="3">
         <v>1</v>
@@ -7376,12 +7396,12 @@
         <v>0</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B243" s="3">
         <v>0</v>
@@ -7390,12 +7410,12 @@
         <v>0</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B244" s="3">
         <v>1</v>
@@ -7404,12 +7424,12 @@
         <v>0</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B245" s="3">
         <v>0</v>
@@ -7423,7 +7443,7 @@
     </row>
     <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B246" s="3">
         <v>1</v>
@@ -7437,7 +7457,7 @@
     </row>
     <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B247" s="3">
         <v>0</v>
@@ -7451,7 +7471,7 @@
     </row>
     <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B248" s="3">
         <v>1</v>
@@ -7465,7 +7485,7 @@
     </row>
     <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B249" s="3">
         <v>0</v>
@@ -7474,12 +7494,12 @@
         <v>0</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B250" s="3">
         <v>1</v>
@@ -7488,12 +7508,12 @@
         <v>0</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B251" s="3">
         <v>0</v>
@@ -7502,12 +7522,12 @@
         <v>0</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B252" s="3">
         <v>1</v>
@@ -7516,12 +7536,12 @@
         <v>0</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B253" s="3">
         <v>0</v>
@@ -7535,7 +7555,7 @@
     </row>
     <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B254" s="3">
         <v>1</v>
@@ -7549,7 +7569,7 @@
     </row>
     <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B255" s="3">
         <v>0</v>
@@ -7563,7 +7583,7 @@
     </row>
     <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B256" s="3">
         <v>1</v>
@@ -7576,8 +7596,8 @@
       </c>
     </row>
     <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="4" t="s">
-        <v>44</v>
+      <c r="A257" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="B257" s="3">
         <v>0</v>
@@ -7585,13 +7605,13 @@
       <c r="C257" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D257" s="4" t="s">
-        <v>62</v>
+      <c r="D257" s="6" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="4" t="s">
-        <v>44</v>
+      <c r="A258" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="B258" s="3">
         <v>1</v>
@@ -7599,13 +7619,13 @@
       <c r="C258" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D258" s="4" t="s">
-        <v>63</v>
+      <c r="D258" s="6" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="4" t="s">
-        <v>45</v>
+      <c r="A259" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="B259" s="3">
         <v>0</v>
@@ -7613,13 +7633,13 @@
       <c r="C259" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D259" s="4" t="s">
-        <v>62</v>
+      <c r="D259" s="6" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="4" t="s">
-        <v>45</v>
+      <c r="A260" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="B260" s="3">
         <v>1</v>
@@ -7627,13 +7647,13 @@
       <c r="C260" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D260" s="4" t="s">
-        <v>63</v>
+      <c r="D260" s="6" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B261" s="3">
         <v>0</v>
@@ -7647,7 +7667,7 @@
     </row>
     <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B262" s="3">
         <v>1</v>
@@ -7661,7 +7681,7 @@
     </row>
     <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B263" s="3">
         <v>0</v>
@@ -7675,7 +7695,7 @@
     </row>
     <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B264" s="3">
         <v>1</v>
@@ -7689,7 +7709,7 @@
     </row>
     <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B265" s="3">
         <v>0</v>
@@ -7703,7 +7723,7 @@
     </row>
     <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B266" s="3">
         <v>1</v>
@@ -7717,7 +7737,7 @@
     </row>
     <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B267" s="3">
         <v>0</v>
@@ -7731,7 +7751,7 @@
     </row>
     <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B268" s="3">
         <v>1</v>
@@ -7745,7 +7765,7 @@
     </row>
     <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B269" s="3">
         <v>0</v>
@@ -7759,7 +7779,7 @@
     </row>
     <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B270" s="3">
         <v>1</v>
@@ -7773,7 +7793,7 @@
     </row>
     <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B271" s="3">
         <v>0</v>
@@ -7787,7 +7807,7 @@
     </row>
     <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B272" s="3">
         <v>1</v>
@@ -7801,7 +7821,7 @@
     </row>
     <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B273" s="3">
         <v>0</v>
@@ -7815,7 +7835,7 @@
     </row>
     <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B274" s="3">
         <v>1</v>
@@ -7829,7 +7849,7 @@
     </row>
     <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B275" s="3">
         <v>0</v>
@@ -7843,7 +7863,7 @@
     </row>
     <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B276" s="3">
         <v>1</v>
@@ -7857,7 +7877,7 @@
     </row>
     <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B277" s="3">
         <v>0</v>
@@ -7871,7 +7891,7 @@
     </row>
     <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B278" s="3">
         <v>1</v>
@@ -7885,7 +7905,7 @@
     </row>
     <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B279" s="3">
         <v>0</v>
@@ -7899,7 +7919,7 @@
     </row>
     <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B280" s="3">
         <v>1</v>
@@ -7913,7 +7933,7 @@
     </row>
     <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B281" s="3">
         <v>0</v>
@@ -7927,7 +7947,7 @@
     </row>
     <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B282" s="3">
         <v>1</v>
@@ -7941,7 +7961,7 @@
     </row>
     <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B283" s="3">
         <v>0</v>
@@ -7955,7 +7975,7 @@
     </row>
     <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B284" s="3">
         <v>1</v>
@@ -7969,7 +7989,7 @@
     </row>
     <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B285" s="3">
         <v>0</v>
@@ -7983,7 +8003,7 @@
     </row>
     <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B286" s="3">
         <v>1</v>
@@ -7997,7 +8017,7 @@
     </row>
     <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B287" s="3">
         <v>0</v>
@@ -8011,7 +8031,7 @@
     </row>
     <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B288" s="3">
         <v>1</v>
@@ -8025,7 +8045,7 @@
     </row>
     <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B289" s="3">
         <v>0</v>
@@ -8039,7 +8059,7 @@
     </row>
     <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B290" s="3">
         <v>1</v>
@@ -8053,7 +8073,7 @@
     </row>
     <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B291" s="3">
         <v>0</v>
@@ -8067,7 +8087,7 @@
     </row>
     <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B292" s="3">
         <v>1</v>
@@ -8080,8 +8100,8 @@
       </c>
     </row>
     <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="3" t="s">
-        <v>211</v>
+      <c r="A293" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="B293" s="3">
         <v>0</v>
@@ -8089,13 +8109,13 @@
       <c r="C293" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D293" s="6" t="s">
-        <v>317</v>
+      <c r="D293" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="3" t="s">
-        <v>211</v>
+      <c r="A294" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="B294" s="3">
         <v>1</v>
@@ -8103,13 +8123,13 @@
       <c r="C294" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D294" s="6" t="s">
-        <v>318</v>
+      <c r="D294" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="3" t="s">
-        <v>212</v>
+      <c r="A295" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="B295" s="3">
         <v>0</v>
@@ -8117,13 +8137,13 @@
       <c r="C295" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D295" s="6" t="s">
-        <v>317</v>
+      <c r="D295" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="3" t="s">
-        <v>212</v>
+      <c r="A296" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="B296" s="3">
         <v>1</v>
@@ -8131,13 +8151,13 @@
       <c r="C296" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D296" s="6" t="s">
-        <v>318</v>
+      <c r="D296" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B297" s="3">
         <v>0</v>
@@ -8151,7 +8171,7 @@
     </row>
     <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B298" s="3">
         <v>1</v>
@@ -8165,7 +8185,7 @@
     </row>
     <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B299" s="3">
         <v>0</v>
@@ -8179,7 +8199,7 @@
     </row>
     <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B300" s="3">
         <v>1</v>
@@ -8193,7 +8213,7 @@
     </row>
     <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B301" s="3">
         <v>0</v>
@@ -8207,7 +8227,7 @@
     </row>
     <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B302" s="3">
         <v>1</v>
@@ -8221,7 +8241,7 @@
     </row>
     <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B303" s="3">
         <v>0</v>
@@ -8235,7 +8255,7 @@
     </row>
     <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B304" s="3">
         <v>1</v>
@@ -8249,7 +8269,7 @@
     </row>
     <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B305" s="3">
         <v>0</v>
@@ -8263,7 +8283,7 @@
     </row>
     <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B306" s="3">
         <v>1</v>
@@ -8277,7 +8297,7 @@
     </row>
     <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B307" s="3">
         <v>0</v>
@@ -8291,7 +8311,7 @@
     </row>
     <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B308" s="3">
         <v>1</v>
@@ -8305,7 +8325,7 @@
     </row>
     <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B309" s="3">
         <v>0</v>
@@ -8319,7 +8339,7 @@
     </row>
     <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B310" s="3">
         <v>1</v>
@@ -8333,7 +8353,7 @@
     </row>
     <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B311" s="3">
         <v>0</v>
@@ -8347,7 +8367,7 @@
     </row>
     <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B312" s="3">
         <v>1</v>
@@ -8361,7 +8381,7 @@
     </row>
     <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B313" s="3">
         <v>0</v>
@@ -8375,7 +8395,7 @@
     </row>
     <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B314" s="3">
         <v>1</v>
@@ -8389,7 +8409,7 @@
     </row>
     <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B315" s="3">
         <v>0</v>
@@ -8403,7 +8423,7 @@
     </row>
     <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B316" s="3">
         <v>1</v>
@@ -8417,7 +8437,7 @@
     </row>
     <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B317" s="3">
         <v>0</v>
@@ -8431,7 +8451,7 @@
     </row>
     <row r="318" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B318" s="3">
         <v>1</v>
@@ -8445,7 +8465,7 @@
     </row>
     <row r="319" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B319" s="3">
         <v>0</v>
@@ -8459,7 +8479,7 @@
     </row>
     <row r="320" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B320" s="3">
         <v>1</v>
@@ -8473,7 +8493,7 @@
     </row>
     <row r="321" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B321" s="3">
         <v>0</v>
@@ -8487,7 +8507,7 @@
     </row>
     <row r="322" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B322" s="3">
         <v>1</v>
@@ -8501,7 +8521,7 @@
     </row>
     <row r="323" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B323" s="3">
         <v>0</v>
@@ -8515,7 +8535,7 @@
     </row>
     <row r="324" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B324" s="3">
         <v>1</v>
@@ -8529,7 +8549,7 @@
     </row>
     <row r="325" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B325" s="3">
         <v>0</v>
@@ -8543,7 +8563,7 @@
     </row>
     <row r="326" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B326" s="3">
         <v>1</v>
@@ -8557,7 +8577,7 @@
     </row>
     <row r="327" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B327" s="3">
         <v>0</v>
@@ -8571,7 +8591,7 @@
     </row>
     <row r="328" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B328" s="3">
         <v>1</v>
@@ -8585,7 +8605,7 @@
     </row>
     <row r="329" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B329" s="3">
         <v>0</v>
@@ -8599,7 +8619,7 @@
     </row>
     <row r="330" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B330" s="3">
         <v>1</v>
@@ -8613,7 +8633,7 @@
     </row>
     <row r="331" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B331" s="3">
         <v>0</v>
@@ -8627,7 +8647,7 @@
     </row>
     <row r="332" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B332" s="3">
         <v>1</v>
@@ -8641,7 +8661,7 @@
     </row>
     <row r="333" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B333" s="3">
         <v>0</v>
@@ -8655,7 +8675,7 @@
     </row>
     <row r="334" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B334" s="3">
         <v>1</v>
@@ -8669,7 +8689,7 @@
     </row>
     <row r="335" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B335" s="3">
         <v>0</v>
@@ -8683,7 +8703,7 @@
     </row>
     <row r="336" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B336" s="3">
         <v>1</v>
@@ -8697,7 +8717,7 @@
     </row>
     <row r="337" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B337" s="3">
         <v>0</v>
@@ -8711,7 +8731,7 @@
     </row>
     <row r="338" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B338" s="3">
         <v>1</v>
@@ -8725,7 +8745,7 @@
     </row>
     <row r="339" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B339" s="3">
         <v>0</v>
@@ -8739,7 +8759,7 @@
     </row>
     <row r="340" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B340" s="3">
         <v>1</v>
@@ -8753,7 +8773,7 @@
     </row>
     <row r="341" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B341" s="3">
         <v>0</v>
@@ -8767,7 +8787,7 @@
     </row>
     <row r="342" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B342" s="3">
         <v>1</v>
@@ -8781,7 +8801,7 @@
     </row>
     <row r="343" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B343" s="3">
         <v>0</v>
@@ -8795,7 +8815,7 @@
     </row>
     <row r="344" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B344" s="3">
         <v>1</v>
@@ -8809,7 +8829,7 @@
     </row>
     <row r="345" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B345" s="3">
         <v>0</v>
@@ -8823,7 +8843,7 @@
     </row>
     <row r="346" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B346" s="3">
         <v>1</v>
@@ -8837,7 +8857,7 @@
     </row>
     <row r="347" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B347" s="3">
         <v>0</v>
@@ -8851,7 +8871,7 @@
     </row>
     <row r="348" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B348" s="3">
         <v>1</v>
@@ -8865,7 +8885,7 @@
     </row>
     <row r="349" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B349" s="3">
         <v>0</v>
@@ -8879,7 +8899,7 @@
     </row>
     <row r="350" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B350" s="3">
         <v>1</v>
@@ -8893,7 +8913,7 @@
     </row>
     <row r="351" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B351" s="3">
         <v>0</v>
@@ -8907,7 +8927,7 @@
     </row>
     <row r="352" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B352" s="3">
         <v>1</v>
@@ -8921,7 +8941,7 @@
     </row>
     <row r="353" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B353" s="3">
         <v>0</v>
@@ -8935,7 +8955,7 @@
     </row>
     <row r="354" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B354" s="3">
         <v>1</v>
@@ -8949,7 +8969,7 @@
     </row>
     <row r="355" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B355" s="3">
         <v>0</v>
@@ -8963,7 +8983,7 @@
     </row>
     <row r="356" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B356" s="3">
         <v>1</v>
@@ -8977,7 +8997,7 @@
     </row>
     <row r="357" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B357" s="3">
         <v>0</v>
@@ -8991,7 +9011,7 @@
     </row>
     <row r="358" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B358" s="3">
         <v>1</v>
@@ -9005,7 +9025,7 @@
     </row>
     <row r="359" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B359" s="3">
         <v>0</v>
@@ -9019,7 +9039,7 @@
     </row>
     <row r="360" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B360" s="3">
         <v>1</v>
@@ -9033,7 +9053,7 @@
     </row>
     <row r="361" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B361" s="3">
         <v>0</v>
@@ -9047,7 +9067,7 @@
     </row>
     <row r="362" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B362" s="3">
         <v>1</v>
@@ -9061,7 +9081,7 @@
     </row>
     <row r="363" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B363" s="3">
         <v>0</v>
@@ -9075,7 +9095,7 @@
     </row>
     <row r="364" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B364" s="3">
         <v>1</v>
@@ -9089,63 +9109,63 @@
     </row>
     <row r="365" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B365" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C365" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D365" s="6" t="s">
-        <v>377</v>
+        <v>317</v>
       </c>
     </row>
     <row r="366" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B366" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C366" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>374</v>
+        <v>318</v>
       </c>
     </row>
     <row r="367" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B367" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C367" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D367" s="6" t="s">
-        <v>375</v>
+        <v>317</v>
       </c>
     </row>
     <row r="368" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B368" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C368" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D368" s="6" t="s">
-        <v>376</v>
+        <v>318</v>
       </c>
     </row>
     <row r="369" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B369" s="3">
         <v>1</v>
@@ -9159,7 +9179,7 @@
     </row>
     <row r="370" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B370" s="3">
         <v>2</v>
@@ -9173,7 +9193,7 @@
     </row>
     <row r="371" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B371" s="3">
         <v>3</v>
@@ -9187,7 +9207,7 @@
     </row>
     <row r="372" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B372" s="3">
         <v>4</v>
@@ -9201,7 +9221,7 @@
     </row>
     <row r="373" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B373" s="3">
         <v>1</v>
@@ -9215,7 +9235,7 @@
     </row>
     <row r="374" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B374" s="3">
         <v>2</v>
@@ -9229,7 +9249,7 @@
     </row>
     <row r="375" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B375" s="3">
         <v>3</v>
@@ -9243,7 +9263,7 @@
     </row>
     <row r="376" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B376" s="3">
         <v>4</v>
@@ -9257,7 +9277,7 @@
     </row>
     <row r="377" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B377" s="3">
         <v>1</v>
@@ -9271,7 +9291,7 @@
     </row>
     <row r="378" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B378" s="3">
         <v>2</v>
@@ -9285,7 +9305,7 @@
     </row>
     <row r="379" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B379" s="3">
         <v>3</v>
@@ -9299,7 +9319,7 @@
     </row>
     <row r="380" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B380" s="3">
         <v>4</v>
@@ -9313,7 +9333,7 @@
     </row>
     <row r="381" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B381" s="3">
         <v>1</v>
@@ -9327,7 +9347,7 @@
     </row>
     <row r="382" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B382" s="3">
         <v>2</v>
@@ -9341,7 +9361,7 @@
     </row>
     <row r="383" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B383" s="3">
         <v>3</v>
@@ -9355,7 +9375,7 @@
     </row>
     <row r="384" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B384" s="3">
         <v>4</v>
@@ -9369,7 +9389,7 @@
     </row>
     <row r="385" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B385" s="3">
         <v>1</v>
@@ -9383,7 +9403,7 @@
     </row>
     <row r="386" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B386" s="3">
         <v>2</v>
@@ -9397,7 +9417,7 @@
     </row>
     <row r="387" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B387" s="3">
         <v>3</v>
@@ -9411,7 +9431,7 @@
     </row>
     <row r="388" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B388" s="3">
         <v>4</v>
@@ -9425,7 +9445,7 @@
     </row>
     <row r="389" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B389" s="3">
         <v>1</v>
@@ -9439,7 +9459,7 @@
     </row>
     <row r="390" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B390" s="3">
         <v>2</v>
@@ -9453,7 +9473,7 @@
     </row>
     <row r="391" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B391" s="3">
         <v>3</v>
@@ -9467,7 +9487,7 @@
     </row>
     <row r="392" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B392" s="3">
         <v>4</v>
@@ -9481,7 +9501,7 @@
     </row>
     <row r="393" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B393" s="3">
         <v>1</v>
@@ -9495,7 +9515,7 @@
     </row>
     <row r="394" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B394" s="3">
         <v>2</v>
@@ -9509,7 +9529,7 @@
     </row>
     <row r="395" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B395" s="3">
         <v>3</v>
@@ -9523,7 +9543,7 @@
     </row>
     <row r="396" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B396" s="3">
         <v>4</v>
@@ -9537,7 +9557,7 @@
     </row>
     <row r="397" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B397" s="3">
         <v>1</v>
@@ -9551,7 +9571,7 @@
     </row>
     <row r="398" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B398" s="3">
         <v>2</v>
@@ -9565,7 +9585,7 @@
     </row>
     <row r="399" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B399" s="3">
         <v>3</v>
@@ -9579,7 +9599,7 @@
     </row>
     <row r="400" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B400" s="3">
         <v>4</v>
@@ -9593,7 +9613,7 @@
     </row>
     <row r="401" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B401" s="3">
         <v>1</v>
@@ -9607,7 +9627,7 @@
     </row>
     <row r="402" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B402" s="3">
         <v>2</v>
@@ -9621,7 +9641,7 @@
     </row>
     <row r="403" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B403" s="3">
         <v>3</v>
@@ -9635,7 +9655,7 @@
     </row>
     <row r="404" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B404" s="3">
         <v>4</v>
@@ -9649,7 +9669,7 @@
     </row>
     <row r="405" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B405" s="3">
         <v>1</v>
@@ -9663,7 +9683,7 @@
     </row>
     <row r="406" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B406" s="3">
         <v>2</v>
@@ -9677,7 +9697,7 @@
     </row>
     <row r="407" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B407" s="3">
         <v>3</v>
@@ -9691,7 +9711,7 @@
     </row>
     <row r="408" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B408" s="3">
         <v>4</v>
@@ -9705,7 +9725,7 @@
     </row>
     <row r="409" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B409" s="3">
         <v>1</v>
@@ -9719,7 +9739,7 @@
     </row>
     <row r="410" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B410" s="3">
         <v>2</v>
@@ -9733,7 +9753,7 @@
     </row>
     <row r="411" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B411" s="3">
         <v>3</v>
@@ -9747,7 +9767,7 @@
     </row>
     <row r="412" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B412" s="3">
         <v>4</v>
@@ -9761,7 +9781,7 @@
     </row>
     <row r="413" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B413" s="3">
         <v>1</v>
@@ -9775,7 +9795,7 @@
     </row>
     <row r="414" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B414" s="3">
         <v>2</v>
@@ -9789,7 +9809,7 @@
     </row>
     <row r="415" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B415" s="3">
         <v>3</v>
@@ -9803,7 +9823,7 @@
     </row>
     <row r="416" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B416" s="3">
         <v>4</v>
@@ -9817,7 +9837,7 @@
     </row>
     <row r="417" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B417" s="3">
         <v>1</v>
@@ -9831,7 +9851,7 @@
     </row>
     <row r="418" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B418" s="3">
         <v>2</v>
@@ -9845,7 +9865,7 @@
     </row>
     <row r="419" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B419" s="3">
         <v>3</v>
@@ -9859,7 +9879,7 @@
     </row>
     <row r="420" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B420" s="3">
         <v>4</v>
@@ -9873,7 +9893,7 @@
     </row>
     <row r="421" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B421" s="3">
         <v>1</v>
@@ -9887,7 +9907,7 @@
     </row>
     <row r="422" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B422" s="3">
         <v>2</v>
@@ -9901,7 +9921,7 @@
     </row>
     <row r="423" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B423" s="3">
         <v>3</v>
@@ -9915,7 +9935,7 @@
     </row>
     <row r="424" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B424" s="3">
         <v>4</v>
@@ -9929,7 +9949,7 @@
     </row>
     <row r="425" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B425" s="3">
         <v>1</v>
@@ -9943,7 +9963,7 @@
     </row>
     <row r="426" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B426" s="3">
         <v>2</v>
@@ -9957,7 +9977,7 @@
     </row>
     <row r="427" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B427" s="3">
         <v>3</v>
@@ -9971,7 +9991,7 @@
     </row>
     <row r="428" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B428" s="3">
         <v>4</v>
@@ -9985,7 +10005,7 @@
     </row>
     <row r="429" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B429" s="3">
         <v>1</v>
@@ -9999,7 +10019,7 @@
     </row>
     <row r="430" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B430" s="3">
         <v>2</v>
@@ -10013,7 +10033,7 @@
     </row>
     <row r="431" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B431" s="3">
         <v>3</v>
@@ -10027,7 +10047,7 @@
     </row>
     <row r="432" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B432" s="3">
         <v>4</v>
@@ -10041,7 +10061,7 @@
     </row>
     <row r="433" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B433" s="3">
         <v>1</v>
@@ -10055,7 +10075,7 @@
     </row>
     <row r="434" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B434" s="3">
         <v>2</v>
@@ -10069,7 +10089,7 @@
     </row>
     <row r="435" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B435" s="3">
         <v>3</v>
@@ -10083,7 +10103,7 @@
     </row>
     <row r="436" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B436" s="3">
         <v>4</v>
@@ -10097,63 +10117,63 @@
     </row>
     <row r="437" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B437" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C437" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D437" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="438" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B438" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C438" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D438" s="6" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="439" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B439" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C439" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D439" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="440" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B440" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C440" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D440" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="441" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B441" s="3">
         <v>0</v>
@@ -10167,7 +10187,7 @@
     </row>
     <row r="442" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B442" s="3">
         <v>1</v>
@@ -10181,7 +10201,7 @@
     </row>
     <row r="443" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B443" s="3">
         <v>0</v>
@@ -10195,7 +10215,7 @@
     </row>
     <row r="444" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B444" s="3">
         <v>1</v>
@@ -10209,7 +10229,7 @@
     </row>
     <row r="445" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B445" s="3">
         <v>0</v>
@@ -10223,7 +10243,7 @@
     </row>
     <row r="446" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B446" s="3">
         <v>1</v>
@@ -10237,7 +10257,7 @@
     </row>
     <row r="447" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B447" s="3">
         <v>0</v>
@@ -10251,7 +10271,7 @@
     </row>
     <row r="448" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B448" s="3">
         <v>1</v>
@@ -10265,7 +10285,7 @@
     </row>
     <row r="449" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B449" s="3">
         <v>0</v>
@@ -10279,7 +10299,7 @@
     </row>
     <row r="450" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B450" s="3">
         <v>1</v>
@@ -10293,7 +10313,7 @@
     </row>
     <row r="451" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B451" s="3">
         <v>0</v>
@@ -10307,7 +10327,7 @@
     </row>
     <row r="452" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B452" s="3">
         <v>1</v>
@@ -10321,7 +10341,7 @@
     </row>
     <row r="453" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B453" s="3">
         <v>0</v>
@@ -10335,7 +10355,7 @@
     </row>
     <row r="454" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B454" s="3">
         <v>1</v>
@@ -10349,7 +10369,7 @@
     </row>
     <row r="455" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B455" s="3">
         <v>0</v>
@@ -10363,7 +10383,7 @@
     </row>
     <row r="456" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B456" s="3">
         <v>1</v>
@@ -10377,7 +10397,7 @@
     </row>
     <row r="457" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B457" s="3">
         <v>0</v>
@@ -10391,7 +10411,7 @@
     </row>
     <row r="458" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B458" s="3">
         <v>1</v>
@@ -10405,7 +10425,7 @@
     </row>
     <row r="459" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B459" s="3">
         <v>0</v>
@@ -10419,7 +10439,7 @@
     </row>
     <row r="460" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B460" s="3">
         <v>1</v>
@@ -10433,7 +10453,7 @@
     </row>
     <row r="461" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B461" s="3">
         <v>0</v>
@@ -10447,7 +10467,7 @@
     </row>
     <row r="462" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B462" s="3">
         <v>1</v>
@@ -10461,7 +10481,7 @@
     </row>
     <row r="463" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B463" s="3">
         <v>0</v>
@@ -10475,7 +10495,7 @@
     </row>
     <row r="464" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B464" s="3">
         <v>1</v>
@@ -10489,7 +10509,7 @@
     </row>
     <row r="465" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B465" s="3">
         <v>0</v>
@@ -10503,7 +10523,7 @@
     </row>
     <row r="466" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B466" s="3">
         <v>1</v>
@@ -10517,7 +10537,7 @@
     </row>
     <row r="467" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B467" s="3">
         <v>0</v>
@@ -10531,7 +10551,7 @@
     </row>
     <row r="468" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B468" s="3">
         <v>1</v>
@@ -10545,7 +10565,7 @@
     </row>
     <row r="469" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B469" s="3">
         <v>0</v>
@@ -10559,7 +10579,7 @@
     </row>
     <row r="470" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B470" s="3">
         <v>1</v>
@@ -10573,7 +10593,7 @@
     </row>
     <row r="471" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B471" s="3">
         <v>0</v>
@@ -10587,15 +10607,71 @@
     </row>
     <row r="472" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B472" s="3">
+        <v>1</v>
+      </c>
+      <c r="C472" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D472" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A473" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B473" s="3">
+        <v>0</v>
+      </c>
+      <c r="C473" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D473" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A474" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B474" s="3">
+        <v>1</v>
+      </c>
+      <c r="C474" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D474" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A475" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B472" s="3">
-        <v>1</v>
-      </c>
-      <c r="C472" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D472" s="6" t="s">
+      <c r="B475" s="3">
+        <v>0</v>
+      </c>
+      <c r="C475" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D475" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A476" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B476" s="3">
+        <v>1</v>
+      </c>
+      <c r="C476" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D476" s="6" t="s">
         <v>379</v>
       </c>
     </row>

--- a/R/data/dictionaries/core/1_1/1_1_non_repeated.xlsx
+++ b/R/data/dictionaries/core/1_1/1_1_non_repeated.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/R/data/dictionaries/core/1_1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0987AAF-69E2-FA4C-B363-04986BB79F39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="16152" windowHeight="10236" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16160" windowHeight="10240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="817">
   <si>
     <t>name</t>
   </si>
@@ -1977,9 +1983,6 @@
   </si>
   <si>
     <t>isMissing</t>
-  </si>
-  <si>
-    <t>FALSE</t>
   </si>
   <si>
     <t>Gen R</t>
@@ -2474,7 +2477,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="10"/>
@@ -2549,16 +2552,24 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1"/>
-    <cellStyle name="Normal 4" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2600,7 +2611,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2632,9 +2643,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2666,6 +2695,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2841,20 +2888,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D313"/>
   <sheetViews>
     <sheetView topLeftCell="A283" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="197.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="197.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
@@ -7248,21 +7295,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D224" sqref="D224"/>
+      <pane ySplit="1" topLeftCell="A282" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D299" sqref="D299"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
@@ -7286,11 +7333,11 @@
       <c r="B2" s="2">
         <v>101</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>654</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
@@ -7300,11 +7347,11 @@
       <c r="B3" s="2">
         <v>102</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>654</v>
+      <c r="C3" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
@@ -7314,11 +7361,11 @@
       <c r="B4" s="2">
         <v>103</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>654</v>
+      <c r="C4" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1">
@@ -7328,11 +7375,11 @@
       <c r="B5" s="2">
         <v>104</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>654</v>
+      <c r="C5" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1">
@@ -7342,11 +7389,11 @@
       <c r="B6" s="2">
         <v>105</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>654</v>
+      <c r="C6" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1">
@@ -7356,11 +7403,11 @@
       <c r="B7" s="2">
         <v>106</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>654</v>
+      <c r="C7" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
@@ -7370,11 +7417,11 @@
       <c r="B8" s="2">
         <v>107</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>654</v>
+      <c r="C8" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
@@ -7384,11 +7431,11 @@
       <c r="B9" s="2">
         <v>108</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>654</v>
+      <c r="C9" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
@@ -7398,11 +7445,11 @@
       <c r="B10" s="2">
         <v>109</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>654</v>
+      <c r="C10" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
@@ -7412,11 +7459,11 @@
       <c r="B11" s="2">
         <v>110</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>654</v>
+      <c r="C11" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
@@ -7426,11 +7473,11 @@
       <c r="B12" s="2">
         <v>111</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>654</v>
+      <c r="C12" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
@@ -7440,11 +7487,11 @@
       <c r="B13" s="2">
         <v>112</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>654</v>
+      <c r="C13" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
@@ -7454,11 +7501,11 @@
       <c r="B14" s="2">
         <v>113</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>654</v>
+      <c r="C14" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
@@ -7468,11 +7515,11 @@
       <c r="B15" s="2">
         <v>114</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>654</v>
+      <c r="C15" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
@@ -7482,11 +7529,11 @@
       <c r="B16" s="2">
         <v>115</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>654</v>
+      <c r="C16" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
@@ -7496,11 +7543,11 @@
       <c r="B17" s="2">
         <v>116</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>654</v>
+      <c r="C17" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1">
@@ -7510,11 +7557,11 @@
       <c r="B18" s="2">
         <v>117</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>654</v>
+      <c r="C18" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1">
@@ -7524,11 +7571,11 @@
       <c r="B19" s="2">
         <v>118</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>654</v>
+      <c r="C19" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1">
@@ -7538,11 +7585,11 @@
       <c r="B20" s="2">
         <v>119</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>654</v>
+      <c r="C20" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1">
@@ -7552,11 +7599,11 @@
       <c r="B21" s="2">
         <v>120</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>654</v>
+      <c r="C21" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1">
@@ -7566,11 +7613,11 @@
       <c r="B22" s="2">
         <v>121</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>654</v>
+      <c r="C22" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1">
@@ -7580,11 +7627,11 @@
       <c r="B23" s="2">
         <v>122</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>654</v>
+      <c r="C23" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1">
@@ -7594,11 +7641,11 @@
       <c r="B24" s="2">
         <v>36</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>654</v>
+      <c r="C24" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1">
@@ -7608,11 +7655,11 @@
       <c r="B25" s="2">
         <v>208</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>654</v>
+      <c r="C25" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1">
@@ -7622,11 +7669,11 @@
       <c r="B26" s="2">
         <v>246</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>654</v>
+      <c r="C26" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1">
@@ -7636,11 +7683,11 @@
       <c r="B27" s="2">
         <v>250</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>654</v>
+      <c r="C27" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1">
@@ -7650,11 +7697,11 @@
       <c r="B28" s="2">
         <v>276</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>654</v>
+      <c r="C28" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1">
@@ -7664,11 +7711,11 @@
       <c r="B29" s="2">
         <v>300</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>654</v>
+      <c r="C29" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1">
@@ -7678,11 +7725,11 @@
       <c r="B30" s="2">
         <v>380</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>654</v>
+      <c r="C30" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1">
@@ -7692,11 +7739,11 @@
       <c r="B31" s="2">
         <v>528</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>654</v>
+      <c r="C31" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1">
@@ -7706,11 +7753,11 @@
       <c r="B32" s="2">
         <v>578</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>654</v>
+      <c r="C32" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1">
@@ -7720,11 +7767,11 @@
       <c r="B33" s="2">
         <v>724</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>654</v>
+      <c r="C33" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1">
@@ -7734,11 +7781,11 @@
       <c r="B34" s="2">
         <v>826</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>654</v>
+      <c r="C34" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1">
@@ -7748,11 +7795,11 @@
       <c r="B35" s="2">
         <v>0</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>654</v>
+      <c r="C35" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1">
@@ -7762,11 +7809,11 @@
       <c r="B36" s="2">
         <v>1</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>654</v>
+      <c r="C36" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1">
@@ -7776,11 +7823,11 @@
       <c r="B37" s="2">
         <v>2</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>654</v>
+      <c r="C37" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1">
@@ -7790,11 +7837,11 @@
       <c r="B38" s="2">
         <v>1</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>654</v>
+      <c r="C38" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1">
@@ -7804,11 +7851,11 @@
       <c r="B39" s="2">
         <v>2</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>654</v>
+      <c r="C39" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1">
@@ -7818,11 +7865,11 @@
       <c r="B40" s="2">
         <v>3</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>654</v>
+      <c r="C40" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1">
@@ -7832,11 +7879,11 @@
       <c r="B41" s="2">
         <v>1</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>654</v>
+      <c r="C41" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1">
@@ -7846,11 +7893,11 @@
       <c r="B42" s="2">
         <v>2</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>654</v>
+      <c r="C42" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1">
@@ -7860,11 +7907,11 @@
       <c r="B43" s="2">
         <v>3</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>654</v>
+      <c r="C43" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1">
@@ -7874,11 +7921,11 @@
       <c r="B44" s="2">
         <v>1</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>654</v>
+      <c r="C44" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1">
@@ -7888,11 +7935,11 @@
       <c r="B45" s="2">
         <v>2</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>654</v>
+      <c r="C45" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1">
@@ -7902,11 +7949,11 @@
       <c r="B46" s="2">
         <v>3</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>654</v>
+      <c r="C46" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1">
@@ -7916,11 +7963,11 @@
       <c r="B47" s="2">
         <v>0</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>654</v>
+      <c r="C47" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1">
@@ -7930,11 +7977,11 @@
       <c r="B48" s="2">
         <v>1</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>654</v>
+      <c r="C48" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1">
@@ -7944,11 +7991,11 @@
       <c r="B49" s="2">
         <v>0</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>654</v>
+      <c r="C49" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1">
@@ -7958,11 +8005,11 @@
       <c r="B50" s="2">
         <v>1</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>654</v>
+      <c r="C50" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1">
@@ -7972,11 +8019,11 @@
       <c r="B51" s="2">
         <v>0</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>654</v>
+      <c r="C51" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1">
@@ -7986,11 +8033,11 @@
       <c r="B52" s="2">
         <v>1</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>654</v>
+      <c r="C52" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1">
@@ -8000,11 +8047,11 @@
       <c r="B53" s="2">
         <v>0</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>654</v>
+      <c r="C53" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1">
@@ -8014,11 +8061,11 @@
       <c r="B54" s="2">
         <v>1</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>654</v>
+      <c r="C54" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1">
@@ -8028,11 +8075,11 @@
       <c r="B55" s="2">
         <v>2</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>654</v>
+      <c r="C55" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1">
@@ -8042,11 +8089,11 @@
       <c r="B56" s="2">
         <v>3</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>654</v>
+      <c r="C56" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1">
@@ -8056,11 +8103,11 @@
       <c r="B57" s="2">
         <v>0</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>654</v>
+      <c r="C57" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1">
@@ -8070,11 +8117,11 @@
       <c r="B58" s="2">
         <v>1</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>654</v>
+      <c r="C58" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1">
@@ -8084,11 +8131,11 @@
       <c r="B59" s="2">
         <v>1</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>654</v>
+      <c r="C59" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1">
@@ -8098,11 +8145,11 @@
       <c r="B60" s="2">
         <v>2</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>654</v>
+      <c r="C60" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1">
@@ -8112,11 +8159,11 @@
       <c r="B61" s="2">
         <v>3</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>654</v>
+      <c r="C61" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1">
@@ -8126,8 +8173,8 @@
       <c r="B62" s="2">
         <v>4</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>654</v>
+      <c r="C62" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>380</v>
@@ -8140,11 +8187,11 @@
       <c r="B63" s="2">
         <v>5</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>654</v>
+      <c r="C63" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1">
@@ -8154,11 +8201,11 @@
       <c r="B64" s="2">
         <v>0</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>654</v>
+      <c r="C64" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1">
@@ -8168,11 +8215,11 @@
       <c r="B65" s="2">
         <v>1</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>654</v>
+      <c r="C65" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1">
@@ -8182,11 +8229,11 @@
       <c r="B66" s="2">
         <v>0</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>654</v>
+      <c r="C66" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1">
@@ -8196,11 +8243,11 @@
       <c r="B67" s="2">
         <v>1</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>654</v>
+      <c r="C67" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1">
@@ -8210,11 +8257,11 @@
       <c r="B68" s="2">
         <v>0</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>654</v>
+      <c r="C68" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1">
@@ -8224,11 +8271,11 @@
       <c r="B69" s="2">
         <v>1</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>654</v>
+      <c r="C69" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1">
@@ -8238,11 +8285,11 @@
       <c r="B70" s="2">
         <v>0</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>654</v>
+      <c r="C70" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1">
@@ -8252,11 +8299,11 @@
       <c r="B71" s="2">
         <v>1</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>654</v>
+      <c r="C71" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1">
@@ -8266,11 +8313,11 @@
       <c r="B72" s="2">
         <v>0</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>654</v>
+      <c r="C72" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1">
@@ -8280,11 +8327,11 @@
       <c r="B73" s="2">
         <v>1</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>654</v>
+      <c r="C73" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1">
@@ -8294,11 +8341,11 @@
       <c r="B74" s="2">
         <v>0</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>654</v>
+      <c r="C74" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1">
@@ -8308,11 +8355,11 @@
       <c r="B75" s="2">
         <v>1</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>654</v>
+      <c r="C75" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1">
@@ -8322,11 +8369,11 @@
       <c r="B76" s="2">
         <v>0</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>654</v>
+      <c r="C76" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1">
@@ -8336,11 +8383,11 @@
       <c r="B77" s="2">
         <v>1</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>654</v>
+      <c r="C77" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1">
@@ -8350,11 +8397,11 @@
       <c r="B78" s="2">
         <v>0</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>654</v>
+      <c r="C78" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1">
@@ -8364,11 +8411,11 @@
       <c r="B79" s="2">
         <v>1</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>654</v>
+      <c r="C79" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1">
@@ -8378,11 +8425,11 @@
       <c r="B80" s="2">
         <v>0</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>654</v>
+      <c r="C80" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1">
@@ -8392,11 +8439,11 @@
       <c r="B81" s="2">
         <v>1</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>654</v>
+      <c r="C81" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1">
@@ -8406,11 +8453,11 @@
       <c r="B82" s="2">
         <v>0</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>654</v>
+      <c r="C82" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1">
@@ -8420,11 +8467,11 @@
       <c r="B83" s="2">
         <v>1</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>654</v>
+      <c r="C83" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1">
@@ -8434,11 +8481,11 @@
       <c r="B84" s="2">
         <v>0</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>654</v>
+      <c r="C84" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1">
@@ -8448,11 +8495,11 @@
       <c r="B85" s="2">
         <v>1</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>654</v>
+      <c r="C85" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1">
@@ -8462,11 +8509,11 @@
       <c r="B86" s="2">
         <v>2</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>654</v>
+      <c r="C86" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1">
@@ -8476,11 +8523,11 @@
       <c r="B87" s="2">
         <v>0</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>654</v>
+      <c r="C87" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1">
@@ -8490,11 +8537,11 @@
       <c r="B88" s="2">
         <v>1</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>654</v>
+      <c r="C88" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1">
@@ -8504,11 +8551,11 @@
       <c r="B89" s="2">
         <v>0</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>654</v>
+      <c r="C89" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1">
@@ -8518,11 +8565,11 @@
       <c r="B90" s="2">
         <v>1</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>654</v>
+      <c r="C90" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1">
@@ -8532,11 +8579,11 @@
       <c r="B91" s="2">
         <v>2</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>654</v>
+      <c r="C91" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1">
@@ -8546,11 +8593,11 @@
       <c r="B92" s="2">
         <v>0</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>654</v>
+      <c r="C92" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15" customHeight="1">
@@ -8560,11 +8607,11 @@
       <c r="B93" s="2">
         <v>1</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>654</v>
+      <c r="C93" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15" customHeight="1">
@@ -8574,11 +8621,11 @@
       <c r="B94" s="2">
         <v>0</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>654</v>
+      <c r="C94" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15" customHeight="1">
@@ -8588,11 +8635,11 @@
       <c r="B95" s="2">
         <v>1</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>654</v>
+      <c r="C95" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15" customHeight="1">
@@ -8602,11 +8649,11 @@
       <c r="B96" s="2">
         <v>2</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>654</v>
+      <c r="C96" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15" customHeight="1">
@@ -8616,11 +8663,11 @@
       <c r="B97" s="2">
         <v>3</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>654</v>
+      <c r="C97" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15" customHeight="1">
@@ -8630,11 +8677,11 @@
       <c r="B98" s="2">
         <v>4</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>654</v>
+      <c r="C98" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1">
@@ -8644,11 +8691,11 @@
       <c r="B99" s="2">
         <v>0</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>654</v>
+      <c r="C99" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1">
@@ -8658,11 +8705,11 @@
       <c r="B100" s="2">
         <v>1</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>654</v>
+      <c r="C100" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15" customHeight="1">
@@ -8672,11 +8719,11 @@
       <c r="B101" s="2">
         <v>0</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>654</v>
+      <c r="C101" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15" customHeight="1">
@@ -8686,11 +8733,11 @@
       <c r="B102" s="2">
         <v>1</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>654</v>
+      <c r="C102" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15" customHeight="1">
@@ -8700,11 +8747,11 @@
       <c r="B103" s="2">
         <v>2</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>654</v>
+      <c r="C103" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15" customHeight="1">
@@ -8714,11 +8761,11 @@
       <c r="B104" s="2">
         <v>3</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>654</v>
+      <c r="C104" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15" customHeight="1">
@@ -8728,11 +8775,11 @@
       <c r="B105" s="2">
         <v>0</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>654</v>
+      <c r="C105" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15" customHeight="1">
@@ -8742,11 +8789,11 @@
       <c r="B106" s="2">
         <v>1</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>654</v>
+      <c r="C106" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15" customHeight="1">
@@ -8756,11 +8803,11 @@
       <c r="B107" s="2">
         <v>0</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>654</v>
+      <c r="C107" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15" customHeight="1">
@@ -8770,11 +8817,11 @@
       <c r="B108" s="2">
         <v>1</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>654</v>
+      <c r="C108" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15" customHeight="1">
@@ -8784,11 +8831,11 @@
       <c r="B109" s="2">
         <v>0</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>654</v>
+      <c r="C109" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15" customHeight="1">
@@ -8798,11 +8845,11 @@
       <c r="B110" s="2">
         <v>1</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>654</v>
+      <c r="C110" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15" customHeight="1">
@@ -8812,11 +8859,11 @@
       <c r="B111" s="2">
         <v>0</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>654</v>
+      <c r="C111" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15" customHeight="1">
@@ -8826,11 +8873,11 @@
       <c r="B112" s="2">
         <v>1</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>654</v>
+      <c r="C112" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15" customHeight="1">
@@ -8840,11 +8887,11 @@
       <c r="B113" s="2">
         <v>2</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>654</v>
+      <c r="C113" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15" customHeight="1">
@@ -8854,11 +8901,11 @@
       <c r="B114" s="2">
         <v>3</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>654</v>
+      <c r="C114" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1">
@@ -8868,11 +8915,11 @@
       <c r="B115" s="2">
         <v>4</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>654</v>
+      <c r="C115" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1">
@@ -8882,11 +8929,11 @@
       <c r="B116" s="2">
         <v>1</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>654</v>
+      <c r="C116" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15" customHeight="1">
@@ -8896,11 +8943,11 @@
       <c r="B117" s="2">
         <v>2</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>654</v>
+      <c r="C117" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15" customHeight="1">
@@ -8910,11 +8957,11 @@
       <c r="B118" s="2">
         <v>0</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>654</v>
+      <c r="C118" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15" customHeight="1">
@@ -8924,11 +8971,11 @@
       <c r="B119" s="2">
         <v>1</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>654</v>
+      <c r="C119" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15" customHeight="1">
@@ -8938,11 +8985,11 @@
       <c r="B120" s="2">
         <v>0</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>654</v>
+      <c r="C120" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15" customHeight="1">
@@ -8952,11 +8999,11 @@
       <c r="B121" s="2">
         <v>1</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>654</v>
+      <c r="C121" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15" customHeight="1">
@@ -8966,11 +9013,11 @@
       <c r="B122" s="2">
         <v>1</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>654</v>
+      <c r="C122" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15" customHeight="1">
@@ -8980,11 +9027,11 @@
       <c r="B123" s="2">
         <v>2</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>654</v>
+      <c r="C123" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15" customHeight="1">
@@ -8994,11 +9041,11 @@
       <c r="B124" s="2">
         <v>3</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>654</v>
+      <c r="C124" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15" customHeight="1">
@@ -9008,11 +9055,11 @@
       <c r="B125" s="2">
         <v>4</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>654</v>
+      <c r="C125" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15" customHeight="1">
@@ -9022,11 +9069,11 @@
       <c r="B126" s="2">
         <v>5</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>654</v>
+      <c r="C126" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15" customHeight="1">
@@ -9036,11 +9083,11 @@
       <c r="B127" s="2">
         <v>6</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>654</v>
+      <c r="C127" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15" customHeight="1">
@@ -9050,11 +9097,11 @@
       <c r="B128" s="2">
         <v>1</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>654</v>
+      <c r="C128" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15" customHeight="1">
@@ -9064,11 +9111,11 @@
       <c r="B129" s="2">
         <v>2</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>654</v>
+      <c r="C129" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15" customHeight="1">
@@ -9078,11 +9125,11 @@
       <c r="B130" s="2">
         <v>3</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>654</v>
+      <c r="C130" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="15" customHeight="1">
@@ -9092,11 +9139,11 @@
       <c r="B131" s="2">
         <v>4</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>654</v>
+      <c r="C131" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1">
@@ -9106,11 +9153,11 @@
       <c r="B132" s="2">
         <v>5</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>654</v>
+      <c r="C132" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="15" customHeight="1">
@@ -9120,11 +9167,11 @@
       <c r="B133" s="2">
         <v>0</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>654</v>
+      <c r="C133" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15" customHeight="1">
@@ -9134,11 +9181,11 @@
       <c r="B134" s="2">
         <v>1</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>654</v>
+      <c r="C134" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15" customHeight="1">
@@ -9148,11 +9195,11 @@
       <c r="B135" s="2">
         <v>0</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>654</v>
+      <c r="C135" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15" customHeight="1">
@@ -9162,11 +9209,11 @@
       <c r="B136" s="2">
         <v>1</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>654</v>
+      <c r="C136" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15" customHeight="1">
@@ -9176,11 +9223,11 @@
       <c r="B137" s="2">
         <v>2</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>654</v>
+      <c r="C137" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15" customHeight="1">
@@ -9190,11 +9237,11 @@
       <c r="B138" s="2">
         <v>1</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>654</v>
+      <c r="C138" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15" customHeight="1">
@@ -9204,11 +9251,11 @@
       <c r="B139" s="2">
         <v>2</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>654</v>
+      <c r="C139" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1">
@@ -9218,11 +9265,11 @@
       <c r="B140" s="2">
         <v>3</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>654</v>
+      <c r="C140" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1">
@@ -9232,11 +9279,11 @@
       <c r="B141" s="2">
         <v>4</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>654</v>
+      <c r="C141" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="15" customHeight="1">
@@ -9246,11 +9293,11 @@
       <c r="B142" s="2">
         <v>1</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>654</v>
+      <c r="C142" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="15" customHeight="1">
@@ -9260,11 +9307,11 @@
       <c r="B143" s="2">
         <v>2</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>654</v>
+      <c r="C143" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15" customHeight="1">
@@ -9274,11 +9321,11 @@
       <c r="B144" s="2">
         <v>3</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>654</v>
+      <c r="C144" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15" customHeight="1">
@@ -9288,11 +9335,11 @@
       <c r="B145" s="2">
         <v>1</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>654</v>
+      <c r="C145" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="15" customHeight="1">
@@ -9302,11 +9349,11 @@
       <c r="B146" s="2">
         <v>2</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>654</v>
+      <c r="C146" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15" customHeight="1">
@@ -9316,11 +9363,11 @@
       <c r="B147" s="2">
         <v>3</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>654</v>
+      <c r="C147" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="15" customHeight="1">
@@ -9330,11 +9377,11 @@
       <c r="B148" s="2">
         <v>1</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>654</v>
+      <c r="C148" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="15" customHeight="1">
@@ -9344,11 +9391,11 @@
       <c r="B149" s="2">
         <v>2</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>654</v>
+      <c r="C149" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1">
@@ -9358,11 +9405,11 @@
       <c r="B150" s="2">
         <v>3</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>654</v>
+      <c r="C150" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15" customHeight="1">
@@ -9372,11 +9419,11 @@
       <c r="B151" s="2">
         <v>1</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>654</v>
+      <c r="C151" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15" customHeight="1">
@@ -9386,11 +9433,11 @@
       <c r="B152" s="2">
         <v>2</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>654</v>
+      <c r="C152" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15" customHeight="1">
@@ -9400,11 +9447,11 @@
       <c r="B153" s="2">
         <v>3</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>654</v>
+      <c r="C153" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15" customHeight="1">
@@ -9414,11 +9461,11 @@
       <c r="B154" s="2">
         <v>4</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>654</v>
+      <c r="C154" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="15" customHeight="1">
@@ -9428,11 +9475,11 @@
       <c r="B155" s="2">
         <v>0</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>654</v>
+      <c r="C155" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="15" customHeight="1">
@@ -9442,11 +9489,11 @@
       <c r="B156" s="2">
         <v>1</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>654</v>
+      <c r="C156" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="15" customHeight="1">
@@ -9456,11 +9503,11 @@
       <c r="B157" s="2">
         <v>1</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>654</v>
+      <c r="C157" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15" customHeight="1">
@@ -9470,11 +9517,11 @@
       <c r="B158" s="2">
         <v>2</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>654</v>
+      <c r="C158" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="15" customHeight="1">
@@ -9484,11 +9531,11 @@
       <c r="B159" s="2">
         <v>3</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>654</v>
+      <c r="C159" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15" customHeight="1">
@@ -9498,11 +9545,11 @@
       <c r="B160" s="2">
         <v>4</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>654</v>
+      <c r="C160" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="15" customHeight="1">
@@ -9512,11 +9559,11 @@
       <c r="B161" s="2">
         <v>0</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>654</v>
+      <c r="C161" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="15" customHeight="1">
@@ -9526,11 +9573,11 @@
       <c r="B162" s="2">
         <v>1</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>654</v>
+      <c r="C162" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="15" customHeight="1">
@@ -9540,11 +9587,11 @@
       <c r="B163" s="2">
         <v>2</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>654</v>
+      <c r="C163" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="15" customHeight="1">
@@ -9554,11 +9601,11 @@
       <c r="B164" s="2">
         <v>1</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>654</v>
+      <c r="C164" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="15" customHeight="1">
@@ -9568,11 +9615,11 @@
       <c r="B165" s="2">
         <v>2</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>654</v>
+      <c r="C165" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="15" customHeight="1">
@@ -9582,11 +9629,11 @@
       <c r="B166" s="2">
         <v>3</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>654</v>
+      <c r="C166" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="15" customHeight="1">
@@ -9596,11 +9643,11 @@
       <c r="B167" s="2">
         <v>4</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>654</v>
+      <c r="C167" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="15" customHeight="1">
@@ -9610,11 +9657,11 @@
       <c r="B168" s="2">
         <v>0</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>654</v>
+      <c r="C168" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="15" customHeight="1">
@@ -9624,11 +9671,11 @@
       <c r="B169" s="2">
         <v>1</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>654</v>
+      <c r="C169" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="15" customHeight="1">
@@ -9638,11 +9685,11 @@
       <c r="B170" s="2">
         <v>2</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>654</v>
+      <c r="C170" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="15" customHeight="1">
@@ -9652,11 +9699,11 @@
       <c r="B171" s="2">
         <v>1</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>654</v>
+      <c r="C171" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15" customHeight="1">
@@ -9666,11 +9713,11 @@
       <c r="B172" s="2">
         <v>2</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>654</v>
+      <c r="C172" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="15" customHeight="1">
@@ -9680,11 +9727,11 @@
       <c r="B173" s="2">
         <v>3</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>654</v>
+      <c r="C173" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="15" customHeight="1">
@@ -9694,11 +9741,11 @@
       <c r="B174" s="2">
         <v>4</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>654</v>
+      <c r="C174" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="15" customHeight="1">
@@ -9708,11 +9755,11 @@
       <c r="B175" s="2">
         <v>1</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>654</v>
+      <c r="C175" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="15" customHeight="1">
@@ -9722,11 +9769,11 @@
       <c r="B176" s="2">
         <v>2</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>654</v>
+      <c r="C176" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="15" customHeight="1">
@@ -9736,11 +9783,11 @@
       <c r="B177" s="2">
         <v>3</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>654</v>
+      <c r="C177" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="15" customHeight="1">
@@ -9750,11 +9797,11 @@
       <c r="B178" s="2">
         <v>4</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>654</v>
+      <c r="C178" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="15" customHeight="1">
@@ -9764,11 +9811,11 @@
       <c r="B179" s="2">
         <v>0</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>654</v>
+      <c r="C179" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="15" customHeight="1">
@@ -9778,11 +9825,11 @@
       <c r="B180" s="2">
         <v>1</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>654</v>
+      <c r="C180" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="15" customHeight="1">
@@ -9792,11 +9839,11 @@
       <c r="B181" s="2">
         <v>0</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>654</v>
+      <c r="C181" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="15" customHeight="1">
@@ -9806,11 +9853,11 @@
       <c r="B182" s="2">
         <v>1</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>654</v>
+      <c r="C182" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="15" customHeight="1">
@@ -9820,11 +9867,11 @@
       <c r="B183" s="2">
         <v>0</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>654</v>
+      <c r="C183" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="15" customHeight="1">
@@ -9834,11 +9881,11 @@
       <c r="B184" s="2">
         <v>1</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>654</v>
+      <c r="C184" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="15" customHeight="1">
@@ -9848,11 +9895,11 @@
       <c r="B185" s="2">
         <v>0</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>654</v>
+      <c r="C185" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="15" customHeight="1">
@@ -9862,11 +9909,11 @@
       <c r="B186" s="2">
         <v>1</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>654</v>
+      <c r="C186" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="15" customHeight="1">
@@ -9876,11 +9923,11 @@
       <c r="B187" s="2">
         <v>2</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>654</v>
+      <c r="C187" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="15" customHeight="1">
@@ -9890,11 +9937,11 @@
       <c r="B188" s="2">
         <v>1</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>654</v>
+      <c r="C188" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="15" customHeight="1">
@@ -9904,11 +9951,11 @@
       <c r="B189" s="2">
         <v>2</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>654</v>
+      <c r="C189" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="15" customHeight="1">
@@ -9918,11 +9965,11 @@
       <c r="B190" s="2">
         <v>3</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>654</v>
+      <c r="C190" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="15" customHeight="1">
@@ -9932,11 +9979,11 @@
       <c r="B191" s="2">
         <v>4</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>654</v>
+      <c r="C191" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="15" customHeight="1">
@@ -9946,11 +9993,11 @@
       <c r="B192" s="2">
         <v>0</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>654</v>
+      <c r="C192" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="15" customHeight="1">
@@ -9960,11 +10007,11 @@
       <c r="B193" s="2">
         <v>1</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>654</v>
+      <c r="C193" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="15" customHeight="1">
@@ -9974,11 +10021,11 @@
       <c r="B194" s="2">
         <v>1</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>654</v>
+      <c r="C194" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="15" customHeight="1">
@@ -9988,11 +10035,11 @@
       <c r="B195" s="2">
         <v>2</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>654</v>
+      <c r="C195" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15" customHeight="1">
@@ -10002,11 +10049,11 @@
       <c r="B196" s="2">
         <v>1</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>654</v>
+      <c r="C196" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="15" customHeight="1">
@@ -10016,11 +10063,11 @@
       <c r="B197" s="2">
         <v>2</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>654</v>
+      <c r="C197" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="15" customHeight="1">
@@ -10030,11 +10077,11 @@
       <c r="B198" s="2">
         <v>3</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>654</v>
+      <c r="C198" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="15" customHeight="1">
@@ -10044,11 +10091,11 @@
       <c r="B199" s="2">
         <v>1</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>654</v>
+      <c r="C199" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="15" customHeight="1">
@@ -10058,11 +10105,11 @@
       <c r="B200" s="2">
         <v>2</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>654</v>
+      <c r="C200" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="15" customHeight="1">
@@ -10072,11 +10119,11 @@
       <c r="B201" s="2">
         <v>3</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>654</v>
+      <c r="C201" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="15" customHeight="1">
@@ -10086,11 +10133,11 @@
       <c r="B202" s="2">
         <v>0</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>654</v>
+      <c r="C202" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="15" customHeight="1">
@@ -10100,11 +10147,11 @@
       <c r="B203" s="2">
         <v>1</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>654</v>
+      <c r="C203" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="15" customHeight="1">
@@ -10114,11 +10161,11 @@
       <c r="B204" s="2">
         <v>0</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>654</v>
+      <c r="C204" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="15" customHeight="1">
@@ -10128,11 +10175,11 @@
       <c r="B205" s="2">
         <v>1</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>654</v>
+      <c r="C205" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="15" customHeight="1">
@@ -10142,11 +10189,11 @@
       <c r="B206" s="2">
         <v>0</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>654</v>
+      <c r="C206" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="15" customHeight="1">
@@ -10156,11 +10203,11 @@
       <c r="B207" s="2">
         <v>1</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>654</v>
+      <c r="C207" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="15" customHeight="1">
@@ -10170,11 +10217,11 @@
       <c r="B208" s="2">
         <v>1</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>654</v>
+      <c r="C208" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="15" customHeight="1">
@@ -10184,11 +10231,11 @@
       <c r="B209" s="2">
         <v>2</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>654</v>
+      <c r="C209" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="15" customHeight="1">
@@ -10198,11 +10245,11 @@
       <c r="B210" s="2">
         <v>3</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>654</v>
+      <c r="C210" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="15" customHeight="1">
@@ -10212,11 +10259,11 @@
       <c r="B211" s="2">
         <v>4</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>654</v>
+      <c r="C211" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15" customHeight="1">
@@ -10226,11 +10273,11 @@
       <c r="B212" s="2">
         <v>5</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>654</v>
+      <c r="C212" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="15" customHeight="1">
@@ -10240,11 +10287,11 @@
       <c r="B213" s="2">
         <v>0</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>654</v>
+      <c r="C213" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="15" customHeight="1">
@@ -10254,11 +10301,11 @@
       <c r="B214" s="2">
         <v>1</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>654</v>
+      <c r="C214" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="15" customHeight="1">
@@ -10268,11 +10315,11 @@
       <c r="B215" s="2">
         <v>0</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>654</v>
+      <c r="C215" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="15" customHeight="1">
@@ -10282,11 +10329,11 @@
       <c r="B216" s="2">
         <v>1</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>654</v>
+      <c r="C216" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="15" customHeight="1">
@@ -10296,11 +10343,11 @@
       <c r="B217" s="2">
         <v>1</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>654</v>
+      <c r="C217" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="15" customHeight="1">
@@ -10310,11 +10357,11 @@
       <c r="B218" s="2">
         <v>2</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>654</v>
+      <c r="C218" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="15" customHeight="1">
@@ -10324,11 +10371,11 @@
       <c r="B219" s="2">
         <v>3</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>654</v>
+      <c r="C219" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="15" customHeight="1">
@@ -10338,11 +10385,11 @@
       <c r="B220" s="2">
         <v>4</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>654</v>
+      <c r="C220" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="15" customHeight="1">
@@ -10352,11 +10399,11 @@
       <c r="B221" s="2">
         <v>5</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>654</v>
+      <c r="C221" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="15" customHeight="1">
@@ -10366,11 +10413,11 @@
       <c r="B222" s="2">
         <v>1</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>654</v>
+      <c r="C222" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="15" customHeight="1">
@@ -10380,11 +10427,11 @@
       <c r="B223" s="2">
         <v>2</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>654</v>
+      <c r="C223" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="15" customHeight="1">
@@ -10394,11 +10441,11 @@
       <c r="B224" s="2">
         <v>3</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>654</v>
+      <c r="C224" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="15" customHeight="1">
@@ -10408,11 +10455,11 @@
       <c r="B225" s="2">
         <v>4</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>654</v>
+      <c r="C225" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="15" customHeight="1">
@@ -10422,11 +10469,11 @@
       <c r="B226" s="2">
         <v>5</v>
       </c>
-      <c r="C226" s="2" t="s">
-        <v>654</v>
+      <c r="C226" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="15" customHeight="1">
@@ -10436,11 +10483,11 @@
       <c r="B227" s="2">
         <v>0</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>654</v>
+      <c r="C227" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15" customHeight="1">
@@ -10450,11 +10497,11 @@
       <c r="B228" s="2">
         <v>1</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>654</v>
+      <c r="C228" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="15" customHeight="1">
@@ -10464,11 +10511,11 @@
       <c r="B229" s="2">
         <v>2</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>654</v>
+      <c r="C229" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="15" customHeight="1">
@@ -10478,11 +10525,11 @@
       <c r="B230" s="2">
         <v>3</v>
       </c>
-      <c r="C230" s="2" t="s">
-        <v>654</v>
+      <c r="C230" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="15" customHeight="1">
@@ -10492,11 +10539,11 @@
       <c r="B231" s="2">
         <v>4</v>
       </c>
-      <c r="C231" s="2" t="s">
-        <v>654</v>
+      <c r="C231" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="15" customHeight="1">
@@ -10506,11 +10553,11 @@
       <c r="B232" s="2">
         <v>5</v>
       </c>
-      <c r="C232" s="2" t="s">
-        <v>654</v>
+      <c r="C232" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="15" customHeight="1">
@@ -10520,11 +10567,11 @@
       <c r="B233" s="2">
         <v>6</v>
       </c>
-      <c r="C233" s="2" t="s">
-        <v>654</v>
+      <c r="C233" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="15" customHeight="1">
@@ -10534,11 +10581,11 @@
       <c r="B234" s="2">
         <v>7</v>
       </c>
-      <c r="C234" s="2" t="s">
-        <v>654</v>
+      <c r="C234" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="15" customHeight="1">
@@ -10548,11 +10595,11 @@
       <c r="B235" s="2">
         <v>8</v>
       </c>
-      <c r="C235" s="2" t="s">
-        <v>654</v>
+      <c r="C235" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="15" customHeight="1">
@@ -10562,11 +10609,11 @@
       <c r="B236" s="2">
         <v>9</v>
       </c>
-      <c r="C236" s="2" t="s">
-        <v>654</v>
+      <c r="C236" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="15" customHeight="1">
@@ -10576,11 +10623,11 @@
       <c r="B237" s="2">
         <v>0</v>
       </c>
-      <c r="C237" s="2" t="s">
-        <v>654</v>
+      <c r="C237" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="15" customHeight="1">
@@ -10590,11 +10637,11 @@
       <c r="B238" s="2">
         <v>1</v>
       </c>
-      <c r="C238" s="2" t="s">
-        <v>654</v>
+      <c r="C238" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="15" customHeight="1">
@@ -10604,11 +10651,11 @@
       <c r="B239" s="2">
         <v>2</v>
       </c>
-      <c r="C239" s="2" t="s">
-        <v>654</v>
+      <c r="C239" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="15" customHeight="1">
@@ -10618,11 +10665,11 @@
       <c r="B240" s="2">
         <v>3</v>
       </c>
-      <c r="C240" s="2" t="s">
-        <v>654</v>
+      <c r="C240" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="15" customHeight="1">
@@ -10632,11 +10679,11 @@
       <c r="B241" s="2">
         <v>4</v>
       </c>
-      <c r="C241" s="2" t="s">
-        <v>654</v>
+      <c r="C241" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="15" customHeight="1">
@@ -10646,11 +10693,11 @@
       <c r="B242" s="2">
         <v>5</v>
       </c>
-      <c r="C242" s="2" t="s">
-        <v>654</v>
+      <c r="C242" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="15" customHeight="1">
@@ -10660,11 +10707,11 @@
       <c r="B243" s="2">
         <v>6</v>
       </c>
-      <c r="C243" s="2" t="s">
-        <v>654</v>
+      <c r="C243" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="15" customHeight="1">
@@ -10674,11 +10721,11 @@
       <c r="B244" s="2">
         <v>7</v>
       </c>
-      <c r="C244" s="2" t="s">
-        <v>654</v>
+      <c r="C244" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="15" customHeight="1">
@@ -10688,11 +10735,11 @@
       <c r="B245" s="2">
         <v>8</v>
       </c>
-      <c r="C245" s="2" t="s">
-        <v>654</v>
+      <c r="C245" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="15" customHeight="1">
@@ -10702,11 +10749,11 @@
       <c r="B246" s="2">
         <v>9</v>
       </c>
-      <c r="C246" s="2" t="s">
-        <v>654</v>
+      <c r="C246" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="15" customHeight="1">
@@ -10716,11 +10763,11 @@
       <c r="B247" s="2">
         <v>1001</v>
       </c>
-      <c r="C247" s="2" t="s">
-        <v>654</v>
+      <c r="C247" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="15" customHeight="1">
@@ -10730,11 +10777,11 @@
       <c r="B248" s="2">
         <v>1102</v>
       </c>
-      <c r="C248" s="2" t="s">
-        <v>654</v>
+      <c r="C248" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="15" customHeight="1">
@@ -10744,11 +10791,11 @@
       <c r="B249" s="2">
         <v>1103</v>
       </c>
-      <c r="C249" s="2" t="s">
-        <v>654</v>
+      <c r="C249" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="15" customHeight="1">
@@ -10758,11 +10805,11 @@
       <c r="B250" s="2">
         <v>1104</v>
       </c>
-      <c r="C250" s="2" t="s">
-        <v>654</v>
+      <c r="C250" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="15" customHeight="1">
@@ -10772,11 +10819,11 @@
       <c r="B251" s="2">
         <v>1201</v>
       </c>
-      <c r="C251" s="2" t="s">
-        <v>654</v>
+      <c r="C251" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="15" customHeight="1">
@@ -10786,11 +10833,11 @@
       <c r="B252" s="2">
         <v>1202</v>
       </c>
-      <c r="C252" s="2" t="s">
-        <v>654</v>
+      <c r="C252" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="15" customHeight="1">
@@ -10800,11 +10847,11 @@
       <c r="B253" s="2">
         <v>1203</v>
       </c>
-      <c r="C253" s="2" t="s">
-        <v>654</v>
+      <c r="C253" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="15" customHeight="1">
@@ -10814,11 +10861,11 @@
       <c r="B254" s="2">
         <v>1301</v>
       </c>
-      <c r="C254" s="2" t="s">
-        <v>654</v>
+      <c r="C254" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="15" customHeight="1">
@@ -10828,11 +10875,11 @@
       <c r="B255" s="2">
         <v>1401</v>
       </c>
-      <c r="C255" s="2" t="s">
-        <v>654</v>
+      <c r="C255" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="15" customHeight="1">
@@ -10842,11 +10889,11 @@
       <c r="B256" s="2">
         <v>1501</v>
       </c>
-      <c r="C256" s="2" t="s">
-        <v>654</v>
+      <c r="C256" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="15" customHeight="1">
@@ -10856,11 +10903,11 @@
       <c r="B257" s="2">
         <v>1601</v>
       </c>
-      <c r="C257" s="2" t="s">
-        <v>654</v>
+      <c r="C257" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="15" customHeight="1">
@@ -10870,11 +10917,11 @@
       <c r="B258" s="2">
         <v>1701</v>
       </c>
-      <c r="C258" s="2" t="s">
-        <v>654</v>
+      <c r="C258" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="15" customHeight="1">
@@ -10884,11 +10931,11 @@
       <c r="B259" s="2">
         <v>1801</v>
       </c>
-      <c r="C259" s="2" t="s">
-        <v>654</v>
+      <c r="C259" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="15" customHeight="1">
@@ -10898,11 +10945,11 @@
       <c r="B260" s="2">
         <v>1802</v>
       </c>
-      <c r="C260" s="2" t="s">
-        <v>654</v>
+      <c r="C260" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="15" customHeight="1">
@@ -10912,11 +10959,11 @@
       <c r="B261" s="2">
         <v>1901</v>
       </c>
-      <c r="C261" s="2" t="s">
-        <v>654</v>
+      <c r="C261" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="15" customHeight="1">
@@ -10926,11 +10973,11 @@
       <c r="B262" s="2">
         <v>2001</v>
       </c>
-      <c r="C262" s="2" t="s">
-        <v>654</v>
+      <c r="C262" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="15" customHeight="1">
@@ -10940,11 +10987,11 @@
       <c r="B263" s="2">
         <v>1</v>
       </c>
-      <c r="C263" s="2" t="s">
-        <v>654</v>
+      <c r="C263" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="15" customHeight="1">
@@ -10954,11 +11001,11 @@
       <c r="B264" s="2">
         <v>0</v>
       </c>
-      <c r="C264" s="2" t="s">
-        <v>654</v>
+      <c r="C264" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="15" customHeight="1">
@@ -10968,11 +11015,11 @@
       <c r="B265" s="2">
         <v>1</v>
       </c>
-      <c r="C265" s="2" t="s">
-        <v>654</v>
+      <c r="C265" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="15" customHeight="1">
@@ -10982,11 +11029,11 @@
       <c r="B266" s="2">
         <v>0</v>
       </c>
-      <c r="C266" s="2" t="s">
-        <v>654</v>
+      <c r="C266" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="15" customHeight="1">
@@ -10996,11 +11043,11 @@
       <c r="B267" s="2">
         <v>1</v>
       </c>
-      <c r="C267" s="2" t="s">
-        <v>654</v>
+      <c r="C267" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="15" customHeight="1">
@@ -11010,11 +11057,11 @@
       <c r="B268" s="2">
         <v>2</v>
       </c>
-      <c r="C268" s="2" t="s">
-        <v>654</v>
+      <c r="C268" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="15" customHeight="1">
@@ -11024,11 +11071,11 @@
       <c r="B269" s="2">
         <v>3</v>
       </c>
-      <c r="C269" s="2" t="s">
-        <v>654</v>
+      <c r="C269" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="15" customHeight="1">
@@ -11038,11 +11085,11 @@
       <c r="B270" s="2">
         <v>4</v>
       </c>
-      <c r="C270" s="2" t="s">
-        <v>654</v>
+      <c r="C270" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="15" customHeight="1">
@@ -11052,11 +11099,11 @@
       <c r="B271" s="2">
         <v>5</v>
       </c>
-      <c r="C271" s="2" t="s">
-        <v>654</v>
+      <c r="C271" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="15" customHeight="1">
@@ -11066,11 +11113,11 @@
       <c r="B272" s="2">
         <v>6</v>
       </c>
-      <c r="C272" s="2" t="s">
-        <v>654</v>
+      <c r="C272" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="15" customHeight="1">
@@ -11080,11 +11127,11 @@
       <c r="B273" s="2">
         <v>1</v>
       </c>
-      <c r="C273" s="2" t="s">
-        <v>654</v>
+      <c r="C273" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="15" customHeight="1">
@@ -11094,11 +11141,11 @@
       <c r="B274" s="2">
         <v>2</v>
       </c>
-      <c r="C274" s="2" t="s">
-        <v>654</v>
+      <c r="C274" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="15" customHeight="1">
@@ -11108,11 +11155,11 @@
       <c r="B275" s="2">
         <v>3</v>
       </c>
-      <c r="C275" s="2" t="s">
-        <v>654</v>
+      <c r="C275" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="15" customHeight="1">
@@ -11122,11 +11169,11 @@
       <c r="B276" s="2">
         <v>4</v>
       </c>
-      <c r="C276" s="2" t="s">
-        <v>654</v>
+      <c r="C276" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="15" customHeight="1">
@@ -11136,11 +11183,11 @@
       <c r="B277" s="2">
         <v>5</v>
       </c>
-      <c r="C277" s="2" t="s">
-        <v>654</v>
+      <c r="C277" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="15" customHeight="1">
@@ -11150,11 +11197,11 @@
       <c r="B278" s="2">
         <v>6</v>
       </c>
-      <c r="C278" s="2" t="s">
-        <v>654</v>
+      <c r="C278" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="15" customHeight="1">
@@ -11164,11 +11211,11 @@
       <c r="B279" s="2">
         <v>1</v>
       </c>
-      <c r="C279" s="2" t="s">
-        <v>654</v>
+      <c r="C279" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="15" customHeight="1">
@@ -11178,11 +11225,11 @@
       <c r="B280" s="2">
         <v>2</v>
       </c>
-      <c r="C280" s="2" t="s">
-        <v>654</v>
+      <c r="C280" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="15" customHeight="1">
@@ -11192,11 +11239,11 @@
       <c r="B281" s="2">
         <v>3</v>
       </c>
-      <c r="C281" s="2" t="s">
-        <v>654</v>
+      <c r="C281" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="15" customHeight="1">
@@ -11206,11 +11253,11 @@
       <c r="B282" s="2">
         <v>1</v>
       </c>
-      <c r="C282" s="2" t="s">
-        <v>654</v>
+      <c r="C282" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="15" customHeight="1">
@@ -11220,11 +11267,11 @@
       <c r="B283" s="2">
         <v>2</v>
       </c>
-      <c r="C283" s="2" t="s">
-        <v>654</v>
+      <c r="C283" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="15" customHeight="1">
@@ -11234,11 +11281,11 @@
       <c r="B284" s="2">
         <v>3</v>
       </c>
-      <c r="C284" s="2" t="s">
-        <v>654</v>
+      <c r="C284" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="15" customHeight="1">
@@ -11248,11 +11295,11 @@
       <c r="B285" s="2">
         <v>4</v>
       </c>
-      <c r="C285" s="2" t="s">
-        <v>654</v>
+      <c r="C285" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="15" customHeight="1">
@@ -11262,11 +11309,11 @@
       <c r="B286" s="2">
         <v>5</v>
       </c>
-      <c r="C286" s="2" t="s">
-        <v>654</v>
+      <c r="C286" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="15" customHeight="1">
@@ -11276,11 +11323,11 @@
       <c r="B287" s="2">
         <v>1</v>
       </c>
-      <c r="C287" s="2" t="s">
-        <v>654</v>
+      <c r="C287" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="15" customHeight="1">
@@ -11290,11 +11337,11 @@
       <c r="B288" s="2">
         <v>2</v>
       </c>
-      <c r="C288" s="2" t="s">
-        <v>654</v>
+      <c r="C288" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="15" customHeight="1">
@@ -11304,11 +11351,11 @@
       <c r="B289" s="2">
         <v>3</v>
       </c>
-      <c r="C289" s="2" t="s">
-        <v>654</v>
+      <c r="C289" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="15" customHeight="1">
@@ -11318,11 +11365,11 @@
       <c r="B290" s="2">
         <v>1</v>
       </c>
-      <c r="C290" s="2" t="s">
-        <v>654</v>
+      <c r="C290" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="15" customHeight="1">
@@ -11332,11 +11379,11 @@
       <c r="B291" s="2">
         <v>2</v>
       </c>
-      <c r="C291" s="2" t="s">
-        <v>654</v>
+      <c r="C291" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="15" customHeight="1">
@@ -11346,11 +11393,11 @@
       <c r="B292" s="2">
         <v>3</v>
       </c>
-      <c r="C292" s="2" t="s">
-        <v>654</v>
+      <c r="C292" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="15" customHeight="1">
@@ -11360,11 +11407,11 @@
       <c r="B293" s="2">
         <v>1</v>
       </c>
-      <c r="C293" s="2" t="s">
-        <v>654</v>
+      <c r="C293" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="15" customHeight="1">
@@ -11374,11 +11421,11 @@
       <c r="B294" s="2">
         <v>2</v>
       </c>
-      <c r="C294" s="2" t="s">
-        <v>654</v>
+      <c r="C294" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="15" customHeight="1">
@@ -11388,11 +11435,11 @@
       <c r="B295" s="2">
         <v>3</v>
       </c>
-      <c r="C295" s="2" t="s">
-        <v>654</v>
+      <c r="C295" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="15" customHeight="1">
@@ -11402,11 +11449,11 @@
       <c r="B296" s="2">
         <v>0</v>
       </c>
-      <c r="C296" s="2" t="s">
-        <v>654</v>
+      <c r="C296" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="15" customHeight="1">
@@ -11416,11 +11463,11 @@
       <c r="B297" s="2">
         <v>1</v>
       </c>
-      <c r="C297" s="2" t="s">
-        <v>654</v>
+      <c r="C297" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="15" customHeight="1">
@@ -11430,11 +11477,11 @@
       <c r="B298" s="2">
         <v>0</v>
       </c>
-      <c r="C298" s="2" t="s">
-        <v>654</v>
+      <c r="C298" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="15" customHeight="1">
@@ -11444,11 +11491,11 @@
       <c r="B299" s="2">
         <v>1</v>
       </c>
-      <c r="C299" s="2" t="s">
-        <v>654</v>
+      <c r="C299" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="15" customHeight="1">
@@ -11458,11 +11505,11 @@
       <c r="B300" s="2">
         <v>0</v>
       </c>
-      <c r="C300" s="2" t="s">
-        <v>654</v>
+      <c r="C300" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="15" customHeight="1">
@@ -11472,11 +11519,11 @@
       <c r="B301" s="2">
         <v>1</v>
       </c>
-      <c r="C301" s="2" t="s">
-        <v>654</v>
+      <c r="C301" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/dictionaries/core/1_1/1_1_non_repeated.xlsx
+++ b/R/data/dictionaries/core/1_1/1_1_non_repeated.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/R/data/dictionaries/core/1_1/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0987AAF-69E2-FA4C-B363-04986BB79F39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16160" windowHeight="10240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="16164" windowHeight="10236" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="818">
   <si>
     <t>name</t>
   </si>
@@ -2472,12 +2466,15 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="4">
     <font>
       <sz val="10"/>
@@ -2552,8 +2549,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2569,7 +2566,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2611,7 +2608,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2643,27 +2640,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2695,24 +2674,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2888,20 +2849,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D313"/>
   <sheetViews>
     <sheetView topLeftCell="A283" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="197.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="197.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
@@ -7295,21 +7256,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A282" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D299" sqref="D299"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="5" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
@@ -7333,8 +7294,8 @@
       <c r="B2" s="2">
         <v>101</v>
       </c>
-      <c r="C2" s="2" t="b">
-        <v>0</v>
+      <c r="C2" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>654</v>
@@ -7347,8 +7308,8 @@
       <c r="B3" s="2">
         <v>102</v>
       </c>
-      <c r="C3" s="2" t="b">
-        <v>0</v>
+      <c r="C3" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>655</v>
@@ -7361,8 +7322,8 @@
       <c r="B4" s="2">
         <v>103</v>
       </c>
-      <c r="C4" s="2" t="b">
-        <v>0</v>
+      <c r="C4" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>656</v>
@@ -7375,8 +7336,8 @@
       <c r="B5" s="2">
         <v>104</v>
       </c>
-      <c r="C5" s="2" t="b">
-        <v>0</v>
+      <c r="C5" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>657</v>
@@ -7389,8 +7350,8 @@
       <c r="B6" s="2">
         <v>105</v>
       </c>
-      <c r="C6" s="2" t="b">
-        <v>0</v>
+      <c r="C6" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>658</v>
@@ -7403,8 +7364,8 @@
       <c r="B7" s="2">
         <v>106</v>
       </c>
-      <c r="C7" s="2" t="b">
-        <v>0</v>
+      <c r="C7" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>659</v>
@@ -7417,8 +7378,8 @@
       <c r="B8" s="2">
         <v>107</v>
       </c>
-      <c r="C8" s="2" t="b">
-        <v>0</v>
+      <c r="C8" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>660</v>
@@ -7431,8 +7392,8 @@
       <c r="B9" s="2">
         <v>108</v>
       </c>
-      <c r="C9" s="2" t="b">
-        <v>0</v>
+      <c r="C9" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>661</v>
@@ -7445,8 +7406,8 @@
       <c r="B10" s="2">
         <v>109</v>
       </c>
-      <c r="C10" s="2" t="b">
-        <v>0</v>
+      <c r="C10" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>662</v>
@@ -7459,8 +7420,8 @@
       <c r="B11" s="2">
         <v>110</v>
       </c>
-      <c r="C11" s="2" t="b">
-        <v>0</v>
+      <c r="C11" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>663</v>
@@ -7473,8 +7434,8 @@
       <c r="B12" s="2">
         <v>111</v>
       </c>
-      <c r="C12" s="2" t="b">
-        <v>0</v>
+      <c r="C12" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>664</v>
@@ -7487,8 +7448,8 @@
       <c r="B13" s="2">
         <v>112</v>
       </c>
-      <c r="C13" s="2" t="b">
-        <v>0</v>
+      <c r="C13" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>665</v>
@@ -7501,8 +7462,8 @@
       <c r="B14" s="2">
         <v>113</v>
       </c>
-      <c r="C14" s="2" t="b">
-        <v>0</v>
+      <c r="C14" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>666</v>
@@ -7515,8 +7476,8 @@
       <c r="B15" s="2">
         <v>114</v>
       </c>
-      <c r="C15" s="2" t="b">
-        <v>0</v>
+      <c r="C15" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>667</v>
@@ -7529,8 +7490,8 @@
       <c r="B16" s="2">
         <v>115</v>
       </c>
-      <c r="C16" s="2" t="b">
-        <v>0</v>
+      <c r="C16" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>668</v>
@@ -7543,8 +7504,8 @@
       <c r="B17" s="2">
         <v>116</v>
       </c>
-      <c r="C17" s="2" t="b">
-        <v>0</v>
+      <c r="C17" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>669</v>
@@ -7557,8 +7518,8 @@
       <c r="B18" s="2">
         <v>117</v>
       </c>
-      <c r="C18" s="2" t="b">
-        <v>0</v>
+      <c r="C18" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>670</v>
@@ -7571,8 +7532,8 @@
       <c r="B19" s="2">
         <v>118</v>
       </c>
-      <c r="C19" s="2" t="b">
-        <v>0</v>
+      <c r="C19" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>671</v>
@@ -7585,8 +7546,8 @@
       <c r="B20" s="2">
         <v>119</v>
       </c>
-      <c r="C20" s="2" t="b">
-        <v>0</v>
+      <c r="C20" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>672</v>
@@ -7599,8 +7560,8 @@
       <c r="B21" s="2">
         <v>120</v>
       </c>
-      <c r="C21" s="2" t="b">
-        <v>0</v>
+      <c r="C21" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>673</v>
@@ -7613,8 +7574,8 @@
       <c r="B22" s="2">
         <v>121</v>
       </c>
-      <c r="C22" s="2" t="b">
-        <v>0</v>
+      <c r="C22" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>674</v>
@@ -7627,8 +7588,8 @@
       <c r="B23" s="2">
         <v>122</v>
       </c>
-      <c r="C23" s="2" t="b">
-        <v>0</v>
+      <c r="C23" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>675</v>
@@ -7641,8 +7602,8 @@
       <c r="B24" s="2">
         <v>36</v>
       </c>
-      <c r="C24" s="2" t="b">
-        <v>0</v>
+      <c r="C24" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>676</v>
@@ -7655,8 +7616,8 @@
       <c r="B25" s="2">
         <v>208</v>
       </c>
-      <c r="C25" s="2" t="b">
-        <v>0</v>
+      <c r="C25" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>677</v>
@@ -7669,8 +7630,8 @@
       <c r="B26" s="2">
         <v>246</v>
       </c>
-      <c r="C26" s="2" t="b">
-        <v>0</v>
+      <c r="C26" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>678</v>
@@ -7683,8 +7644,8 @@
       <c r="B27" s="2">
         <v>250</v>
       </c>
-      <c r="C27" s="2" t="b">
-        <v>0</v>
+      <c r="C27" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>679</v>
@@ -7697,8 +7658,8 @@
       <c r="B28" s="2">
         <v>276</v>
       </c>
-      <c r="C28" s="2" t="b">
-        <v>0</v>
+      <c r="C28" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>680</v>
@@ -7711,8 +7672,8 @@
       <c r="B29" s="2">
         <v>300</v>
       </c>
-      <c r="C29" s="2" t="b">
-        <v>0</v>
+      <c r="C29" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>681</v>
@@ -7725,8 +7686,8 @@
       <c r="B30" s="2">
         <v>380</v>
       </c>
-      <c r="C30" s="2" t="b">
-        <v>0</v>
+      <c r="C30" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>682</v>
@@ -7739,8 +7700,8 @@
       <c r="B31" s="2">
         <v>528</v>
       </c>
-      <c r="C31" s="2" t="b">
-        <v>0</v>
+      <c r="C31" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>683</v>
@@ -7753,8 +7714,8 @@
       <c r="B32" s="2">
         <v>578</v>
       </c>
-      <c r="C32" s="2" t="b">
-        <v>0</v>
+      <c r="C32" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>684</v>
@@ -7767,8 +7728,8 @@
       <c r="B33" s="2">
         <v>724</v>
       </c>
-      <c r="C33" s="2" t="b">
-        <v>0</v>
+      <c r="C33" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>685</v>
@@ -7781,8 +7742,8 @@
       <c r="B34" s="2">
         <v>826</v>
       </c>
-      <c r="C34" s="2" t="b">
-        <v>0</v>
+      <c r="C34" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>686</v>
@@ -7795,8 +7756,8 @@
       <c r="B35" s="2">
         <v>0</v>
       </c>
-      <c r="C35" s="2" t="b">
-        <v>0</v>
+      <c r="C35" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>687</v>
@@ -7809,8 +7770,8 @@
       <c r="B36" s="2">
         <v>1</v>
       </c>
-      <c r="C36" s="2" t="b">
-        <v>0</v>
+      <c r="C36" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>688</v>
@@ -7823,8 +7784,8 @@
       <c r="B37" s="2">
         <v>2</v>
       </c>
-      <c r="C37" s="2" t="b">
-        <v>0</v>
+      <c r="C37" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>689</v>
@@ -7837,8 +7798,8 @@
       <c r="B38" s="2">
         <v>1</v>
       </c>
-      <c r="C38" s="2" t="b">
-        <v>0</v>
+      <c r="C38" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>690</v>
@@ -7851,8 +7812,8 @@
       <c r="B39" s="2">
         <v>2</v>
       </c>
-      <c r="C39" s="2" t="b">
-        <v>0</v>
+      <c r="C39" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>691</v>
@@ -7865,8 +7826,8 @@
       <c r="B40" s="2">
         <v>3</v>
       </c>
-      <c r="C40" s="2" t="b">
-        <v>0</v>
+      <c r="C40" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>692</v>
@@ -7879,8 +7840,8 @@
       <c r="B41" s="2">
         <v>1</v>
       </c>
-      <c r="C41" s="2" t="b">
-        <v>0</v>
+      <c r="C41" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>693</v>
@@ -7893,8 +7854,8 @@
       <c r="B42" s="2">
         <v>2</v>
       </c>
-      <c r="C42" s="2" t="b">
-        <v>0</v>
+      <c r="C42" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>694</v>
@@ -7907,8 +7868,8 @@
       <c r="B43" s="2">
         <v>3</v>
       </c>
-      <c r="C43" s="2" t="b">
-        <v>0</v>
+      <c r="C43" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>692</v>
@@ -7921,8 +7882,8 @@
       <c r="B44" s="2">
         <v>1</v>
       </c>
-      <c r="C44" s="2" t="b">
-        <v>0</v>
+      <c r="C44" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>690</v>
@@ -7935,8 +7896,8 @@
       <c r="B45" s="2">
         <v>2</v>
       </c>
-      <c r="C45" s="2" t="b">
-        <v>0</v>
+      <c r="C45" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>691</v>
@@ -7949,8 +7910,8 @@
       <c r="B46" s="2">
         <v>3</v>
       </c>
-      <c r="C46" s="2" t="b">
-        <v>0</v>
+      <c r="C46" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>692</v>
@@ -7963,8 +7924,8 @@
       <c r="B47" s="2">
         <v>0</v>
       </c>
-      <c r="C47" s="2" t="b">
-        <v>0</v>
+      <c r="C47" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>695</v>
@@ -7977,8 +7938,8 @@
       <c r="B48" s="2">
         <v>1</v>
       </c>
-      <c r="C48" s="2" t="b">
-        <v>0</v>
+      <c r="C48" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>696</v>
@@ -7991,8 +7952,8 @@
       <c r="B49" s="2">
         <v>0</v>
       </c>
-      <c r="C49" s="2" t="b">
-        <v>0</v>
+      <c r="C49" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>697</v>
@@ -8005,8 +7966,8 @@
       <c r="B50" s="2">
         <v>1</v>
       </c>
-      <c r="C50" s="2" t="b">
-        <v>0</v>
+      <c r="C50" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>698</v>
@@ -8019,8 +7980,8 @@
       <c r="B51" s="2">
         <v>0</v>
       </c>
-      <c r="C51" s="2" t="b">
-        <v>0</v>
+      <c r="C51" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>697</v>
@@ -8033,8 +7994,8 @@
       <c r="B52" s="2">
         <v>1</v>
       </c>
-      <c r="C52" s="2" t="b">
-        <v>0</v>
+      <c r="C52" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>698</v>
@@ -8047,8 +8008,8 @@
       <c r="B53" s="2">
         <v>0</v>
       </c>
-      <c r="C53" s="2" t="b">
-        <v>0</v>
+      <c r="C53" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>697</v>
@@ -8061,8 +8022,8 @@
       <c r="B54" s="2">
         <v>1</v>
       </c>
-      <c r="C54" s="2" t="b">
-        <v>0</v>
+      <c r="C54" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>698</v>
@@ -8075,8 +8036,8 @@
       <c r="B55" s="2">
         <v>2</v>
       </c>
-      <c r="C55" s="2" t="b">
-        <v>0</v>
+      <c r="C55" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>699</v>
@@ -8089,8 +8050,8 @@
       <c r="B56" s="2">
         <v>3</v>
       </c>
-      <c r="C56" s="2" t="b">
-        <v>0</v>
+      <c r="C56" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>700</v>
@@ -8103,8 +8064,8 @@
       <c r="B57" s="2">
         <v>0</v>
       </c>
-      <c r="C57" s="2" t="b">
-        <v>0</v>
+      <c r="C57" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>697</v>
@@ -8117,8 +8078,8 @@
       <c r="B58" s="2">
         <v>1</v>
       </c>
-      <c r="C58" s="2" t="b">
-        <v>0</v>
+      <c r="C58" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>698</v>
@@ -8131,8 +8092,8 @@
       <c r="B59" s="2">
         <v>1</v>
       </c>
-      <c r="C59" s="2" t="b">
-        <v>0</v>
+      <c r="C59" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>695</v>
@@ -8145,8 +8106,8 @@
       <c r="B60" s="2">
         <v>2</v>
       </c>
-      <c r="C60" s="2" t="b">
-        <v>0</v>
+      <c r="C60" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>701</v>
@@ -8159,8 +8120,8 @@
       <c r="B61" s="2">
         <v>3</v>
       </c>
-      <c r="C61" s="2" t="b">
-        <v>0</v>
+      <c r="C61" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>702</v>
@@ -8173,8 +8134,8 @@
       <c r="B62" s="2">
         <v>4</v>
       </c>
-      <c r="C62" s="2" t="b">
-        <v>0</v>
+      <c r="C62" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>380</v>
@@ -8187,8 +8148,8 @@
       <c r="B63" s="2">
         <v>5</v>
       </c>
-      <c r="C63" s="2" t="b">
-        <v>0</v>
+      <c r="C63" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>703</v>
@@ -8201,8 +8162,8 @@
       <c r="B64" s="2">
         <v>0</v>
       </c>
-      <c r="C64" s="2" t="b">
-        <v>0</v>
+      <c r="C64" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>704</v>
@@ -8215,8 +8176,8 @@
       <c r="B65" s="2">
         <v>1</v>
       </c>
-      <c r="C65" s="2" t="b">
-        <v>0</v>
+      <c r="C65" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>705</v>
@@ -8229,8 +8190,8 @@
       <c r="B66" s="2">
         <v>0</v>
       </c>
-      <c r="C66" s="2" t="b">
-        <v>0</v>
+      <c r="C66" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>704</v>
@@ -8243,8 +8204,8 @@
       <c r="B67" s="2">
         <v>1</v>
       </c>
-      <c r="C67" s="2" t="b">
-        <v>0</v>
+      <c r="C67" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>705</v>
@@ -8257,8 +8218,8 @@
       <c r="B68" s="2">
         <v>0</v>
       </c>
-      <c r="C68" s="2" t="b">
-        <v>0</v>
+      <c r="C68" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>704</v>
@@ -8271,8 +8232,8 @@
       <c r="B69" s="2">
         <v>1</v>
       </c>
-      <c r="C69" s="2" t="b">
-        <v>0</v>
+      <c r="C69" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>705</v>
@@ -8285,8 +8246,8 @@
       <c r="B70" s="2">
         <v>0</v>
       </c>
-      <c r="C70" s="2" t="b">
-        <v>0</v>
+      <c r="C70" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>704</v>
@@ -8299,8 +8260,8 @@
       <c r="B71" s="2">
         <v>1</v>
       </c>
-      <c r="C71" s="2" t="b">
-        <v>0</v>
+      <c r="C71" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>705</v>
@@ -8313,8 +8274,8 @@
       <c r="B72" s="2">
         <v>0</v>
       </c>
-      <c r="C72" s="2" t="b">
-        <v>0</v>
+      <c r="C72" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>704</v>
@@ -8327,8 +8288,8 @@
       <c r="B73" s="2">
         <v>1</v>
       </c>
-      <c r="C73" s="2" t="b">
-        <v>0</v>
+      <c r="C73" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>705</v>
@@ -8341,8 +8302,8 @@
       <c r="B74" s="2">
         <v>0</v>
       </c>
-      <c r="C74" s="2" t="b">
-        <v>0</v>
+      <c r="C74" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>704</v>
@@ -8355,8 +8316,8 @@
       <c r="B75" s="2">
         <v>1</v>
       </c>
-      <c r="C75" s="2" t="b">
-        <v>0</v>
+      <c r="C75" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>705</v>
@@ -8369,8 +8330,8 @@
       <c r="B76" s="2">
         <v>0</v>
       </c>
-      <c r="C76" s="2" t="b">
-        <v>0</v>
+      <c r="C76" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>704</v>
@@ -8383,8 +8344,8 @@
       <c r="B77" s="2">
         <v>1</v>
       </c>
-      <c r="C77" s="2" t="b">
-        <v>0</v>
+      <c r="C77" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>705</v>
@@ -8397,8 +8358,8 @@
       <c r="B78" s="2">
         <v>0</v>
       </c>
-      <c r="C78" s="2" t="b">
-        <v>0</v>
+      <c r="C78" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>704</v>
@@ -8411,8 +8372,8 @@
       <c r="B79" s="2">
         <v>1</v>
       </c>
-      <c r="C79" s="2" t="b">
-        <v>0</v>
+      <c r="C79" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>705</v>
@@ -8425,8 +8386,8 @@
       <c r="B80" s="2">
         <v>0</v>
       </c>
-      <c r="C80" s="2" t="b">
-        <v>0</v>
+      <c r="C80" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>704</v>
@@ -8439,8 +8400,8 @@
       <c r="B81" s="2">
         <v>1</v>
       </c>
-      <c r="C81" s="2" t="b">
-        <v>0</v>
+      <c r="C81" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>705</v>
@@ -8453,8 +8414,8 @@
       <c r="B82" s="2">
         <v>0</v>
       </c>
-      <c r="C82" s="2" t="b">
-        <v>0</v>
+      <c r="C82" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>704</v>
@@ -8467,8 +8428,8 @@
       <c r="B83" s="2">
         <v>1</v>
       </c>
-      <c r="C83" s="2" t="b">
-        <v>0</v>
+      <c r="C83" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>705</v>
@@ -8481,8 +8442,8 @@
       <c r="B84" s="2">
         <v>0</v>
       </c>
-      <c r="C84" s="2" t="b">
-        <v>0</v>
+      <c r="C84" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>706</v>
@@ -8495,8 +8456,8 @@
       <c r="B85" s="2">
         <v>1</v>
       </c>
-      <c r="C85" s="2" t="b">
-        <v>0</v>
+      <c r="C85" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>707</v>
@@ -8509,8 +8470,8 @@
       <c r="B86" s="2">
         <v>2</v>
       </c>
-      <c r="C86" s="2" t="b">
-        <v>0</v>
+      <c r="C86" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>708</v>
@@ -8523,8 +8484,8 @@
       <c r="B87" s="2">
         <v>0</v>
       </c>
-      <c r="C87" s="2" t="b">
-        <v>0</v>
+      <c r="C87" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>704</v>
@@ -8537,8 +8498,8 @@
       <c r="B88" s="2">
         <v>1</v>
       </c>
-      <c r="C88" s="2" t="b">
-        <v>0</v>
+      <c r="C88" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>705</v>
@@ -8551,8 +8512,8 @@
       <c r="B89" s="2">
         <v>0</v>
       </c>
-      <c r="C89" s="2" t="b">
-        <v>0</v>
+      <c r="C89" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>706</v>
@@ -8565,8 +8526,8 @@
       <c r="B90" s="2">
         <v>1</v>
       </c>
-      <c r="C90" s="2" t="b">
-        <v>0</v>
+      <c r="C90" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>707</v>
@@ -8579,8 +8540,8 @@
       <c r="B91" s="2">
         <v>2</v>
       </c>
-      <c r="C91" s="2" t="b">
-        <v>0</v>
+      <c r="C91" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>708</v>
@@ -8593,8 +8554,8 @@
       <c r="B92" s="2">
         <v>0</v>
       </c>
-      <c r="C92" s="2" t="b">
-        <v>0</v>
+      <c r="C92" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>704</v>
@@ -8607,8 +8568,8 @@
       <c r="B93" s="2">
         <v>1</v>
       </c>
-      <c r="C93" s="2" t="b">
-        <v>0</v>
+      <c r="C93" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>705</v>
@@ -8621,8 +8582,8 @@
       <c r="B94" s="2">
         <v>0</v>
       </c>
-      <c r="C94" s="2" t="b">
-        <v>0</v>
+      <c r="C94" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>709</v>
@@ -8635,8 +8596,8 @@
       <c r="B95" s="2">
         <v>1</v>
       </c>
-      <c r="C95" s="2" t="b">
-        <v>0</v>
+      <c r="C95" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>710</v>
@@ -8649,8 +8610,8 @@
       <c r="B96" s="2">
         <v>2</v>
       </c>
-      <c r="C96" s="2" t="b">
-        <v>0</v>
+      <c r="C96" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>711</v>
@@ -8663,8 +8624,8 @@
       <c r="B97" s="2">
         <v>3</v>
       </c>
-      <c r="C97" s="2" t="b">
-        <v>0</v>
+      <c r="C97" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>712</v>
@@ -8677,8 +8638,8 @@
       <c r="B98" s="2">
         <v>4</v>
       </c>
-      <c r="C98" s="2" t="b">
-        <v>0</v>
+      <c r="C98" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>713</v>
@@ -8691,8 +8652,8 @@
       <c r="B99" s="2">
         <v>0</v>
       </c>
-      <c r="C99" s="2" t="b">
-        <v>0</v>
+      <c r="C99" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>704</v>
@@ -8705,8 +8666,8 @@
       <c r="B100" s="2">
         <v>1</v>
       </c>
-      <c r="C100" s="2" t="b">
-        <v>0</v>
+      <c r="C100" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>705</v>
@@ -8719,8 +8680,8 @@
       <c r="B101" s="2">
         <v>0</v>
       </c>
-      <c r="C101" s="2" t="b">
-        <v>0</v>
+      <c r="C101" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>706</v>
@@ -8733,8 +8694,8 @@
       <c r="B102" s="2">
         <v>1</v>
       </c>
-      <c r="C102" s="2" t="b">
-        <v>0</v>
+      <c r="C102" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>714</v>
@@ -8747,8 +8708,8 @@
       <c r="B103" s="2">
         <v>2</v>
       </c>
-      <c r="C103" s="2" t="b">
-        <v>0</v>
+      <c r="C103" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>715</v>
@@ -8761,8 +8722,8 @@
       <c r="B104" s="2">
         <v>3</v>
       </c>
-      <c r="C104" s="2" t="b">
-        <v>0</v>
+      <c r="C104" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>716</v>
@@ -8775,8 +8736,8 @@
       <c r="B105" s="2">
         <v>0</v>
       </c>
-      <c r="C105" s="2" t="b">
-        <v>0</v>
+      <c r="C105" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>704</v>
@@ -8789,8 +8750,8 @@
       <c r="B106" s="2">
         <v>1</v>
       </c>
-      <c r="C106" s="2" t="b">
-        <v>0</v>
+      <c r="C106" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>705</v>
@@ -8803,8 +8764,8 @@
       <c r="B107" s="2">
         <v>0</v>
       </c>
-      <c r="C107" s="2" t="b">
-        <v>0</v>
+      <c r="C107" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>704</v>
@@ -8817,8 +8778,8 @@
       <c r="B108" s="2">
         <v>1</v>
       </c>
-      <c r="C108" s="2" t="b">
-        <v>0</v>
+      <c r="C108" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>705</v>
@@ -8831,8 +8792,8 @@
       <c r="B109" s="2">
         <v>0</v>
       </c>
-      <c r="C109" s="2" t="b">
-        <v>0</v>
+      <c r="C109" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>704</v>
@@ -8845,8 +8806,8 @@
       <c r="B110" s="2">
         <v>1</v>
       </c>
-      <c r="C110" s="2" t="b">
-        <v>0</v>
+      <c r="C110" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>705</v>
@@ -8859,8 +8820,8 @@
       <c r="B111" s="2">
         <v>0</v>
       </c>
-      <c r="C111" s="2" t="b">
-        <v>0</v>
+      <c r="C111" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>717</v>
@@ -8873,8 +8834,8 @@
       <c r="B112" s="2">
         <v>1</v>
       </c>
-      <c r="C112" s="2" t="b">
-        <v>0</v>
+      <c r="C112" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>718</v>
@@ -8887,8 +8848,8 @@
       <c r="B113" s="2">
         <v>2</v>
       </c>
-      <c r="C113" s="2" t="b">
-        <v>0</v>
+      <c r="C113" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>719</v>
@@ -8901,8 +8862,8 @@
       <c r="B114" s="2">
         <v>3</v>
       </c>
-      <c r="C114" s="2" t="b">
-        <v>0</v>
+      <c r="C114" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>720</v>
@@ -8915,8 +8876,8 @@
       <c r="B115" s="2">
         <v>4</v>
       </c>
-      <c r="C115" s="2" t="b">
-        <v>0</v>
+      <c r="C115" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>721</v>
@@ -8929,8 +8890,8 @@
       <c r="B116" s="2">
         <v>1</v>
       </c>
-      <c r="C116" s="2" t="b">
-        <v>0</v>
+      <c r="C116" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>722</v>
@@ -8943,8 +8904,8 @@
       <c r="B117" s="2">
         <v>2</v>
       </c>
-      <c r="C117" s="2" t="b">
-        <v>0</v>
+      <c r="C117" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>723</v>
@@ -8957,8 +8918,8 @@
       <c r="B118" s="2">
         <v>0</v>
       </c>
-      <c r="C118" s="2" t="b">
-        <v>0</v>
+      <c r="C118" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>704</v>
@@ -8971,8 +8932,8 @@
       <c r="B119" s="2">
         <v>1</v>
       </c>
-      <c r="C119" s="2" t="b">
-        <v>0</v>
+      <c r="C119" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>705</v>
@@ -8985,8 +8946,8 @@
       <c r="B120" s="2">
         <v>0</v>
       </c>
-      <c r="C120" s="2" t="b">
-        <v>0</v>
+      <c r="C120" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>704</v>
@@ -8999,8 +8960,8 @@
       <c r="B121" s="2">
         <v>1</v>
       </c>
-      <c r="C121" s="2" t="b">
-        <v>0</v>
+      <c r="C121" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>705</v>
@@ -9013,8 +8974,8 @@
       <c r="B122" s="2">
         <v>1</v>
       </c>
-      <c r="C122" s="2" t="b">
-        <v>0</v>
+      <c r="C122" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>724</v>
@@ -9027,8 +8988,8 @@
       <c r="B123" s="2">
         <v>2</v>
       </c>
-      <c r="C123" s="2" t="b">
-        <v>0</v>
+      <c r="C123" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>725</v>
@@ -9041,8 +9002,8 @@
       <c r="B124" s="2">
         <v>3</v>
       </c>
-      <c r="C124" s="2" t="b">
-        <v>0</v>
+      <c r="C124" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>726</v>
@@ -9055,8 +9016,8 @@
       <c r="B125" s="2">
         <v>4</v>
       </c>
-      <c r="C125" s="2" t="b">
-        <v>0</v>
+      <c r="C125" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>727</v>
@@ -9069,8 +9030,8 @@
       <c r="B126" s="2">
         <v>5</v>
       </c>
-      <c r="C126" s="2" t="b">
-        <v>0</v>
+      <c r="C126" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>728</v>
@@ -9083,8 +9044,8 @@
       <c r="B127" s="2">
         <v>6</v>
       </c>
-      <c r="C127" s="2" t="b">
-        <v>0</v>
+      <c r="C127" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>729</v>
@@ -9097,8 +9058,8 @@
       <c r="B128" s="2">
         <v>1</v>
       </c>
-      <c r="C128" s="2" t="b">
-        <v>0</v>
+      <c r="C128" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>730</v>
@@ -9111,8 +9072,8 @@
       <c r="B129" s="2">
         <v>2</v>
       </c>
-      <c r="C129" s="2" t="b">
-        <v>0</v>
+      <c r="C129" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>731</v>
@@ -9125,8 +9086,8 @@
       <c r="B130" s="2">
         <v>3</v>
       </c>
-      <c r="C130" s="2" t="b">
-        <v>0</v>
+      <c r="C130" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>732</v>
@@ -9139,8 +9100,8 @@
       <c r="B131" s="2">
         <v>4</v>
       </c>
-      <c r="C131" s="2" t="b">
-        <v>0</v>
+      <c r="C131" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>733</v>
@@ -9153,8 +9114,8 @@
       <c r="B132" s="2">
         <v>5</v>
       </c>
-      <c r="C132" s="2" t="b">
-        <v>0</v>
+      <c r="C132" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>734</v>
@@ -9167,8 +9128,8 @@
       <c r="B133" s="2">
         <v>0</v>
       </c>
-      <c r="C133" s="2" t="b">
-        <v>0</v>
+      <c r="C133" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>704</v>
@@ -9181,8 +9142,8 @@
       <c r="B134" s="2">
         <v>1</v>
       </c>
-      <c r="C134" s="2" t="b">
-        <v>0</v>
+      <c r="C134" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>705</v>
@@ -9195,8 +9156,8 @@
       <c r="B135" s="2">
         <v>0</v>
       </c>
-      <c r="C135" s="2" t="b">
-        <v>0</v>
+      <c r="C135" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>687</v>
@@ -9209,8 +9170,8 @@
       <c r="B136" s="2">
         <v>1</v>
       </c>
-      <c r="C136" s="2" t="b">
-        <v>0</v>
+      <c r="C136" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>688</v>
@@ -9223,8 +9184,8 @@
       <c r="B137" s="2">
         <v>2</v>
       </c>
-      <c r="C137" s="2" t="b">
-        <v>0</v>
+      <c r="C137" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>689</v>
@@ -9237,8 +9198,8 @@
       <c r="B138" s="2">
         <v>1</v>
       </c>
-      <c r="C138" s="2" t="b">
-        <v>0</v>
+      <c r="C138" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>735</v>
@@ -9251,8 +9212,8 @@
       <c r="B139" s="2">
         <v>2</v>
       </c>
-      <c r="C139" s="2" t="b">
-        <v>0</v>
+      <c r="C139" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>736</v>
@@ -9265,8 +9226,8 @@
       <c r="B140" s="2">
         <v>3</v>
       </c>
-      <c r="C140" s="2" t="b">
-        <v>0</v>
+      <c r="C140" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>737</v>
@@ -9279,8 +9240,8 @@
       <c r="B141" s="2">
         <v>4</v>
       </c>
-      <c r="C141" s="2" t="b">
-        <v>0</v>
+      <c r="C141" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>738</v>
@@ -9293,8 +9254,8 @@
       <c r="B142" s="2">
         <v>1</v>
       </c>
-      <c r="C142" s="2" t="b">
-        <v>0</v>
+      <c r="C142" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>739</v>
@@ -9307,8 +9268,8 @@
       <c r="B143" s="2">
         <v>2</v>
       </c>
-      <c r="C143" s="2" t="b">
-        <v>0</v>
+      <c r="C143" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>740</v>
@@ -9321,8 +9282,8 @@
       <c r="B144" s="2">
         <v>3</v>
       </c>
-      <c r="C144" s="2" t="b">
-        <v>0</v>
+      <c r="C144" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>741</v>
@@ -9335,8 +9296,8 @@
       <c r="B145" s="2">
         <v>1</v>
       </c>
-      <c r="C145" s="2" t="b">
-        <v>0</v>
+      <c r="C145" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>742</v>
@@ -9349,8 +9310,8 @@
       <c r="B146" s="2">
         <v>2</v>
       </c>
-      <c r="C146" s="2" t="b">
-        <v>0</v>
+      <c r="C146" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>743</v>
@@ -9363,8 +9324,8 @@
       <c r="B147" s="2">
         <v>3</v>
       </c>
-      <c r="C147" s="2" t="b">
-        <v>0</v>
+      <c r="C147" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>741</v>
@@ -9377,8 +9338,8 @@
       <c r="B148" s="2">
         <v>1</v>
       </c>
-      <c r="C148" s="2" t="b">
-        <v>0</v>
+      <c r="C148" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>739</v>
@@ -9391,8 +9352,8 @@
       <c r="B149" s="2">
         <v>2</v>
       </c>
-      <c r="C149" s="2" t="b">
-        <v>0</v>
+      <c r="C149" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>740</v>
@@ -9405,8 +9366,8 @@
       <c r="B150" s="2">
         <v>3</v>
       </c>
-      <c r="C150" s="2" t="b">
-        <v>0</v>
+      <c r="C150" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>741</v>
@@ -9419,8 +9380,8 @@
       <c r="B151" s="2">
         <v>1</v>
       </c>
-      <c r="C151" s="2" t="b">
-        <v>0</v>
+      <c r="C151" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>735</v>
@@ -9433,8 +9394,8 @@
       <c r="B152" s="2">
         <v>2</v>
       </c>
-      <c r="C152" s="2" t="b">
-        <v>0</v>
+      <c r="C152" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>736</v>
@@ -9447,8 +9408,8 @@
       <c r="B153" s="2">
         <v>3</v>
       </c>
-      <c r="C153" s="2" t="b">
-        <v>0</v>
+      <c r="C153" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>737</v>
@@ -9461,8 +9422,8 @@
       <c r="B154" s="2">
         <v>4</v>
       </c>
-      <c r="C154" s="2" t="b">
-        <v>0</v>
+      <c r="C154" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>738</v>
@@ -9475,8 +9436,8 @@
       <c r="B155" s="2">
         <v>0</v>
       </c>
-      <c r="C155" s="2" t="b">
-        <v>0</v>
+      <c r="C155" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>704</v>
@@ -9489,8 +9450,8 @@
       <c r="B156" s="2">
         <v>1</v>
       </c>
-      <c r="C156" s="2" t="b">
-        <v>0</v>
+      <c r="C156" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>705</v>
@@ -9503,8 +9464,8 @@
       <c r="B157" s="2">
         <v>1</v>
       </c>
-      <c r="C157" s="2" t="b">
-        <v>0</v>
+      <c r="C157" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>735</v>
@@ -9517,8 +9478,8 @@
       <c r="B158" s="2">
         <v>2</v>
       </c>
-      <c r="C158" s="2" t="b">
-        <v>0</v>
+      <c r="C158" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>736</v>
@@ -9531,8 +9492,8 @@
       <c r="B159" s="2">
         <v>3</v>
       </c>
-      <c r="C159" s="2" t="b">
-        <v>0</v>
+      <c r="C159" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>737</v>
@@ -9545,8 +9506,8 @@
       <c r="B160" s="2">
         <v>4</v>
       </c>
-      <c r="C160" s="2" t="b">
-        <v>0</v>
+      <c r="C160" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>738</v>
@@ -9559,8 +9520,8 @@
       <c r="B161" s="2">
         <v>0</v>
       </c>
-      <c r="C161" s="2" t="b">
-        <v>0</v>
+      <c r="C161" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>744</v>
@@ -9573,8 +9534,8 @@
       <c r="B162" s="2">
         <v>1</v>
       </c>
-      <c r="C162" s="2" t="b">
-        <v>0</v>
+      <c r="C162" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>745</v>
@@ -9587,8 +9548,8 @@
       <c r="B163" s="2">
         <v>2</v>
       </c>
-      <c r="C163" s="2" t="b">
-        <v>0</v>
+      <c r="C163" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>746</v>
@@ -9601,8 +9562,8 @@
       <c r="B164" s="2">
         <v>1</v>
       </c>
-      <c r="C164" s="2" t="b">
-        <v>0</v>
+      <c r="C164" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>735</v>
@@ -9615,8 +9576,8 @@
       <c r="B165" s="2">
         <v>2</v>
       </c>
-      <c r="C165" s="2" t="b">
-        <v>0</v>
+      <c r="C165" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>736</v>
@@ -9629,8 +9590,8 @@
       <c r="B166" s="2">
         <v>3</v>
       </c>
-      <c r="C166" s="2" t="b">
-        <v>0</v>
+      <c r="C166" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>737</v>
@@ -9643,8 +9604,8 @@
       <c r="B167" s="2">
         <v>4</v>
       </c>
-      <c r="C167" s="2" t="b">
-        <v>0</v>
+      <c r="C167" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>738</v>
@@ -9657,8 +9618,8 @@
       <c r="B168" s="2">
         <v>0</v>
       </c>
-      <c r="C168" s="2" t="b">
-        <v>0</v>
+      <c r="C168" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>744</v>
@@ -9671,8 +9632,8 @@
       <c r="B169" s="2">
         <v>1</v>
       </c>
-      <c r="C169" s="2" t="b">
-        <v>0</v>
+      <c r="C169" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>745</v>
@@ -9685,8 +9646,8 @@
       <c r="B170" s="2">
         <v>2</v>
       </c>
-      <c r="C170" s="2" t="b">
-        <v>0</v>
+      <c r="C170" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>746</v>
@@ -9699,8 +9660,8 @@
       <c r="B171" s="2">
         <v>1</v>
       </c>
-      <c r="C171" s="2" t="b">
-        <v>0</v>
+      <c r="C171" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>735</v>
@@ -9713,8 +9674,8 @@
       <c r="B172" s="2">
         <v>2</v>
       </c>
-      <c r="C172" s="2" t="b">
-        <v>0</v>
+      <c r="C172" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>736</v>
@@ -9727,8 +9688,8 @@
       <c r="B173" s="2">
         <v>3</v>
       </c>
-      <c r="C173" s="2" t="b">
-        <v>0</v>
+      <c r="C173" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>737</v>
@@ -9741,8 +9702,8 @@
       <c r="B174" s="2">
         <v>4</v>
       </c>
-      <c r="C174" s="2" t="b">
-        <v>0</v>
+      <c r="C174" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>738</v>
@@ -9755,8 +9716,8 @@
       <c r="B175" s="2">
         <v>1</v>
       </c>
-      <c r="C175" s="2" t="b">
-        <v>0</v>
+      <c r="C175" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>695</v>
@@ -9769,8 +9730,8 @@
       <c r="B176" s="2">
         <v>2</v>
       </c>
-      <c r="C176" s="2" t="b">
-        <v>0</v>
+      <c r="C176" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>747</v>
@@ -9783,8 +9744,8 @@
       <c r="B177" s="2">
         <v>3</v>
       </c>
-      <c r="C177" s="2" t="b">
-        <v>0</v>
+      <c r="C177" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>748</v>
@@ -9797,8 +9758,8 @@
       <c r="B178" s="2">
         <v>4</v>
       </c>
-      <c r="C178" s="2" t="b">
-        <v>0</v>
+      <c r="C178" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>703</v>
@@ -9811,8 +9772,8 @@
       <c r="B179" s="2">
         <v>0</v>
       </c>
-      <c r="C179" s="2" t="b">
-        <v>0</v>
+      <c r="C179" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>704</v>
@@ -9825,8 +9786,8 @@
       <c r="B180" s="2">
         <v>1</v>
       </c>
-      <c r="C180" s="2" t="b">
-        <v>0</v>
+      <c r="C180" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>705</v>
@@ -9839,8 +9800,8 @@
       <c r="B181" s="2">
         <v>0</v>
       </c>
-      <c r="C181" s="2" t="b">
-        <v>0</v>
+      <c r="C181" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>704</v>
@@ -9853,8 +9814,8 @@
       <c r="B182" s="2">
         <v>1</v>
       </c>
-      <c r="C182" s="2" t="b">
-        <v>0</v>
+      <c r="C182" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>705</v>
@@ -9867,8 +9828,8 @@
       <c r="B183" s="2">
         <v>0</v>
       </c>
-      <c r="C183" s="2" t="b">
-        <v>0</v>
+      <c r="C183" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>704</v>
@@ -9881,8 +9842,8 @@
       <c r="B184" s="2">
         <v>1</v>
       </c>
-      <c r="C184" s="2" t="b">
-        <v>0</v>
+      <c r="C184" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>705</v>
@@ -9895,8 +9856,8 @@
       <c r="B185" s="2">
         <v>0</v>
       </c>
-      <c r="C185" s="2" t="b">
-        <v>0</v>
+      <c r="C185" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>749</v>
@@ -9909,8 +9870,8 @@
       <c r="B186" s="2">
         <v>1</v>
       </c>
-      <c r="C186" s="2" t="b">
-        <v>0</v>
+      <c r="C186" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>750</v>
@@ -9923,8 +9884,8 @@
       <c r="B187" s="2">
         <v>2</v>
       </c>
-      <c r="C187" s="2" t="b">
-        <v>0</v>
+      <c r="C187" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>751</v>
@@ -9937,8 +9898,8 @@
       <c r="B188" s="2">
         <v>1</v>
       </c>
-      <c r="C188" s="2" t="b">
-        <v>0</v>
+      <c r="C188" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>735</v>
@@ -9951,8 +9912,8 @@
       <c r="B189" s="2">
         <v>2</v>
       </c>
-      <c r="C189" s="2" t="b">
-        <v>0</v>
+      <c r="C189" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>736</v>
@@ -9965,8 +9926,8 @@
       <c r="B190" s="2">
         <v>3</v>
       </c>
-      <c r="C190" s="2" t="b">
-        <v>0</v>
+      <c r="C190" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>737</v>
@@ -9979,8 +9940,8 @@
       <c r="B191" s="2">
         <v>4</v>
       </c>
-      <c r="C191" s="2" t="b">
-        <v>0</v>
+      <c r="C191" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>738</v>
@@ -9993,8 +9954,8 @@
       <c r="B192" s="2">
         <v>0</v>
       </c>
-      <c r="C192" s="2" t="b">
-        <v>0</v>
+      <c r="C192" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>704</v>
@@ -10007,8 +9968,8 @@
       <c r="B193" s="2">
         <v>1</v>
       </c>
-      <c r="C193" s="2" t="b">
-        <v>0</v>
+      <c r="C193" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>705</v>
@@ -10021,8 +9982,8 @@
       <c r="B194" s="2">
         <v>1</v>
       </c>
-      <c r="C194" s="2" t="b">
-        <v>0</v>
+      <c r="C194" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>752</v>
@@ -10035,8 +9996,8 @@
       <c r="B195" s="2">
         <v>2</v>
       </c>
-      <c r="C195" s="2" t="b">
-        <v>0</v>
+      <c r="C195" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>753</v>
@@ -10049,8 +10010,8 @@
       <c r="B196" s="2">
         <v>1</v>
       </c>
-      <c r="C196" s="2" t="b">
-        <v>0</v>
+      <c r="C196" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>754</v>
@@ -10063,8 +10024,8 @@
       <c r="B197" s="2">
         <v>2</v>
       </c>
-      <c r="C197" s="2" t="b">
-        <v>0</v>
+      <c r="C197" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>755</v>
@@ -10077,8 +10038,8 @@
       <c r="B198" s="2">
         <v>3</v>
       </c>
-      <c r="C198" s="2" t="b">
-        <v>0</v>
+      <c r="C198" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>756</v>
@@ -10091,8 +10052,8 @@
       <c r="B199" s="2">
         <v>1</v>
       </c>
-      <c r="C199" s="2" t="b">
-        <v>0</v>
+      <c r="C199" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>757</v>
@@ -10105,8 +10066,8 @@
       <c r="B200" s="2">
         <v>2</v>
       </c>
-      <c r="C200" s="2" t="b">
-        <v>0</v>
+      <c r="C200" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>758</v>
@@ -10119,8 +10080,8 @@
       <c r="B201" s="2">
         <v>3</v>
       </c>
-      <c r="C201" s="2" t="b">
-        <v>0</v>
+      <c r="C201" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>759</v>
@@ -10133,8 +10094,8 @@
       <c r="B202" s="2">
         <v>0</v>
       </c>
-      <c r="C202" s="2" t="b">
-        <v>0</v>
+      <c r="C202" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>704</v>
@@ -10147,8 +10108,8 @@
       <c r="B203" s="2">
         <v>1</v>
       </c>
-      <c r="C203" s="2" t="b">
-        <v>0</v>
+      <c r="C203" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>705</v>
@@ -10161,8 +10122,8 @@
       <c r="B204" s="2">
         <v>0</v>
       </c>
-      <c r="C204" s="2" t="b">
-        <v>0</v>
+      <c r="C204" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>704</v>
@@ -10175,8 +10136,8 @@
       <c r="B205" s="2">
         <v>1</v>
       </c>
-      <c r="C205" s="2" t="b">
-        <v>0</v>
+      <c r="C205" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>705</v>
@@ -10189,8 +10150,8 @@
       <c r="B206" s="2">
         <v>0</v>
       </c>
-      <c r="C206" s="2" t="b">
-        <v>0</v>
+      <c r="C206" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>704</v>
@@ -10203,8 +10164,8 @@
       <c r="B207" s="2">
         <v>1</v>
       </c>
-      <c r="C207" s="2" t="b">
-        <v>0</v>
+      <c r="C207" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>705</v>
@@ -10217,8 +10178,8 @@
       <c r="B208" s="2">
         <v>1</v>
       </c>
-      <c r="C208" s="2" t="b">
-        <v>0</v>
+      <c r="C208" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>718</v>
@@ -10231,8 +10192,8 @@
       <c r="B209" s="2">
         <v>2</v>
       </c>
-      <c r="C209" s="2" t="b">
-        <v>0</v>
+      <c r="C209" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>719</v>
@@ -10245,8 +10206,8 @@
       <c r="B210" s="2">
         <v>3</v>
       </c>
-      <c r="C210" s="2" t="b">
-        <v>0</v>
+      <c r="C210" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>720</v>
@@ -10259,8 +10220,8 @@
       <c r="B211" s="2">
         <v>4</v>
       </c>
-      <c r="C211" s="2" t="b">
-        <v>0</v>
+      <c r="C211" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>760</v>
@@ -10273,8 +10234,8 @@
       <c r="B212" s="2">
         <v>5</v>
       </c>
-      <c r="C212" s="2" t="b">
-        <v>0</v>
+      <c r="C212" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>761</v>
@@ -10287,8 +10248,8 @@
       <c r="B213" s="2">
         <v>0</v>
       </c>
-      <c r="C213" s="2" t="b">
-        <v>0</v>
+      <c r="C213" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>704</v>
@@ -10301,8 +10262,8 @@
       <c r="B214" s="2">
         <v>1</v>
       </c>
-      <c r="C214" s="2" t="b">
-        <v>0</v>
+      <c r="C214" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>705</v>
@@ -10315,8 +10276,8 @@
       <c r="B215" s="2">
         <v>0</v>
       </c>
-      <c r="C215" s="2" t="b">
-        <v>0</v>
+      <c r="C215" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>762</v>
@@ -10329,8 +10290,8 @@
       <c r="B216" s="2">
         <v>1</v>
       </c>
-      <c r="C216" s="2" t="b">
-        <v>0</v>
+      <c r="C216" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>763</v>
@@ -10343,8 +10304,8 @@
       <c r="B217" s="2">
         <v>1</v>
       </c>
-      <c r="C217" s="2" t="b">
-        <v>0</v>
+      <c r="C217" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>764</v>
@@ -10357,8 +10318,8 @@
       <c r="B218" s="2">
         <v>2</v>
       </c>
-      <c r="C218" s="2" t="b">
-        <v>0</v>
+      <c r="C218" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>765</v>
@@ -10371,8 +10332,8 @@
       <c r="B219" s="2">
         <v>3</v>
       </c>
-      <c r="C219" s="2" t="b">
-        <v>0</v>
+      <c r="C219" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>766</v>
@@ -10385,8 +10346,8 @@
       <c r="B220" s="2">
         <v>4</v>
       </c>
-      <c r="C220" s="2" t="b">
-        <v>0</v>
+      <c r="C220" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>767</v>
@@ -10399,8 +10360,8 @@
       <c r="B221" s="2">
         <v>5</v>
       </c>
-      <c r="C221" s="2" t="b">
-        <v>0</v>
+      <c r="C221" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>768</v>
@@ -10413,8 +10374,8 @@
       <c r="B222" s="2">
         <v>1</v>
       </c>
-      <c r="C222" s="2" t="b">
-        <v>0</v>
+      <c r="C222" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>769</v>
@@ -10427,8 +10388,8 @@
       <c r="B223" s="2">
         <v>2</v>
       </c>
-      <c r="C223" s="2" t="b">
-        <v>0</v>
+      <c r="C223" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>770</v>
@@ -10441,8 +10402,8 @@
       <c r="B224" s="2">
         <v>3</v>
       </c>
-      <c r="C224" s="2" t="b">
-        <v>0</v>
+      <c r="C224" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>771</v>
@@ -10455,8 +10416,8 @@
       <c r="B225" s="2">
         <v>4</v>
       </c>
-      <c r="C225" s="2" t="b">
-        <v>0</v>
+      <c r="C225" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>772</v>
@@ -10469,8 +10430,8 @@
       <c r="B226" s="2">
         <v>5</v>
       </c>
-      <c r="C226" s="2" t="b">
-        <v>0</v>
+      <c r="C226" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>773</v>
@@ -10483,8 +10444,8 @@
       <c r="B227" s="2">
         <v>0</v>
       </c>
-      <c r="C227" s="2" t="b">
-        <v>0</v>
+      <c r="C227" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>774</v>
@@ -10497,8 +10458,8 @@
       <c r="B228" s="2">
         <v>1</v>
       </c>
-      <c r="C228" s="2" t="b">
-        <v>0</v>
+      <c r="C228" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>775</v>
@@ -10511,8 +10472,8 @@
       <c r="B229" s="2">
         <v>2</v>
       </c>
-      <c r="C229" s="2" t="b">
-        <v>0</v>
+      <c r="C229" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>776</v>
@@ -10525,8 +10486,8 @@
       <c r="B230" s="2">
         <v>3</v>
       </c>
-      <c r="C230" s="2" t="b">
-        <v>0</v>
+      <c r="C230" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>777</v>
@@ -10539,8 +10500,8 @@
       <c r="B231" s="2">
         <v>4</v>
       </c>
-      <c r="C231" s="2" t="b">
-        <v>0</v>
+      <c r="C231" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>778</v>
@@ -10553,8 +10514,8 @@
       <c r="B232" s="2">
         <v>5</v>
       </c>
-      <c r="C232" s="2" t="b">
-        <v>0</v>
+      <c r="C232" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>779</v>
@@ -10567,8 +10528,8 @@
       <c r="B233" s="2">
         <v>6</v>
       </c>
-      <c r="C233" s="2" t="b">
-        <v>0</v>
+      <c r="C233" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>780</v>
@@ -10581,8 +10542,8 @@
       <c r="B234" s="2">
         <v>7</v>
       </c>
-      <c r="C234" s="2" t="b">
-        <v>0</v>
+      <c r="C234" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>781</v>
@@ -10595,8 +10556,8 @@
       <c r="B235" s="2">
         <v>8</v>
       </c>
-      <c r="C235" s="2" t="b">
-        <v>0</v>
+      <c r="C235" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>782</v>
@@ -10609,8 +10570,8 @@
       <c r="B236" s="2">
         <v>9</v>
       </c>
-      <c r="C236" s="2" t="b">
-        <v>0</v>
+      <c r="C236" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>783</v>
@@ -10623,8 +10584,8 @@
       <c r="B237" s="2">
         <v>0</v>
       </c>
-      <c r="C237" s="2" t="b">
-        <v>0</v>
+      <c r="C237" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>774</v>
@@ -10637,8 +10598,8 @@
       <c r="B238" s="2">
         <v>1</v>
       </c>
-      <c r="C238" s="2" t="b">
-        <v>0</v>
+      <c r="C238" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>775</v>
@@ -10651,8 +10612,8 @@
       <c r="B239" s="2">
         <v>2</v>
       </c>
-      <c r="C239" s="2" t="b">
-        <v>0</v>
+      <c r="C239" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>776</v>
@@ -10665,8 +10626,8 @@
       <c r="B240" s="2">
         <v>3</v>
       </c>
-      <c r="C240" s="2" t="b">
-        <v>0</v>
+      <c r="C240" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>777</v>
@@ -10679,8 +10640,8 @@
       <c r="B241" s="2">
         <v>4</v>
       </c>
-      <c r="C241" s="2" t="b">
-        <v>0</v>
+      <c r="C241" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>778</v>
@@ -10693,8 +10654,8 @@
       <c r="B242" s="2">
         <v>5</v>
       </c>
-      <c r="C242" s="2" t="b">
-        <v>0</v>
+      <c r="C242" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>779</v>
@@ -10707,8 +10668,8 @@
       <c r="B243" s="2">
         <v>6</v>
       </c>
-      <c r="C243" s="2" t="b">
-        <v>0</v>
+      <c r="C243" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>780</v>
@@ -10721,8 +10682,8 @@
       <c r="B244" s="2">
         <v>7</v>
       </c>
-      <c r="C244" s="2" t="b">
-        <v>0</v>
+      <c r="C244" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>781</v>
@@ -10735,8 +10696,8 @@
       <c r="B245" s="2">
         <v>8</v>
       </c>
-      <c r="C245" s="2" t="b">
-        <v>0</v>
+      <c r="C245" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>782</v>
@@ -10749,8 +10710,8 @@
       <c r="B246" s="2">
         <v>9</v>
       </c>
-      <c r="C246" s="2" t="b">
-        <v>0</v>
+      <c r="C246" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>783</v>
@@ -10763,8 +10724,8 @@
       <c r="B247" s="2">
         <v>1001</v>
       </c>
-      <c r="C247" s="2" t="b">
-        <v>0</v>
+      <c r="C247" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>784</v>
@@ -10777,8 +10738,8 @@
       <c r="B248" s="2">
         <v>1102</v>
       </c>
-      <c r="C248" s="2" t="b">
-        <v>0</v>
+      <c r="C248" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>785</v>
@@ -10791,8 +10752,8 @@
       <c r="B249" s="2">
         <v>1103</v>
       </c>
-      <c r="C249" s="2" t="b">
-        <v>0</v>
+      <c r="C249" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>786</v>
@@ -10805,8 +10766,8 @@
       <c r="B250" s="2">
         <v>1104</v>
       </c>
-      <c r="C250" s="2" t="b">
-        <v>0</v>
+      <c r="C250" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>787</v>
@@ -10819,8 +10780,8 @@
       <c r="B251" s="2">
         <v>1201</v>
       </c>
-      <c r="C251" s="2" t="b">
-        <v>0</v>
+      <c r="C251" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>788</v>
@@ -10833,8 +10794,8 @@
       <c r="B252" s="2">
         <v>1202</v>
       </c>
-      <c r="C252" s="2" t="b">
-        <v>0</v>
+      <c r="C252" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>789</v>
@@ -10847,8 +10808,8 @@
       <c r="B253" s="2">
         <v>1203</v>
       </c>
-      <c r="C253" s="2" t="b">
-        <v>0</v>
+      <c r="C253" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>790</v>
@@ -10861,8 +10822,8 @@
       <c r="B254" s="2">
         <v>1301</v>
       </c>
-      <c r="C254" s="2" t="b">
-        <v>0</v>
+      <c r="C254" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>791</v>
@@ -10875,8 +10836,8 @@
       <c r="B255" s="2">
         <v>1401</v>
       </c>
-      <c r="C255" s="2" t="b">
-        <v>0</v>
+      <c r="C255" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>792</v>
@@ -10889,8 +10850,8 @@
       <c r="B256" s="2">
         <v>1501</v>
       </c>
-      <c r="C256" s="2" t="b">
-        <v>0</v>
+      <c r="C256" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>793</v>
@@ -10903,8 +10864,8 @@
       <c r="B257" s="2">
         <v>1601</v>
       </c>
-      <c r="C257" s="2" t="b">
-        <v>0</v>
+      <c r="C257" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>794</v>
@@ -10917,8 +10878,8 @@
       <c r="B258" s="2">
         <v>1701</v>
       </c>
-      <c r="C258" s="2" t="b">
-        <v>0</v>
+      <c r="C258" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>795</v>
@@ -10931,8 +10892,8 @@
       <c r="B259" s="2">
         <v>1801</v>
       </c>
-      <c r="C259" s="2" t="b">
-        <v>0</v>
+      <c r="C259" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>796</v>
@@ -10945,8 +10906,8 @@
       <c r="B260" s="2">
         <v>1802</v>
       </c>
-      <c r="C260" s="2" t="b">
-        <v>0</v>
+      <c r="C260" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>797</v>
@@ -10959,8 +10920,8 @@
       <c r="B261" s="2">
         <v>1901</v>
       </c>
-      <c r="C261" s="2" t="b">
-        <v>0</v>
+      <c r="C261" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>798</v>
@@ -10973,8 +10934,8 @@
       <c r="B262" s="2">
         <v>2001</v>
       </c>
-      <c r="C262" s="2" t="b">
-        <v>0</v>
+      <c r="C262" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>799</v>
@@ -10987,8 +10948,8 @@
       <c r="B263" s="2">
         <v>1</v>
       </c>
-      <c r="C263" s="2" t="b">
-        <v>0</v>
+      <c r="C263" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>705</v>
@@ -11001,8 +10962,8 @@
       <c r="B264" s="2">
         <v>0</v>
       </c>
-      <c r="C264" s="2" t="b">
-        <v>0</v>
+      <c r="C264" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>704</v>
@@ -11015,8 +10976,8 @@
       <c r="B265" s="2">
         <v>1</v>
       </c>
-      <c r="C265" s="2" t="b">
-        <v>0</v>
+      <c r="C265" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>705</v>
@@ -11029,8 +10990,8 @@
       <c r="B266" s="2">
         <v>0</v>
       </c>
-      <c r="C266" s="2" t="b">
-        <v>0</v>
+      <c r="C266" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>704</v>
@@ -11043,8 +11004,8 @@
       <c r="B267" s="2">
         <v>1</v>
       </c>
-      <c r="C267" s="2" t="b">
-        <v>0</v>
+      <c r="C267" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>800</v>
@@ -11057,8 +11018,8 @@
       <c r="B268" s="2">
         <v>2</v>
       </c>
-      <c r="C268" s="2" t="b">
-        <v>0</v>
+      <c r="C268" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>801</v>
@@ -11071,8 +11032,8 @@
       <c r="B269" s="2">
         <v>3</v>
       </c>
-      <c r="C269" s="2" t="b">
-        <v>0</v>
+      <c r="C269" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>802</v>
@@ -11085,8 +11046,8 @@
       <c r="B270" s="2">
         <v>4</v>
       </c>
-      <c r="C270" s="2" t="b">
-        <v>0</v>
+      <c r="C270" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>803</v>
@@ -11099,8 +11060,8 @@
       <c r="B271" s="2">
         <v>5</v>
       </c>
-      <c r="C271" s="2" t="b">
-        <v>0</v>
+      <c r="C271" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>804</v>
@@ -11113,8 +11074,8 @@
       <c r="B272" s="2">
         <v>6</v>
       </c>
-      <c r="C272" s="2" t="b">
-        <v>0</v>
+      <c r="C272" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>805</v>
@@ -11127,8 +11088,8 @@
       <c r="B273" s="2">
         <v>1</v>
       </c>
-      <c r="C273" s="2" t="b">
-        <v>0</v>
+      <c r="C273" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>806</v>
@@ -11141,8 +11102,8 @@
       <c r="B274" s="2">
         <v>2</v>
       </c>
-      <c r="C274" s="2" t="b">
-        <v>0</v>
+      <c r="C274" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>802</v>
@@ -11155,8 +11116,8 @@
       <c r="B275" s="2">
         <v>3</v>
       </c>
-      <c r="C275" s="2" t="b">
-        <v>0</v>
+      <c r="C275" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>803</v>
@@ -11169,8 +11130,8 @@
       <c r="B276" s="2">
         <v>4</v>
       </c>
-      <c r="C276" s="2" t="b">
-        <v>0</v>
+      <c r="C276" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>804</v>
@@ -11183,8 +11144,8 @@
       <c r="B277" s="2">
         <v>5</v>
       </c>
-      <c r="C277" s="2" t="b">
-        <v>0</v>
+      <c r="C277" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>807</v>
@@ -11197,8 +11158,8 @@
       <c r="B278" s="2">
         <v>6</v>
       </c>
-      <c r="C278" s="2" t="b">
-        <v>0</v>
+      <c r="C278" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>808</v>
@@ -11211,8 +11172,8 @@
       <c r="B279" s="2">
         <v>1</v>
       </c>
-      <c r="C279" s="2" t="b">
-        <v>0</v>
+      <c r="C279" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>809</v>
@@ -11225,8 +11186,8 @@
       <c r="B280" s="2">
         <v>2</v>
       </c>
-      <c r="C280" s="2" t="b">
-        <v>0</v>
+      <c r="C280" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>810</v>
@@ -11239,8 +11200,8 @@
       <c r="B281" s="2">
         <v>3</v>
       </c>
-      <c r="C281" s="2" t="b">
-        <v>0</v>
+      <c r="C281" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>811</v>
@@ -11253,8 +11214,8 @@
       <c r="B282" s="2">
         <v>1</v>
       </c>
-      <c r="C282" s="2" t="b">
-        <v>0</v>
+      <c r="C282" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>809</v>
@@ -11267,8 +11228,8 @@
       <c r="B283" s="2">
         <v>2</v>
       </c>
-      <c r="C283" s="2" t="b">
-        <v>0</v>
+      <c r="C283" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>812</v>
@@ -11281,8 +11242,8 @@
       <c r="B284" s="2">
         <v>3</v>
       </c>
-      <c r="C284" s="2" t="b">
-        <v>0</v>
+      <c r="C284" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>810</v>
@@ -11295,8 +11256,8 @@
       <c r="B285" s="2">
         <v>4</v>
       </c>
-      <c r="C285" s="2" t="b">
-        <v>0</v>
+      <c r="C285" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>813</v>
@@ -11309,8 +11270,8 @@
       <c r="B286" s="2">
         <v>5</v>
       </c>
-      <c r="C286" s="2" t="b">
-        <v>0</v>
+      <c r="C286" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>811</v>
@@ -11323,8 +11284,8 @@
       <c r="B287" s="2">
         <v>1</v>
       </c>
-      <c r="C287" s="2" t="b">
-        <v>0</v>
+      <c r="C287" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>814</v>
@@ -11337,8 +11298,8 @@
       <c r="B288" s="2">
         <v>2</v>
       </c>
-      <c r="C288" s="2" t="b">
-        <v>0</v>
+      <c r="C288" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>815</v>
@@ -11351,8 +11312,8 @@
       <c r="B289" s="2">
         <v>3</v>
       </c>
-      <c r="C289" s="2" t="b">
-        <v>0</v>
+      <c r="C289" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>816</v>
@@ -11365,8 +11326,8 @@
       <c r="B290" s="2">
         <v>1</v>
       </c>
-      <c r="C290" s="2" t="b">
-        <v>0</v>
+      <c r="C290" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>814</v>
@@ -11379,8 +11340,8 @@
       <c r="B291" s="2">
         <v>2</v>
       </c>
-      <c r="C291" s="2" t="b">
-        <v>0</v>
+      <c r="C291" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>815</v>
@@ -11393,8 +11354,8 @@
       <c r="B292" s="2">
         <v>3</v>
       </c>
-      <c r="C292" s="2" t="b">
-        <v>0</v>
+      <c r="C292" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>816</v>
@@ -11407,8 +11368,8 @@
       <c r="B293" s="2">
         <v>1</v>
       </c>
-      <c r="C293" s="2" t="b">
-        <v>0</v>
+      <c r="C293" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>814</v>
@@ -11421,8 +11382,8 @@
       <c r="B294" s="2">
         <v>2</v>
       </c>
-      <c r="C294" s="2" t="b">
-        <v>0</v>
+      <c r="C294" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>815</v>
@@ -11435,8 +11396,8 @@
       <c r="B295" s="2">
         <v>3</v>
       </c>
-      <c r="C295" s="2" t="b">
-        <v>0</v>
+      <c r="C295" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>816</v>
@@ -11449,8 +11410,8 @@
       <c r="B296" s="2">
         <v>0</v>
       </c>
-      <c r="C296" s="2" t="b">
-        <v>0</v>
+      <c r="C296" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>695</v>
@@ -11463,8 +11424,8 @@
       <c r="B297" s="2">
         <v>1</v>
       </c>
-      <c r="C297" s="2" t="b">
-        <v>0</v>
+      <c r="C297" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>696</v>
@@ -11477,8 +11438,8 @@
       <c r="B298" s="2">
         <v>0</v>
       </c>
-      <c r="C298" s="2" t="b">
-        <v>0</v>
+      <c r="C298" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>695</v>
@@ -11491,8 +11452,8 @@
       <c r="B299" s="2">
         <v>1</v>
       </c>
-      <c r="C299" s="2" t="b">
-        <v>0</v>
+      <c r="C299" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>696</v>
@@ -11505,8 +11466,8 @@
       <c r="B300" s="2">
         <v>0</v>
       </c>
-      <c r="C300" s="2" t="b">
-        <v>0</v>
+      <c r="C300" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>695</v>
@@ -11519,8 +11480,8 @@
       <c r="B301" s="2">
         <v>1</v>
       </c>
-      <c r="C301" s="2" t="b">
-        <v>0</v>
+      <c r="C301" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>696</v>

--- a/R/data/dictionaries/core/1_1/1_1_non_repeated.xlsx
+++ b/R/data/dictionaries/core/1_1/1_1_non_repeated.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/R/data/dictionaries/core/1_1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474B4FF0-F4F7-4746-836B-5022AC0F1699}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="16164" windowHeight="10236" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="817">
   <si>
     <t>name</t>
   </si>
@@ -2466,15 +2472,12 @@
   </si>
   <si>
     <t>Other</t>
-  </si>
-  <si>
-    <t>FALSE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="10"/>
@@ -2549,8 +2552,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1"/>
-    <cellStyle name="Normal 4" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2566,7 +2569,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2608,7 +2611,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2640,9 +2643,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2674,6 +2695,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2849,20 +2888,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D313"/>
   <sheetViews>
     <sheetView topLeftCell="A283" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="197.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.77734375" style="1"/>
+    <col min="4" max="4" width="197.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
@@ -7256,21 +7295,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A282" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C301"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.77734375" style="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
@@ -7294,8 +7333,8 @@
       <c r="B2" s="2">
         <v>101</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>817</v>
+      <c r="C2" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>654</v>
@@ -7308,8 +7347,8 @@
       <c r="B3" s="2">
         <v>102</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>817</v>
+      <c r="C3" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>655</v>
@@ -7322,8 +7361,8 @@
       <c r="B4" s="2">
         <v>103</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>817</v>
+      <c r="C4" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>656</v>
@@ -7336,8 +7375,8 @@
       <c r="B5" s="2">
         <v>104</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>817</v>
+      <c r="C5" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>657</v>
@@ -7350,8 +7389,8 @@
       <c r="B6" s="2">
         <v>105</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>817</v>
+      <c r="C6" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>658</v>
@@ -7364,8 +7403,8 @@
       <c r="B7" s="2">
         <v>106</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>817</v>
+      <c r="C7" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>659</v>
@@ -7378,8 +7417,8 @@
       <c r="B8" s="2">
         <v>107</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>817</v>
+      <c r="C8" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>660</v>
@@ -7392,8 +7431,8 @@
       <c r="B9" s="2">
         <v>108</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>817</v>
+      <c r="C9" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>661</v>
@@ -7406,8 +7445,8 @@
       <c r="B10" s="2">
         <v>109</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>817</v>
+      <c r="C10" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>662</v>
@@ -7420,8 +7459,8 @@
       <c r="B11" s="2">
         <v>110</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>817</v>
+      <c r="C11" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>663</v>
@@ -7434,8 +7473,8 @@
       <c r="B12" s="2">
         <v>111</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>817</v>
+      <c r="C12" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>664</v>
@@ -7448,8 +7487,8 @@
       <c r="B13" s="2">
         <v>112</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>817</v>
+      <c r="C13" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>665</v>
@@ -7462,8 +7501,8 @@
       <c r="B14" s="2">
         <v>113</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>817</v>
+      <c r="C14" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>666</v>
@@ -7476,8 +7515,8 @@
       <c r="B15" s="2">
         <v>114</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>817</v>
+      <c r="C15" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>667</v>
@@ -7490,8 +7529,8 @@
       <c r="B16" s="2">
         <v>115</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>817</v>
+      <c r="C16" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>668</v>
@@ -7504,8 +7543,8 @@
       <c r="B17" s="2">
         <v>116</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>817</v>
+      <c r="C17" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>669</v>
@@ -7518,8 +7557,8 @@
       <c r="B18" s="2">
         <v>117</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>817</v>
+      <c r="C18" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>670</v>
@@ -7532,8 +7571,8 @@
       <c r="B19" s="2">
         <v>118</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>817</v>
+      <c r="C19" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>671</v>
@@ -7546,8 +7585,8 @@
       <c r="B20" s="2">
         <v>119</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>817</v>
+      <c r="C20" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>672</v>
@@ -7560,8 +7599,8 @@
       <c r="B21" s="2">
         <v>120</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>817</v>
+      <c r="C21" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>673</v>
@@ -7574,8 +7613,8 @@
       <c r="B22" s="2">
         <v>121</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>817</v>
+      <c r="C22" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>674</v>
@@ -7588,8 +7627,8 @@
       <c r="B23" s="2">
         <v>122</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>817</v>
+      <c r="C23" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>675</v>
@@ -7602,8 +7641,8 @@
       <c r="B24" s="2">
         <v>36</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>817</v>
+      <c r="C24" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>676</v>
@@ -7616,8 +7655,8 @@
       <c r="B25" s="2">
         <v>208</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>817</v>
+      <c r="C25" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>677</v>
@@ -7630,8 +7669,8 @@
       <c r="B26" s="2">
         <v>246</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>817</v>
+      <c r="C26" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>678</v>
@@ -7644,8 +7683,8 @@
       <c r="B27" s="2">
         <v>250</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>817</v>
+      <c r="C27" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>679</v>
@@ -7658,8 +7697,8 @@
       <c r="B28" s="2">
         <v>276</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>817</v>
+      <c r="C28" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>680</v>
@@ -7672,8 +7711,8 @@
       <c r="B29" s="2">
         <v>300</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>817</v>
+      <c r="C29" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>681</v>
@@ -7686,8 +7725,8 @@
       <c r="B30" s="2">
         <v>380</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>817</v>
+      <c r="C30" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>682</v>
@@ -7700,8 +7739,8 @@
       <c r="B31" s="2">
         <v>528</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>817</v>
+      <c r="C31" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>683</v>
@@ -7714,8 +7753,8 @@
       <c r="B32" s="2">
         <v>578</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>817</v>
+      <c r="C32" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>684</v>
@@ -7728,8 +7767,8 @@
       <c r="B33" s="2">
         <v>724</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>817</v>
+      <c r="C33" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>685</v>
@@ -7742,8 +7781,8 @@
       <c r="B34" s="2">
         <v>826</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>817</v>
+      <c r="C34" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>686</v>
@@ -7756,8 +7795,8 @@
       <c r="B35" s="2">
         <v>0</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>817</v>
+      <c r="C35" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>687</v>
@@ -7770,8 +7809,8 @@
       <c r="B36" s="2">
         <v>1</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>817</v>
+      <c r="C36" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>688</v>
@@ -7784,8 +7823,8 @@
       <c r="B37" s="2">
         <v>2</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>817</v>
+      <c r="C37" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>689</v>
@@ -7798,8 +7837,8 @@
       <c r="B38" s="2">
         <v>1</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>817</v>
+      <c r="C38" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>690</v>
@@ -7812,8 +7851,8 @@
       <c r="B39" s="2">
         <v>2</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>817</v>
+      <c r="C39" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>691</v>
@@ -7826,8 +7865,8 @@
       <c r="B40" s="2">
         <v>3</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>817</v>
+      <c r="C40" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>692</v>
@@ -7840,8 +7879,8 @@
       <c r="B41" s="2">
         <v>1</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>817</v>
+      <c r="C41" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>693</v>
@@ -7854,8 +7893,8 @@
       <c r="B42" s="2">
         <v>2</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>817</v>
+      <c r="C42" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>694</v>
@@ -7868,8 +7907,8 @@
       <c r="B43" s="2">
         <v>3</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>817</v>
+      <c r="C43" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>692</v>
@@ -7882,8 +7921,8 @@
       <c r="B44" s="2">
         <v>1</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>817</v>
+      <c r="C44" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>690</v>
@@ -7896,8 +7935,8 @@
       <c r="B45" s="2">
         <v>2</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>817</v>
+      <c r="C45" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>691</v>
@@ -7910,8 +7949,8 @@
       <c r="B46" s="2">
         <v>3</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>817</v>
+      <c r="C46" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>692</v>
@@ -7924,8 +7963,8 @@
       <c r="B47" s="2">
         <v>0</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>817</v>
+      <c r="C47" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>695</v>
@@ -7938,8 +7977,8 @@
       <c r="B48" s="2">
         <v>1</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>817</v>
+      <c r="C48" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>696</v>
@@ -7952,8 +7991,8 @@
       <c r="B49" s="2">
         <v>0</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>817</v>
+      <c r="C49" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>697</v>
@@ -7966,8 +8005,8 @@
       <c r="B50" s="2">
         <v>1</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>817</v>
+      <c r="C50" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>698</v>
@@ -7980,8 +8019,8 @@
       <c r="B51" s="2">
         <v>0</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>817</v>
+      <c r="C51" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>697</v>
@@ -7994,8 +8033,8 @@
       <c r="B52" s="2">
         <v>1</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>817</v>
+      <c r="C52" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>698</v>
@@ -8008,8 +8047,8 @@
       <c r="B53" s="2">
         <v>0</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>817</v>
+      <c r="C53" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>697</v>
@@ -8022,8 +8061,8 @@
       <c r="B54" s="2">
         <v>1</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>817</v>
+      <c r="C54" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>698</v>
@@ -8036,8 +8075,8 @@
       <c r="B55" s="2">
         <v>2</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>817</v>
+      <c r="C55" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>699</v>
@@ -8050,8 +8089,8 @@
       <c r="B56" s="2">
         <v>3</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>817</v>
+      <c r="C56" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>700</v>
@@ -8064,8 +8103,8 @@
       <c r="B57" s="2">
         <v>0</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>817</v>
+      <c r="C57" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>697</v>
@@ -8078,8 +8117,8 @@
       <c r="B58" s="2">
         <v>1</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>817</v>
+      <c r="C58" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>698</v>
@@ -8092,8 +8131,8 @@
       <c r="B59" s="2">
         <v>1</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>817</v>
+      <c r="C59" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>695</v>
@@ -8106,8 +8145,8 @@
       <c r="B60" s="2">
         <v>2</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>817</v>
+      <c r="C60" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>701</v>
@@ -8120,8 +8159,8 @@
       <c r="B61" s="2">
         <v>3</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>817</v>
+      <c r="C61" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>702</v>
@@ -8134,8 +8173,8 @@
       <c r="B62" s="2">
         <v>4</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>817</v>
+      <c r="C62" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>380</v>
@@ -8148,8 +8187,8 @@
       <c r="B63" s="2">
         <v>5</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>817</v>
+      <c r="C63" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>703</v>
@@ -8162,8 +8201,8 @@
       <c r="B64" s="2">
         <v>0</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>817</v>
+      <c r="C64" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>704</v>
@@ -8176,8 +8215,8 @@
       <c r="B65" s="2">
         <v>1</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>817</v>
+      <c r="C65" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>705</v>
@@ -8190,8 +8229,8 @@
       <c r="B66" s="2">
         <v>0</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>817</v>
+      <c r="C66" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>704</v>
@@ -8204,8 +8243,8 @@
       <c r="B67" s="2">
         <v>1</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>817</v>
+      <c r="C67" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>705</v>
@@ -8218,8 +8257,8 @@
       <c r="B68" s="2">
         <v>0</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>817</v>
+      <c r="C68" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>704</v>
@@ -8232,8 +8271,8 @@
       <c r="B69" s="2">
         <v>1</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>817</v>
+      <c r="C69" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>705</v>
@@ -8246,8 +8285,8 @@
       <c r="B70" s="2">
         <v>0</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>817</v>
+      <c r="C70" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>704</v>
@@ -8260,8 +8299,8 @@
       <c r="B71" s="2">
         <v>1</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>817</v>
+      <c r="C71" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>705</v>
@@ -8274,8 +8313,8 @@
       <c r="B72" s="2">
         <v>0</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>817</v>
+      <c r="C72" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>704</v>
@@ -8288,8 +8327,8 @@
       <c r="B73" s="2">
         <v>1</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>817</v>
+      <c r="C73" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>705</v>
@@ -8302,8 +8341,8 @@
       <c r="B74" s="2">
         <v>0</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>817</v>
+      <c r="C74" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>704</v>
@@ -8316,8 +8355,8 @@
       <c r="B75" s="2">
         <v>1</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>817</v>
+      <c r="C75" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>705</v>
@@ -8330,8 +8369,8 @@
       <c r="B76" s="2">
         <v>0</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>817</v>
+      <c r="C76" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>704</v>
@@ -8344,8 +8383,8 @@
       <c r="B77" s="2">
         <v>1</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>817</v>
+      <c r="C77" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>705</v>
@@ -8358,8 +8397,8 @@
       <c r="B78" s="2">
         <v>0</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>817</v>
+      <c r="C78" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>704</v>
@@ -8372,8 +8411,8 @@
       <c r="B79" s="2">
         <v>1</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>817</v>
+      <c r="C79" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>705</v>
@@ -8386,8 +8425,8 @@
       <c r="B80" s="2">
         <v>0</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>817</v>
+      <c r="C80" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>704</v>
@@ -8400,8 +8439,8 @@
       <c r="B81" s="2">
         <v>1</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>817</v>
+      <c r="C81" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>705</v>
@@ -8414,8 +8453,8 @@
       <c r="B82" s="2">
         <v>0</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>817</v>
+      <c r="C82" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>704</v>
@@ -8428,8 +8467,8 @@
       <c r="B83" s="2">
         <v>1</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>817</v>
+      <c r="C83" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>705</v>
@@ -8442,8 +8481,8 @@
       <c r="B84" s="2">
         <v>0</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>817</v>
+      <c r="C84" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>706</v>
@@ -8456,8 +8495,8 @@
       <c r="B85" s="2">
         <v>1</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>817</v>
+      <c r="C85" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>707</v>
@@ -8470,8 +8509,8 @@
       <c r="B86" s="2">
         <v>2</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>817</v>
+      <c r="C86" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>708</v>
@@ -8484,8 +8523,8 @@
       <c r="B87" s="2">
         <v>0</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>817</v>
+      <c r="C87" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>704</v>
@@ -8498,8 +8537,8 @@
       <c r="B88" s="2">
         <v>1</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>817</v>
+      <c r="C88" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>705</v>
@@ -8512,8 +8551,8 @@
       <c r="B89" s="2">
         <v>0</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>817</v>
+      <c r="C89" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>706</v>
@@ -8526,8 +8565,8 @@
       <c r="B90" s="2">
         <v>1</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>817</v>
+      <c r="C90" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>707</v>
@@ -8540,8 +8579,8 @@
       <c r="B91" s="2">
         <v>2</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>817</v>
+      <c r="C91" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>708</v>
@@ -8554,8 +8593,8 @@
       <c r="B92" s="2">
         <v>0</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>817</v>
+      <c r="C92" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>704</v>
@@ -8568,8 +8607,8 @@
       <c r="B93" s="2">
         <v>1</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>817</v>
+      <c r="C93" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>705</v>
@@ -8582,8 +8621,8 @@
       <c r="B94" s="2">
         <v>0</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>817</v>
+      <c r="C94" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>709</v>
@@ -8596,8 +8635,8 @@
       <c r="B95" s="2">
         <v>1</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>817</v>
+      <c r="C95" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>710</v>
@@ -8610,8 +8649,8 @@
       <c r="B96" s="2">
         <v>2</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>817</v>
+      <c r="C96" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>711</v>
@@ -8624,8 +8663,8 @@
       <c r="B97" s="2">
         <v>3</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>817</v>
+      <c r="C97" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>712</v>
@@ -8638,8 +8677,8 @@
       <c r="B98" s="2">
         <v>4</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>817</v>
+      <c r="C98" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>713</v>
@@ -8652,8 +8691,8 @@
       <c r="B99" s="2">
         <v>0</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>817</v>
+      <c r="C99" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>704</v>
@@ -8666,8 +8705,8 @@
       <c r="B100" s="2">
         <v>1</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>817</v>
+      <c r="C100" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>705</v>
@@ -8680,8 +8719,8 @@
       <c r="B101" s="2">
         <v>0</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>817</v>
+      <c r="C101" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>706</v>
@@ -8694,8 +8733,8 @@
       <c r="B102" s="2">
         <v>1</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>817</v>
+      <c r="C102" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>714</v>
@@ -8708,8 +8747,8 @@
       <c r="B103" s="2">
         <v>2</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>817</v>
+      <c r="C103" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>715</v>
@@ -8722,8 +8761,8 @@
       <c r="B104" s="2">
         <v>3</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>817</v>
+      <c r="C104" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>716</v>
@@ -8736,8 +8775,8 @@
       <c r="B105" s="2">
         <v>0</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>817</v>
+      <c r="C105" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>704</v>
@@ -8750,8 +8789,8 @@
       <c r="B106" s="2">
         <v>1</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>817</v>
+      <c r="C106" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>705</v>
@@ -8764,8 +8803,8 @@
       <c r="B107" s="2">
         <v>0</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>817</v>
+      <c r="C107" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>704</v>
@@ -8778,8 +8817,8 @@
       <c r="B108" s="2">
         <v>1</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>817</v>
+      <c r="C108" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>705</v>
@@ -8792,8 +8831,8 @@
       <c r="B109" s="2">
         <v>0</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>817</v>
+      <c r="C109" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>704</v>
@@ -8806,8 +8845,8 @@
       <c r="B110" s="2">
         <v>1</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>817</v>
+      <c r="C110" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>705</v>
@@ -8820,8 +8859,8 @@
       <c r="B111" s="2">
         <v>0</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>817</v>
+      <c r="C111" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>717</v>
@@ -8834,8 +8873,8 @@
       <c r="B112" s="2">
         <v>1</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>817</v>
+      <c r="C112" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>718</v>
@@ -8848,8 +8887,8 @@
       <c r="B113" s="2">
         <v>2</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>817</v>
+      <c r="C113" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>719</v>
@@ -8862,8 +8901,8 @@
       <c r="B114" s="2">
         <v>3</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>817</v>
+      <c r="C114" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>720</v>
@@ -8876,8 +8915,8 @@
       <c r="B115" s="2">
         <v>4</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>817</v>
+      <c r="C115" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>721</v>
@@ -8890,8 +8929,8 @@
       <c r="B116" s="2">
         <v>1</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>817</v>
+      <c r="C116" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>722</v>
@@ -8904,8 +8943,8 @@
       <c r="B117" s="2">
         <v>2</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>817</v>
+      <c r="C117" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>723</v>
@@ -8918,8 +8957,8 @@
       <c r="B118" s="2">
         <v>0</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>817</v>
+      <c r="C118" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>704</v>
@@ -8932,8 +8971,8 @@
       <c r="B119" s="2">
         <v>1</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>817</v>
+      <c r="C119" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>705</v>
@@ -8946,8 +8985,8 @@
       <c r="B120" s="2">
         <v>0</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>817</v>
+      <c r="C120" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>704</v>
@@ -8960,8 +8999,8 @@
       <c r="B121" s="2">
         <v>1</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>817</v>
+      <c r="C121" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>705</v>
@@ -8974,8 +9013,8 @@
       <c r="B122" s="2">
         <v>1</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>817</v>
+      <c r="C122" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>724</v>
@@ -8988,8 +9027,8 @@
       <c r="B123" s="2">
         <v>2</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>817</v>
+      <c r="C123" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>725</v>
@@ -9002,8 +9041,8 @@
       <c r="B124" s="2">
         <v>3</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>817</v>
+      <c r="C124" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>726</v>
@@ -9016,8 +9055,8 @@
       <c r="B125" s="2">
         <v>4</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>817</v>
+      <c r="C125" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>727</v>
@@ -9030,8 +9069,8 @@
       <c r="B126" s="2">
         <v>5</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>817</v>
+      <c r="C126" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>728</v>
@@ -9044,8 +9083,8 @@
       <c r="B127" s="2">
         <v>6</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>817</v>
+      <c r="C127" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>729</v>
@@ -9058,8 +9097,8 @@
       <c r="B128" s="2">
         <v>1</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>817</v>
+      <c r="C128" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>730</v>
@@ -9072,8 +9111,8 @@
       <c r="B129" s="2">
         <v>2</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>817</v>
+      <c r="C129" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>731</v>
@@ -9086,8 +9125,8 @@
       <c r="B130" s="2">
         <v>3</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>817</v>
+      <c r="C130" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>732</v>
@@ -9100,8 +9139,8 @@
       <c r="B131" s="2">
         <v>4</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>817</v>
+      <c r="C131" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>733</v>
@@ -9114,8 +9153,8 @@
       <c r="B132" s="2">
         <v>5</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>817</v>
+      <c r="C132" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>734</v>
@@ -9128,8 +9167,8 @@
       <c r="B133" s="2">
         <v>0</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>817</v>
+      <c r="C133" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>704</v>
@@ -9142,8 +9181,8 @@
       <c r="B134" s="2">
         <v>1</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>817</v>
+      <c r="C134" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>705</v>
@@ -9156,8 +9195,8 @@
       <c r="B135" s="2">
         <v>0</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>817</v>
+      <c r="C135" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>687</v>
@@ -9170,8 +9209,8 @@
       <c r="B136" s="2">
         <v>1</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>817</v>
+      <c r="C136" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>688</v>
@@ -9184,8 +9223,8 @@
       <c r="B137" s="2">
         <v>2</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>817</v>
+      <c r="C137" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>689</v>
@@ -9198,8 +9237,8 @@
       <c r="B138" s="2">
         <v>1</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>817</v>
+      <c r="C138" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>735</v>
@@ -9212,8 +9251,8 @@
       <c r="B139" s="2">
         <v>2</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>817</v>
+      <c r="C139" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>736</v>
@@ -9226,8 +9265,8 @@
       <c r="B140" s="2">
         <v>3</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>817</v>
+      <c r="C140" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>737</v>
@@ -9240,8 +9279,8 @@
       <c r="B141" s="2">
         <v>4</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>817</v>
+      <c r="C141" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>738</v>
@@ -9254,8 +9293,8 @@
       <c r="B142" s="2">
         <v>1</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>817</v>
+      <c r="C142" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>739</v>
@@ -9268,8 +9307,8 @@
       <c r="B143" s="2">
         <v>2</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>817</v>
+      <c r="C143" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>740</v>
@@ -9282,8 +9321,8 @@
       <c r="B144" s="2">
         <v>3</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>817</v>
+      <c r="C144" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>741</v>
@@ -9296,8 +9335,8 @@
       <c r="B145" s="2">
         <v>1</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>817</v>
+      <c r="C145" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>742</v>
@@ -9310,8 +9349,8 @@
       <c r="B146" s="2">
         <v>2</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>817</v>
+      <c r="C146" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>743</v>
@@ -9324,8 +9363,8 @@
       <c r="B147" s="2">
         <v>3</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>817</v>
+      <c r="C147" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>741</v>
@@ -9338,8 +9377,8 @@
       <c r="B148" s="2">
         <v>1</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>817</v>
+      <c r="C148" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>739</v>
@@ -9352,8 +9391,8 @@
       <c r="B149" s="2">
         <v>2</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>817</v>
+      <c r="C149" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>740</v>
@@ -9366,8 +9405,8 @@
       <c r="B150" s="2">
         <v>3</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>817</v>
+      <c r="C150" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>741</v>
@@ -9380,8 +9419,8 @@
       <c r="B151" s="2">
         <v>1</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>817</v>
+      <c r="C151" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>735</v>
@@ -9394,8 +9433,8 @@
       <c r="B152" s="2">
         <v>2</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>817</v>
+      <c r="C152" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>736</v>
@@ -9408,8 +9447,8 @@
       <c r="B153" s="2">
         <v>3</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>817</v>
+      <c r="C153" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>737</v>
@@ -9422,8 +9461,8 @@
       <c r="B154" s="2">
         <v>4</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>817</v>
+      <c r="C154" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>738</v>
@@ -9436,8 +9475,8 @@
       <c r="B155" s="2">
         <v>0</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>817</v>
+      <c r="C155" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>704</v>
@@ -9450,8 +9489,8 @@
       <c r="B156" s="2">
         <v>1</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>817</v>
+      <c r="C156" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>705</v>
@@ -9464,8 +9503,8 @@
       <c r="B157" s="2">
         <v>1</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>817</v>
+      <c r="C157" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>735</v>
@@ -9478,8 +9517,8 @@
       <c r="B158" s="2">
         <v>2</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>817</v>
+      <c r="C158" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>736</v>
@@ -9492,8 +9531,8 @@
       <c r="B159" s="2">
         <v>3</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>817</v>
+      <c r="C159" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>737</v>
@@ -9506,8 +9545,8 @@
       <c r="B160" s="2">
         <v>4</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>817</v>
+      <c r="C160" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>738</v>
@@ -9520,8 +9559,8 @@
       <c r="B161" s="2">
         <v>0</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>817</v>
+      <c r="C161" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>744</v>
@@ -9534,8 +9573,8 @@
       <c r="B162" s="2">
         <v>1</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>817</v>
+      <c r="C162" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>745</v>
@@ -9548,8 +9587,8 @@
       <c r="B163" s="2">
         <v>2</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>817</v>
+      <c r="C163" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>746</v>
@@ -9562,8 +9601,8 @@
       <c r="B164" s="2">
         <v>1</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>817</v>
+      <c r="C164" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>735</v>
@@ -9576,8 +9615,8 @@
       <c r="B165" s="2">
         <v>2</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>817</v>
+      <c r="C165" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>736</v>
@@ -9590,8 +9629,8 @@
       <c r="B166" s="2">
         <v>3</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>817</v>
+      <c r="C166" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>737</v>
@@ -9604,8 +9643,8 @@
       <c r="B167" s="2">
         <v>4</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>817</v>
+      <c r="C167" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>738</v>
@@ -9618,8 +9657,8 @@
       <c r="B168" s="2">
         <v>0</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>817</v>
+      <c r="C168" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>744</v>
@@ -9632,8 +9671,8 @@
       <c r="B169" s="2">
         <v>1</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>817</v>
+      <c r="C169" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>745</v>
@@ -9646,8 +9685,8 @@
       <c r="B170" s="2">
         <v>2</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>817</v>
+      <c r="C170" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>746</v>
@@ -9660,8 +9699,8 @@
       <c r="B171" s="2">
         <v>1</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>817</v>
+      <c r="C171" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>735</v>
@@ -9674,8 +9713,8 @@
       <c r="B172" s="2">
         <v>2</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>817</v>
+      <c r="C172" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>736</v>
@@ -9688,8 +9727,8 @@
       <c r="B173" s="2">
         <v>3</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>817</v>
+      <c r="C173" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>737</v>
@@ -9702,8 +9741,8 @@
       <c r="B174" s="2">
         <v>4</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>817</v>
+      <c r="C174" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>738</v>
@@ -9716,8 +9755,8 @@
       <c r="B175" s="2">
         <v>1</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>817</v>
+      <c r="C175" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>695</v>
@@ -9730,8 +9769,8 @@
       <c r="B176" s="2">
         <v>2</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>817</v>
+      <c r="C176" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>747</v>
@@ -9744,8 +9783,8 @@
       <c r="B177" s="2">
         <v>3</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>817</v>
+      <c r="C177" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>748</v>
@@ -9758,8 +9797,8 @@
       <c r="B178" s="2">
         <v>4</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>817</v>
+      <c r="C178" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>703</v>
@@ -9772,8 +9811,8 @@
       <c r="B179" s="2">
         <v>0</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>817</v>
+      <c r="C179" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>704</v>
@@ -9786,8 +9825,8 @@
       <c r="B180" s="2">
         <v>1</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>817</v>
+      <c r="C180" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>705</v>
@@ -9800,8 +9839,8 @@
       <c r="B181" s="2">
         <v>0</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>817</v>
+      <c r="C181" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>704</v>
@@ -9814,8 +9853,8 @@
       <c r="B182" s="2">
         <v>1</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>817</v>
+      <c r="C182" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>705</v>
@@ -9828,8 +9867,8 @@
       <c r="B183" s="2">
         <v>0</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>817</v>
+      <c r="C183" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>704</v>
@@ -9842,8 +9881,8 @@
       <c r="B184" s="2">
         <v>1</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>817</v>
+      <c r="C184" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>705</v>
@@ -9856,8 +9895,8 @@
       <c r="B185" s="2">
         <v>0</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>817</v>
+      <c r="C185" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>749</v>
@@ -9870,8 +9909,8 @@
       <c r="B186" s="2">
         <v>1</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>817</v>
+      <c r="C186" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>750</v>
@@ -9884,8 +9923,8 @@
       <c r="B187" s="2">
         <v>2</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>817</v>
+      <c r="C187" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>751</v>
@@ -9898,8 +9937,8 @@
       <c r="B188" s="2">
         <v>1</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>817</v>
+      <c r="C188" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>735</v>
@@ -9912,8 +9951,8 @@
       <c r="B189" s="2">
         <v>2</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>817</v>
+      <c r="C189" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>736</v>
@@ -9926,8 +9965,8 @@
       <c r="B190" s="2">
         <v>3</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>817</v>
+      <c r="C190" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>737</v>
@@ -9940,8 +9979,8 @@
       <c r="B191" s="2">
         <v>4</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>817</v>
+      <c r="C191" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>738</v>
@@ -9954,8 +9993,8 @@
       <c r="B192" s="2">
         <v>0</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>817</v>
+      <c r="C192" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>704</v>
@@ -9968,8 +10007,8 @@
       <c r="B193" s="2">
         <v>1</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>817</v>
+      <c r="C193" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>705</v>
@@ -9982,8 +10021,8 @@
       <c r="B194" s="2">
         <v>1</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>817</v>
+      <c r="C194" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>752</v>
@@ -9996,8 +10035,8 @@
       <c r="B195" s="2">
         <v>2</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>817</v>
+      <c r="C195" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>753</v>
@@ -10010,8 +10049,8 @@
       <c r="B196" s="2">
         <v>1</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>817</v>
+      <c r="C196" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>754</v>
@@ -10024,8 +10063,8 @@
       <c r="B197" s="2">
         <v>2</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>817</v>
+      <c r="C197" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>755</v>
@@ -10038,8 +10077,8 @@
       <c r="B198" s="2">
         <v>3</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>817</v>
+      <c r="C198" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>756</v>
@@ -10052,8 +10091,8 @@
       <c r="B199" s="2">
         <v>1</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>817</v>
+      <c r="C199" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>757</v>
@@ -10066,8 +10105,8 @@
       <c r="B200" s="2">
         <v>2</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>817</v>
+      <c r="C200" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>758</v>
@@ -10080,8 +10119,8 @@
       <c r="B201" s="2">
         <v>3</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>817</v>
+      <c r="C201" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>759</v>
@@ -10094,8 +10133,8 @@
       <c r="B202" s="2">
         <v>0</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>817</v>
+      <c r="C202" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>704</v>
@@ -10108,8 +10147,8 @@
       <c r="B203" s="2">
         <v>1</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>817</v>
+      <c r="C203" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>705</v>
@@ -10122,8 +10161,8 @@
       <c r="B204" s="2">
         <v>0</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>817</v>
+      <c r="C204" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>704</v>
@@ -10136,8 +10175,8 @@
       <c r="B205" s="2">
         <v>1</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>817</v>
+      <c r="C205" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>705</v>
@@ -10150,8 +10189,8 @@
       <c r="B206" s="2">
         <v>0</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>817</v>
+      <c r="C206" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>704</v>
@@ -10164,8 +10203,8 @@
       <c r="B207" s="2">
         <v>1</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>817</v>
+      <c r="C207" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>705</v>
@@ -10178,8 +10217,8 @@
       <c r="B208" s="2">
         <v>1</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>817</v>
+      <c r="C208" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>718</v>
@@ -10192,8 +10231,8 @@
       <c r="B209" s="2">
         <v>2</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>817</v>
+      <c r="C209" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>719</v>
@@ -10206,8 +10245,8 @@
       <c r="B210" s="2">
         <v>3</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>817</v>
+      <c r="C210" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>720</v>
@@ -10220,8 +10259,8 @@
       <c r="B211" s="2">
         <v>4</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>817</v>
+      <c r="C211" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>760</v>
@@ -10234,8 +10273,8 @@
       <c r="B212" s="2">
         <v>5</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>817</v>
+      <c r="C212" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>761</v>
@@ -10248,8 +10287,8 @@
       <c r="B213" s="2">
         <v>0</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>817</v>
+      <c r="C213" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>704</v>
@@ -10262,8 +10301,8 @@
       <c r="B214" s="2">
         <v>1</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>817</v>
+      <c r="C214" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>705</v>
@@ -10276,8 +10315,8 @@
       <c r="B215" s="2">
         <v>0</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>817</v>
+      <c r="C215" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>762</v>
@@ -10290,8 +10329,8 @@
       <c r="B216" s="2">
         <v>1</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>817</v>
+      <c r="C216" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>763</v>
@@ -10304,8 +10343,8 @@
       <c r="B217" s="2">
         <v>1</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>817</v>
+      <c r="C217" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>764</v>
@@ -10318,8 +10357,8 @@
       <c r="B218" s="2">
         <v>2</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>817</v>
+      <c r="C218" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>765</v>
@@ -10332,8 +10371,8 @@
       <c r="B219" s="2">
         <v>3</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>817</v>
+      <c r="C219" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>766</v>
@@ -10346,8 +10385,8 @@
       <c r="B220" s="2">
         <v>4</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>817</v>
+      <c r="C220" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>767</v>
@@ -10360,8 +10399,8 @@
       <c r="B221" s="2">
         <v>5</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>817</v>
+      <c r="C221" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>768</v>
@@ -10374,8 +10413,8 @@
       <c r="B222" s="2">
         <v>1</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>817</v>
+      <c r="C222" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>769</v>
@@ -10388,8 +10427,8 @@
       <c r="B223" s="2">
         <v>2</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>817</v>
+      <c r="C223" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>770</v>
@@ -10402,8 +10441,8 @@
       <c r="B224" s="2">
         <v>3</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>817</v>
+      <c r="C224" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>771</v>
@@ -10416,8 +10455,8 @@
       <c r="B225" s="2">
         <v>4</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>817</v>
+      <c r="C225" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>772</v>
@@ -10430,8 +10469,8 @@
       <c r="B226" s="2">
         <v>5</v>
       </c>
-      <c r="C226" s="2" t="s">
-        <v>817</v>
+      <c r="C226" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>773</v>
@@ -10444,8 +10483,8 @@
       <c r="B227" s="2">
         <v>0</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>817</v>
+      <c r="C227" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>774</v>
@@ -10458,8 +10497,8 @@
       <c r="B228" s="2">
         <v>1</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>817</v>
+      <c r="C228" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>775</v>
@@ -10472,8 +10511,8 @@
       <c r="B229" s="2">
         <v>2</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>817</v>
+      <c r="C229" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>776</v>
@@ -10486,8 +10525,8 @@
       <c r="B230" s="2">
         <v>3</v>
       </c>
-      <c r="C230" s="2" t="s">
-        <v>817</v>
+      <c r="C230" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>777</v>
@@ -10500,8 +10539,8 @@
       <c r="B231" s="2">
         <v>4</v>
       </c>
-      <c r="C231" s="2" t="s">
-        <v>817</v>
+      <c r="C231" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>778</v>
@@ -10514,8 +10553,8 @@
       <c r="B232" s="2">
         <v>5</v>
       </c>
-      <c r="C232" s="2" t="s">
-        <v>817</v>
+      <c r="C232" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>779</v>
@@ -10528,8 +10567,8 @@
       <c r="B233" s="2">
         <v>6</v>
       </c>
-      <c r="C233" s="2" t="s">
-        <v>817</v>
+      <c r="C233" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>780</v>
@@ -10542,8 +10581,8 @@
       <c r="B234" s="2">
         <v>7</v>
       </c>
-      <c r="C234" s="2" t="s">
-        <v>817</v>
+      <c r="C234" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>781</v>
@@ -10556,8 +10595,8 @@
       <c r="B235" s="2">
         <v>8</v>
       </c>
-      <c r="C235" s="2" t="s">
-        <v>817</v>
+      <c r="C235" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>782</v>
@@ -10570,8 +10609,8 @@
       <c r="B236" s="2">
         <v>9</v>
       </c>
-      <c r="C236" s="2" t="s">
-        <v>817</v>
+      <c r="C236" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>783</v>
@@ -10584,8 +10623,8 @@
       <c r="B237" s="2">
         <v>0</v>
       </c>
-      <c r="C237" s="2" t="s">
-        <v>817</v>
+      <c r="C237" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>774</v>
@@ -10598,8 +10637,8 @@
       <c r="B238" s="2">
         <v>1</v>
       </c>
-      <c r="C238" s="2" t="s">
-        <v>817</v>
+      <c r="C238" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>775</v>
@@ -10612,8 +10651,8 @@
       <c r="B239" s="2">
         <v>2</v>
       </c>
-      <c r="C239" s="2" t="s">
-        <v>817</v>
+      <c r="C239" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>776</v>
@@ -10626,8 +10665,8 @@
       <c r="B240" s="2">
         <v>3</v>
       </c>
-      <c r="C240" s="2" t="s">
-        <v>817</v>
+      <c r="C240" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>777</v>
@@ -10640,8 +10679,8 @@
       <c r="B241" s="2">
         <v>4</v>
       </c>
-      <c r="C241" s="2" t="s">
-        <v>817</v>
+      <c r="C241" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>778</v>
@@ -10654,8 +10693,8 @@
       <c r="B242" s="2">
         <v>5</v>
       </c>
-      <c r="C242" s="2" t="s">
-        <v>817</v>
+      <c r="C242" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>779</v>
@@ -10668,8 +10707,8 @@
       <c r="B243" s="2">
         <v>6</v>
       </c>
-      <c r="C243" s="2" t="s">
-        <v>817</v>
+      <c r="C243" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>780</v>
@@ -10682,8 +10721,8 @@
       <c r="B244" s="2">
         <v>7</v>
       </c>
-      <c r="C244" s="2" t="s">
-        <v>817</v>
+      <c r="C244" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>781</v>
@@ -10696,8 +10735,8 @@
       <c r="B245" s="2">
         <v>8</v>
       </c>
-      <c r="C245" s="2" t="s">
-        <v>817</v>
+      <c r="C245" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>782</v>
@@ -10710,8 +10749,8 @@
       <c r="B246" s="2">
         <v>9</v>
       </c>
-      <c r="C246" s="2" t="s">
-        <v>817</v>
+      <c r="C246" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>783</v>
@@ -10724,8 +10763,8 @@
       <c r="B247" s="2">
         <v>1001</v>
       </c>
-      <c r="C247" s="2" t="s">
-        <v>817</v>
+      <c r="C247" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>784</v>
@@ -10738,8 +10777,8 @@
       <c r="B248" s="2">
         <v>1102</v>
       </c>
-      <c r="C248" s="2" t="s">
-        <v>817</v>
+      <c r="C248" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>785</v>
@@ -10752,8 +10791,8 @@
       <c r="B249" s="2">
         <v>1103</v>
       </c>
-      <c r="C249" s="2" t="s">
-        <v>817</v>
+      <c r="C249" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>786</v>
@@ -10766,8 +10805,8 @@
       <c r="B250" s="2">
         <v>1104</v>
       </c>
-      <c r="C250" s="2" t="s">
-        <v>817</v>
+      <c r="C250" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>787</v>
@@ -10780,8 +10819,8 @@
       <c r="B251" s="2">
         <v>1201</v>
       </c>
-      <c r="C251" s="2" t="s">
-        <v>817</v>
+      <c r="C251" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>788</v>
@@ -10794,8 +10833,8 @@
       <c r="B252" s="2">
         <v>1202</v>
       </c>
-      <c r="C252" s="2" t="s">
-        <v>817</v>
+      <c r="C252" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>789</v>
@@ -10808,8 +10847,8 @@
       <c r="B253" s="2">
         <v>1203</v>
       </c>
-      <c r="C253" s="2" t="s">
-        <v>817</v>
+      <c r="C253" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>790</v>
@@ -10822,8 +10861,8 @@
       <c r="B254" s="2">
         <v>1301</v>
       </c>
-      <c r="C254" s="2" t="s">
-        <v>817</v>
+      <c r="C254" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>791</v>
@@ -10836,8 +10875,8 @@
       <c r="B255" s="2">
         <v>1401</v>
       </c>
-      <c r="C255" s="2" t="s">
-        <v>817</v>
+      <c r="C255" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>792</v>
@@ -10850,8 +10889,8 @@
       <c r="B256" s="2">
         <v>1501</v>
       </c>
-      <c r="C256" s="2" t="s">
-        <v>817</v>
+      <c r="C256" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>793</v>
@@ -10864,8 +10903,8 @@
       <c r="B257" s="2">
         <v>1601</v>
       </c>
-      <c r="C257" s="2" t="s">
-        <v>817</v>
+      <c r="C257" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>794</v>
@@ -10878,8 +10917,8 @@
       <c r="B258" s="2">
         <v>1701</v>
       </c>
-      <c r="C258" s="2" t="s">
-        <v>817</v>
+      <c r="C258" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>795</v>
@@ -10892,8 +10931,8 @@
       <c r="B259" s="2">
         <v>1801</v>
       </c>
-      <c r="C259" s="2" t="s">
-        <v>817</v>
+      <c r="C259" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>796</v>
@@ -10906,8 +10945,8 @@
       <c r="B260" s="2">
         <v>1802</v>
       </c>
-      <c r="C260" s="2" t="s">
-        <v>817</v>
+      <c r="C260" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>797</v>
@@ -10920,8 +10959,8 @@
       <c r="B261" s="2">
         <v>1901</v>
       </c>
-      <c r="C261" s="2" t="s">
-        <v>817</v>
+      <c r="C261" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>798</v>
@@ -10934,8 +10973,8 @@
       <c r="B262" s="2">
         <v>2001</v>
       </c>
-      <c r="C262" s="2" t="s">
-        <v>817</v>
+      <c r="C262" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>799</v>
@@ -10948,8 +10987,8 @@
       <c r="B263" s="2">
         <v>1</v>
       </c>
-      <c r="C263" s="2" t="s">
-        <v>817</v>
+      <c r="C263" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>705</v>
@@ -10962,8 +11001,8 @@
       <c r="B264" s="2">
         <v>0</v>
       </c>
-      <c r="C264" s="2" t="s">
-        <v>817</v>
+      <c r="C264" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>704</v>
@@ -10976,8 +11015,8 @@
       <c r="B265" s="2">
         <v>1</v>
       </c>
-      <c r="C265" s="2" t="s">
-        <v>817</v>
+      <c r="C265" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>705</v>
@@ -10990,8 +11029,8 @@
       <c r="B266" s="2">
         <v>0</v>
       </c>
-      <c r="C266" s="2" t="s">
-        <v>817</v>
+      <c r="C266" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>704</v>
@@ -11004,8 +11043,8 @@
       <c r="B267" s="2">
         <v>1</v>
       </c>
-      <c r="C267" s="2" t="s">
-        <v>817</v>
+      <c r="C267" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>800</v>
@@ -11018,8 +11057,8 @@
       <c r="B268" s="2">
         <v>2</v>
       </c>
-      <c r="C268" s="2" t="s">
-        <v>817</v>
+      <c r="C268" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>801</v>
@@ -11032,8 +11071,8 @@
       <c r="B269" s="2">
         <v>3</v>
       </c>
-      <c r="C269" s="2" t="s">
-        <v>817</v>
+      <c r="C269" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>802</v>
@@ -11046,8 +11085,8 @@
       <c r="B270" s="2">
         <v>4</v>
       </c>
-      <c r="C270" s="2" t="s">
-        <v>817</v>
+      <c r="C270" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>803</v>
@@ -11060,8 +11099,8 @@
       <c r="B271" s="2">
         <v>5</v>
       </c>
-      <c r="C271" s="2" t="s">
-        <v>817</v>
+      <c r="C271" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>804</v>
@@ -11074,8 +11113,8 @@
       <c r="B272" s="2">
         <v>6</v>
       </c>
-      <c r="C272" s="2" t="s">
-        <v>817</v>
+      <c r="C272" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>805</v>
@@ -11088,8 +11127,8 @@
       <c r="B273" s="2">
         <v>1</v>
       </c>
-      <c r="C273" s="2" t="s">
-        <v>817</v>
+      <c r="C273" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>806</v>
@@ -11102,8 +11141,8 @@
       <c r="B274" s="2">
         <v>2</v>
       </c>
-      <c r="C274" s="2" t="s">
-        <v>817</v>
+      <c r="C274" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>802</v>
@@ -11116,8 +11155,8 @@
       <c r="B275" s="2">
         <v>3</v>
       </c>
-      <c r="C275" s="2" t="s">
-        <v>817</v>
+      <c r="C275" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>803</v>
@@ -11130,8 +11169,8 @@
       <c r="B276" s="2">
         <v>4</v>
       </c>
-      <c r="C276" s="2" t="s">
-        <v>817</v>
+      <c r="C276" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>804</v>
@@ -11144,8 +11183,8 @@
       <c r="B277" s="2">
         <v>5</v>
       </c>
-      <c r="C277" s="2" t="s">
-        <v>817</v>
+      <c r="C277" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>807</v>
@@ -11158,8 +11197,8 @@
       <c r="B278" s="2">
         <v>6</v>
       </c>
-      <c r="C278" s="2" t="s">
-        <v>817</v>
+      <c r="C278" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>808</v>
@@ -11172,8 +11211,8 @@
       <c r="B279" s="2">
         <v>1</v>
       </c>
-      <c r="C279" s="2" t="s">
-        <v>817</v>
+      <c r="C279" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>809</v>
@@ -11186,8 +11225,8 @@
       <c r="B280" s="2">
         <v>2</v>
       </c>
-      <c r="C280" s="2" t="s">
-        <v>817</v>
+      <c r="C280" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>810</v>
@@ -11200,8 +11239,8 @@
       <c r="B281" s="2">
         <v>3</v>
       </c>
-      <c r="C281" s="2" t="s">
-        <v>817</v>
+      <c r="C281" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>811</v>
@@ -11214,8 +11253,8 @@
       <c r="B282" s="2">
         <v>1</v>
       </c>
-      <c r="C282" s="2" t="s">
-        <v>817</v>
+      <c r="C282" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>809</v>
@@ -11228,8 +11267,8 @@
       <c r="B283" s="2">
         <v>2</v>
       </c>
-      <c r="C283" s="2" t="s">
-        <v>817</v>
+      <c r="C283" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>812</v>
@@ -11242,8 +11281,8 @@
       <c r="B284" s="2">
         <v>3</v>
       </c>
-      <c r="C284" s="2" t="s">
-        <v>817</v>
+      <c r="C284" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>810</v>
@@ -11256,8 +11295,8 @@
       <c r="B285" s="2">
         <v>4</v>
       </c>
-      <c r="C285" s="2" t="s">
-        <v>817</v>
+      <c r="C285" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>813</v>
@@ -11270,8 +11309,8 @@
       <c r="B286" s="2">
         <v>5</v>
       </c>
-      <c r="C286" s="2" t="s">
-        <v>817</v>
+      <c r="C286" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>811</v>
@@ -11284,8 +11323,8 @@
       <c r="B287" s="2">
         <v>1</v>
       </c>
-      <c r="C287" s="2" t="s">
-        <v>817</v>
+      <c r="C287" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>814</v>
@@ -11298,8 +11337,8 @@
       <c r="B288" s="2">
         <v>2</v>
       </c>
-      <c r="C288" s="2" t="s">
-        <v>817</v>
+      <c r="C288" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>815</v>
@@ -11312,8 +11351,8 @@
       <c r="B289" s="2">
         <v>3</v>
       </c>
-      <c r="C289" s="2" t="s">
-        <v>817</v>
+      <c r="C289" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>816</v>
@@ -11326,8 +11365,8 @@
       <c r="B290" s="2">
         <v>1</v>
       </c>
-      <c r="C290" s="2" t="s">
-        <v>817</v>
+      <c r="C290" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>814</v>
@@ -11340,8 +11379,8 @@
       <c r="B291" s="2">
         <v>2</v>
       </c>
-      <c r="C291" s="2" t="s">
-        <v>817</v>
+      <c r="C291" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>815</v>
@@ -11354,8 +11393,8 @@
       <c r="B292" s="2">
         <v>3</v>
       </c>
-      <c r="C292" s="2" t="s">
-        <v>817</v>
+      <c r="C292" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>816</v>
@@ -11368,8 +11407,8 @@
       <c r="B293" s="2">
         <v>1</v>
       </c>
-      <c r="C293" s="2" t="s">
-        <v>817</v>
+      <c r="C293" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>814</v>
@@ -11382,8 +11421,8 @@
       <c r="B294" s="2">
         <v>2</v>
       </c>
-      <c r="C294" s="2" t="s">
-        <v>817</v>
+      <c r="C294" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>815</v>
@@ -11396,8 +11435,8 @@
       <c r="B295" s="2">
         <v>3</v>
       </c>
-      <c r="C295" s="2" t="s">
-        <v>817</v>
+      <c r="C295" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>816</v>
@@ -11410,8 +11449,8 @@
       <c r="B296" s="2">
         <v>0</v>
       </c>
-      <c r="C296" s="2" t="s">
-        <v>817</v>
+      <c r="C296" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>695</v>
@@ -11424,8 +11463,8 @@
       <c r="B297" s="2">
         <v>1</v>
       </c>
-      <c r="C297" s="2" t="s">
-        <v>817</v>
+      <c r="C297" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>696</v>
@@ -11438,8 +11477,8 @@
       <c r="B298" s="2">
         <v>0</v>
       </c>
-      <c r="C298" s="2" t="s">
-        <v>817</v>
+      <c r="C298" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>695</v>
@@ -11452,8 +11491,8 @@
       <c r="B299" s="2">
         <v>1</v>
       </c>
-      <c r="C299" s="2" t="s">
-        <v>817</v>
+      <c r="C299" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>696</v>
@@ -11466,8 +11505,8 @@
       <c r="B300" s="2">
         <v>0</v>
       </c>
-      <c r="C300" s="2" t="s">
-        <v>817</v>
+      <c r="C300" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>695</v>
@@ -11480,8 +11519,8 @@
       <c r="B301" s="2">
         <v>1</v>
       </c>
-      <c r="C301" s="2" t="s">
-        <v>817</v>
+      <c r="C301" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>696</v>

--- a/R/data/dictionaries/core/1_1/1_1_non_repeated.xlsx
+++ b/R/data/dictionaries/core/1_1/1_1_non_repeated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/R/data/dictionaries/core/1_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474B4FF0-F4F7-4746-836B-5022AC0F1699}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81B1A3D-6D77-B444-98D4-0265E667A597}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="818">
   <si>
     <t>name</t>
   </si>
@@ -2472,6 +2472,9 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>text</t>
   </si>
 </sst>
 </file>
@@ -2499,7 +2502,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2891,8 +2894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D313"/>
   <sheetViews>
-    <sheetView topLeftCell="A283" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -2937,11 +2940,9 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>317</v>
-      </c>
+        <v>817</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
         <v>355</v>
       </c>
@@ -2951,11 +2952,9 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>317</v>
-      </c>
+        <v>817</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>356</v>
       </c>
@@ -7298,9 +7297,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C301"/>
+      <selection pane="bottomLeft" activeCell="B263" sqref="B263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>

--- a/R/data/dictionaries/core/1_1/1_1_non_repeated.xlsx
+++ b/R/data/dictionaries/core/1_1/1_1_non_repeated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/R/data/dictionaries/core/1_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/Library/Containers/com.microsoft.Excel/Data/Downloads/trimester/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81B1A3D-6D77-B444-98D4-0265E667A597}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340AB81F-B15A-CF4A-89F4-098DD9B01940}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="828">
   <si>
     <t>name</t>
   </si>
@@ -2475,13 +2475,43 @@
   </si>
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t>Number of cats owned during pregnancy</t>
+  </si>
+  <si>
+    <t>Cat ownership during pregnancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dog ownership during pregnancy</t>
+  </si>
+  <si>
+    <t>Number of dogs owned during pregnancy</t>
+  </si>
+  <si>
+    <t>dogs</t>
+  </si>
+  <si>
+    <t>cats</t>
+  </si>
+  <si>
+    <t>cats_quant_preg</t>
+  </si>
+  <si>
+    <t>cats_preg</t>
+  </si>
+  <si>
+    <t>dogs_preg</t>
+  </si>
+  <si>
+    <t>dogs_quant_preg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2504,6 +2534,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2519,27 +2562,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFAAAAAA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFAAAAAA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFAAAAAA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFAAAAAA"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2548,10 +2576,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2892,15 +2923,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D313"/>
+  <dimension ref="A1:D318"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A289" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C317" sqref="C317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="197.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -7283,6 +7314,76 @@
       </c>
       <c r="D313" s="2" t="s">
         <v>651</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="15" customHeight="1">
+      <c r="A314" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="15" customHeight="1">
+      <c r="A315" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D315" s="5" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="15" customHeight="1">
+      <c r="A316" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="15" customHeight="1">
+      <c r="A317" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="15" customHeight="1">
+      <c r="A318" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>821</v>
       </c>
     </row>
   </sheetData>
@@ -7295,11 +7396,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D301"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B263" sqref="B263"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C309" sqref="C309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -7312,4216 +7413,4272 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>101</v>
       </c>
-      <c r="C2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>102</v>
       </c>
-      <c r="C3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>103</v>
       </c>
-      <c r="C4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>104</v>
       </c>
-      <c r="C5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>105</v>
       </c>
-      <c r="C6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>106</v>
       </c>
-      <c r="C7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>107</v>
       </c>
-      <c r="C8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>108</v>
       </c>
-      <c r="C9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>109</v>
       </c>
-      <c r="C10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>110</v>
       </c>
-      <c r="C11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>111</v>
       </c>
-      <c r="C12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>112</v>
       </c>
-      <c r="C13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>113</v>
       </c>
-      <c r="C14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>114</v>
       </c>
-      <c r="C15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>115</v>
       </c>
-      <c r="C16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>116</v>
       </c>
-      <c r="C17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>117</v>
       </c>
-      <c r="C18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="C18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>118</v>
       </c>
-      <c r="C19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="C19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>119</v>
       </c>
-      <c r="C20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="C20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>120</v>
       </c>
-      <c r="C21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="C21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>121</v>
       </c>
-      <c r="C22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>122</v>
       </c>
-      <c r="C23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="C23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <v>36</v>
       </c>
-      <c r="C24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="C24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <v>208</v>
       </c>
-      <c r="C25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="C25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <v>246</v>
       </c>
-      <c r="C26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="C26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <v>250</v>
       </c>
-      <c r="C27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="C27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="3">
         <v>276</v>
       </c>
-      <c r="C28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="C28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="3">
         <v>300</v>
       </c>
-      <c r="C29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="C29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="3">
         <v>380</v>
       </c>
-      <c r="C30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="C30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="3">
         <v>528</v>
       </c>
-      <c r="C31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="C31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="3">
         <v>578</v>
       </c>
-      <c r="C32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="C32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="3">
         <v>724</v>
       </c>
-      <c r="C33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="C33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="3">
         <v>826</v>
       </c>
-      <c r="C34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="C34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="2">
-        <v>0</v>
-      </c>
-      <c r="C35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="3">
         <v>1</v>
       </c>
-      <c r="C36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="C36" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="3">
         <v>2</v>
       </c>
-      <c r="C37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="C37" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="3">
         <v>1</v>
       </c>
-      <c r="C38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="C38" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="3">
         <v>2</v>
       </c>
-      <c r="C39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="C39" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="3">
         <v>3</v>
       </c>
-      <c r="C40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="C40" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="3">
         <v>1</v>
       </c>
-      <c r="C41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="C41" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="3">
         <v>2</v>
       </c>
-      <c r="C42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="C42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="3">
         <v>3</v>
       </c>
-      <c r="C43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="C43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="3">
         <v>1</v>
       </c>
-      <c r="C44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="C44" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="3">
         <v>2</v>
       </c>
-      <c r="C45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="C45" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="3">
         <v>3</v>
       </c>
-      <c r="C46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="C46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="2">
-        <v>0</v>
-      </c>
-      <c r="C47" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="B47" s="3">
+        <v>0</v>
+      </c>
+      <c r="C47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="3">
         <v>1</v>
       </c>
-      <c r="C48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="C48" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="2">
-        <v>0</v>
-      </c>
-      <c r="C49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="B49" s="3">
+        <v>0</v>
+      </c>
+      <c r="C49" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="3">
         <v>1</v>
       </c>
-      <c r="C50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="C50" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="2">
-        <v>0</v>
-      </c>
-      <c r="C51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="B51" s="3">
+        <v>0</v>
+      </c>
+      <c r="C51" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="3">
         <v>1</v>
       </c>
-      <c r="C52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="C52" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B53" s="2">
-        <v>0</v>
-      </c>
-      <c r="C53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="B53" s="3">
+        <v>0</v>
+      </c>
+      <c r="C53" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="3">
         <v>1</v>
       </c>
-      <c r="C54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="C54" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="3">
         <v>2</v>
       </c>
-      <c r="C55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="C55" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="3">
         <v>3</v>
       </c>
-      <c r="C56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D56" s="2" t="s">
+      <c r="C56" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B57" s="2">
-        <v>0</v>
-      </c>
-      <c r="C57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D57" s="2" t="s">
+      <c r="B57" s="3">
+        <v>0</v>
+      </c>
+      <c r="C57" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="3">
         <v>1</v>
       </c>
-      <c r="C58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D58" s="2" t="s">
+      <c r="C58" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="3">
         <v>1</v>
       </c>
-      <c r="C59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D59" s="2" t="s">
+      <c r="C59" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="3">
         <v>2</v>
       </c>
-      <c r="C60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D60" s="2" t="s">
+      <c r="C60" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="3">
         <v>3</v>
       </c>
-      <c r="C61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D61" s="2" t="s">
+      <c r="C61" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="3">
         <v>4</v>
       </c>
-      <c r="C62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="C62" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="3">
         <v>5</v>
       </c>
-      <c r="C63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="C63" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B64" s="2">
-        <v>0</v>
-      </c>
-      <c r="C64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="B64" s="3">
+        <v>0</v>
+      </c>
+      <c r="C64" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="3">
         <v>1</v>
       </c>
-      <c r="C65" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D65" s="2" t="s">
+      <c r="C65" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B66" s="2">
-        <v>0</v>
-      </c>
-      <c r="C66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D66" s="2" t="s">
+      <c r="B66" s="3">
+        <v>0</v>
+      </c>
+      <c r="C66" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="3">
         <v>1</v>
       </c>
-      <c r="C67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="C67" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B68" s="2">
-        <v>0</v>
-      </c>
-      <c r="C68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D68" s="2" t="s">
+      <c r="B68" s="3">
+        <v>0</v>
+      </c>
+      <c r="C68" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="3">
         <v>1</v>
       </c>
-      <c r="C69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="C69" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B70" s="2">
-        <v>0</v>
-      </c>
-      <c r="C70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D70" s="2" t="s">
+      <c r="B70" s="3">
+        <v>0</v>
+      </c>
+      <c r="C70" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="3">
         <v>1</v>
       </c>
-      <c r="C71" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D71" s="2" t="s">
+      <c r="C71" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B72" s="2">
-        <v>0</v>
-      </c>
-      <c r="C72" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D72" s="2" t="s">
+      <c r="B72" s="3">
+        <v>0</v>
+      </c>
+      <c r="C72" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="3">
         <v>1</v>
       </c>
-      <c r="C73" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D73" s="2" t="s">
+      <c r="C73" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="2">
-        <v>0</v>
-      </c>
-      <c r="C74" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D74" s="2" t="s">
+      <c r="B74" s="3">
+        <v>0</v>
+      </c>
+      <c r="C74" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="3">
         <v>1</v>
       </c>
-      <c r="C75" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="C75" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B76" s="2">
-        <v>0</v>
-      </c>
-      <c r="C76" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D76" s="2" t="s">
+      <c r="B76" s="3">
+        <v>0</v>
+      </c>
+      <c r="C76" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="3">
         <v>1</v>
       </c>
-      <c r="C77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D77" s="2" t="s">
+      <c r="C77" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B78" s="2">
-        <v>0</v>
-      </c>
-      <c r="C78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D78" s="2" t="s">
+      <c r="B78" s="3">
+        <v>0</v>
+      </c>
+      <c r="C78" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="3">
         <v>1</v>
       </c>
-      <c r="C79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D79" s="2" t="s">
+      <c r="C79" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B80" s="2">
-        <v>0</v>
-      </c>
-      <c r="C80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="B80" s="3">
+        <v>0</v>
+      </c>
+      <c r="C80" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="3">
         <v>1</v>
       </c>
-      <c r="C81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="C81" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B82" s="2">
-        <v>0</v>
-      </c>
-      <c r="C82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D82" s="2" t="s">
+      <c r="B82" s="3">
+        <v>0</v>
+      </c>
+      <c r="C82" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="3">
         <v>1</v>
       </c>
-      <c r="C83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D83" s="2" t="s">
+      <c r="C83" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B84" s="2">
-        <v>0</v>
-      </c>
-      <c r="C84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D84" s="2" t="s">
+      <c r="B84" s="3">
+        <v>0</v>
+      </c>
+      <c r="C84" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="3">
         <v>1</v>
       </c>
-      <c r="C85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D85" s="2" t="s">
+      <c r="C85" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="3">
         <v>2</v>
       </c>
-      <c r="C86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D86" s="2" t="s">
+      <c r="C86" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="2">
-        <v>0</v>
-      </c>
-      <c r="C87" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D87" s="2" t="s">
+      <c r="B87" s="3">
+        <v>0</v>
+      </c>
+      <c r="C87" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="3">
         <v>1</v>
       </c>
-      <c r="C88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="C88" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B89" s="2">
-        <v>0</v>
-      </c>
-      <c r="C89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D89" s="2" t="s">
+      <c r="B89" s="3">
+        <v>0</v>
+      </c>
+      <c r="C89" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="3">
         <v>1</v>
       </c>
-      <c r="C90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D90" s="2" t="s">
+      <c r="C90" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="3">
         <v>2</v>
       </c>
-      <c r="C91" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D91" s="2" t="s">
+      <c r="C91" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B92" s="2">
-        <v>0</v>
-      </c>
-      <c r="C92" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D92" s="2" t="s">
+      <c r="B92" s="3">
+        <v>0</v>
+      </c>
+      <c r="C92" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15" customHeight="1">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="3">
         <v>1</v>
       </c>
-      <c r="C93" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D93" s="2" t="s">
+      <c r="C93" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15" customHeight="1">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B94" s="2">
-        <v>0</v>
-      </c>
-      <c r="C94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="B94" s="3">
+        <v>0</v>
+      </c>
+      <c r="C94" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15" customHeight="1">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="3">
         <v>1</v>
       </c>
-      <c r="C95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D95" s="2" t="s">
+      <c r="C95" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15" customHeight="1">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="3">
         <v>2</v>
       </c>
-      <c r="C96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D96" s="2" t="s">
+      <c r="C96" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D96" s="3" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15" customHeight="1">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="3">
         <v>3</v>
       </c>
-      <c r="C97" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="C97" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15" customHeight="1">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="3">
         <v>4</v>
       </c>
-      <c r="C98" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D98" s="2" t="s">
+      <c r="C98" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B99" s="2">
-        <v>0</v>
-      </c>
-      <c r="C99" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D99" s="2" t="s">
+      <c r="B99" s="3">
+        <v>0</v>
+      </c>
+      <c r="C99" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="3">
         <v>1</v>
       </c>
-      <c r="C100" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="C100" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15" customHeight="1">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B101" s="2">
-        <v>0</v>
-      </c>
-      <c r="C101" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="B101" s="3">
+        <v>0</v>
+      </c>
+      <c r="C101" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D101" s="3" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15" customHeight="1">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="3">
         <v>1</v>
       </c>
-      <c r="C102" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D102" s="2" t="s">
+      <c r="C102" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15" customHeight="1">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="3">
         <v>2</v>
       </c>
-      <c r="C103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D103" s="2" t="s">
+      <c r="C103" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15" customHeight="1">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="3">
         <v>3</v>
       </c>
-      <c r="C104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="C104" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15" customHeight="1">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B105" s="2">
-        <v>0</v>
-      </c>
-      <c r="C105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D105" s="2" t="s">
+      <c r="B105" s="3">
+        <v>0</v>
+      </c>
+      <c r="C105" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15" customHeight="1">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="3">
         <v>1</v>
       </c>
-      <c r="C106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D106" s="2" t="s">
+      <c r="C106" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15" customHeight="1">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B107" s="2">
-        <v>0</v>
-      </c>
-      <c r="C107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D107" s="2" t="s">
+      <c r="B107" s="3">
+        <v>0</v>
+      </c>
+      <c r="C107" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15" customHeight="1">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="3">
         <v>1</v>
       </c>
-      <c r="C108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D108" s="2" t="s">
+      <c r="C108" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15" customHeight="1">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B109" s="2">
-        <v>0</v>
-      </c>
-      <c r="C109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D109" s="2" t="s">
+      <c r="B109" s="3">
+        <v>0</v>
+      </c>
+      <c r="C109" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15" customHeight="1">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="3">
         <v>1</v>
       </c>
-      <c r="C110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D110" s="2" t="s">
+      <c r="C110" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15" customHeight="1">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B111" s="2">
-        <v>0</v>
-      </c>
-      <c r="C111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D111" s="2" t="s">
+      <c r="B111" s="3">
+        <v>0</v>
+      </c>
+      <c r="C111" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15" customHeight="1">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="3">
         <v>1</v>
       </c>
-      <c r="C112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D112" s="2" t="s">
+      <c r="C112" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15" customHeight="1">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="3">
         <v>2</v>
       </c>
-      <c r="C113" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D113" s="2" t="s">
+      <c r="C113" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15" customHeight="1">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="3">
         <v>3</v>
       </c>
-      <c r="C114" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D114" s="2" t="s">
+      <c r="C114" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="3">
         <v>4</v>
       </c>
-      <c r="C115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D115" s="2" t="s">
+      <c r="C115" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="3">
         <v>1</v>
       </c>
-      <c r="C116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D116" s="2" t="s">
+      <c r="C116" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D116" s="3" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15" customHeight="1">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="3">
         <v>2</v>
       </c>
-      <c r="C117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D117" s="2" t="s">
+      <c r="C117" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15" customHeight="1">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B118" s="2">
-        <v>0</v>
-      </c>
-      <c r="C118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D118" s="2" t="s">
+      <c r="B118" s="3">
+        <v>0</v>
+      </c>
+      <c r="C118" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15" customHeight="1">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="3">
         <v>1</v>
       </c>
-      <c r="C119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D119" s="2" t="s">
+      <c r="C119" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15" customHeight="1">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B120" s="2">
-        <v>0</v>
-      </c>
-      <c r="C120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D120" s="2" t="s">
+      <c r="B120" s="3">
+        <v>0</v>
+      </c>
+      <c r="C120" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15" customHeight="1">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="3">
         <v>1</v>
       </c>
-      <c r="C121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D121" s="2" t="s">
+      <c r="C121" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D121" s="3" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15" customHeight="1">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="3">
         <v>1</v>
       </c>
-      <c r="C122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D122" s="2" t="s">
+      <c r="C122" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D122" s="3" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15" customHeight="1">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="3">
         <v>2</v>
       </c>
-      <c r="C123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D123" s="2" t="s">
+      <c r="C123" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D123" s="3" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15" customHeight="1">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="3">
         <v>3</v>
       </c>
-      <c r="C124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D124" s="2" t="s">
+      <c r="C124" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15" customHeight="1">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="3">
         <v>4</v>
       </c>
-      <c r="C125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D125" s="2" t="s">
+      <c r="C125" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D125" s="3" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15" customHeight="1">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="3">
         <v>5</v>
       </c>
-      <c r="C126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D126" s="2" t="s">
+      <c r="C126" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D126" s="3" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15" customHeight="1">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="3">
         <v>6</v>
       </c>
-      <c r="C127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D127" s="2" t="s">
+      <c r="C127" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15" customHeight="1">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="3">
         <v>1</v>
       </c>
-      <c r="C128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D128" s="2" t="s">
+      <c r="C128" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D128" s="3" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15" customHeight="1">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="3">
         <v>2</v>
       </c>
-      <c r="C129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D129" s="2" t="s">
+      <c r="C129" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D129" s="3" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15" customHeight="1">
-      <c r="A130" s="2" t="s">
+      <c r="A130" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="3">
         <v>3</v>
       </c>
-      <c r="C130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D130" s="2" t="s">
+      <c r="C130" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D130" s="3" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="15" customHeight="1">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="3">
         <v>4</v>
       </c>
-      <c r="C131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D131" s="2" t="s">
+      <c r="C131" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D131" s="3" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1">
-      <c r="A132" s="2" t="s">
+      <c r="A132" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="3">
         <v>5</v>
       </c>
-      <c r="C132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D132" s="2" t="s">
+      <c r="C132" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D132" s="3" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="15" customHeight="1">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B133" s="2">
-        <v>0</v>
-      </c>
-      <c r="C133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D133" s="2" t="s">
+      <c r="B133" s="3">
+        <v>0</v>
+      </c>
+      <c r="C133" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D133" s="3" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15" customHeight="1">
-      <c r="A134" s="2" t="s">
+      <c r="A134" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="3">
         <v>1</v>
       </c>
-      <c r="C134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D134" s="2" t="s">
+      <c r="C134" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D134" s="3" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15" customHeight="1">
-      <c r="A135" s="2" t="s">
+      <c r="A135" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B135" s="2">
-        <v>0</v>
-      </c>
-      <c r="C135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D135" s="2" t="s">
+      <c r="B135" s="3">
+        <v>0</v>
+      </c>
+      <c r="C135" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D135" s="3" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15" customHeight="1">
-      <c r="A136" s="2" t="s">
+      <c r="A136" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="3">
         <v>1</v>
       </c>
-      <c r="C136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D136" s="2" t="s">
+      <c r="C136" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D136" s="3" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15" customHeight="1">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="3">
         <v>2</v>
       </c>
-      <c r="C137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D137" s="2" t="s">
+      <c r="C137" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D137" s="3" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15" customHeight="1">
-      <c r="A138" s="2" t="s">
+      <c r="A138" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="3">
         <v>1</v>
       </c>
-      <c r="C138" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D138" s="2" t="s">
+      <c r="C138" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D138" s="3" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15" customHeight="1">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="3">
         <v>2</v>
       </c>
-      <c r="C139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D139" s="2" t="s">
+      <c r="C139" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D139" s="3" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1">
-      <c r="A140" s="2" t="s">
+      <c r="A140" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="3">
         <v>3</v>
       </c>
-      <c r="C140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D140" s="2" t="s">
+      <c r="C140" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D140" s="3" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1">
-      <c r="A141" s="2" t="s">
+      <c r="A141" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141" s="3">
         <v>4</v>
       </c>
-      <c r="C141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D141" s="2" t="s">
+      <c r="C141" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D141" s="3" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="15" customHeight="1">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" s="3">
         <v>1</v>
       </c>
-      <c r="C142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D142" s="2" t="s">
+      <c r="C142" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D142" s="3" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="15" customHeight="1">
-      <c r="A143" s="2" t="s">
+      <c r="A143" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="3">
         <v>2</v>
       </c>
-      <c r="C143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D143" s="2" t="s">
+      <c r="C143" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D143" s="3" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15" customHeight="1">
-      <c r="A144" s="2" t="s">
+      <c r="A144" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144" s="3">
         <v>3</v>
       </c>
-      <c r="C144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D144" s="2" t="s">
+      <c r="C144" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D144" s="3" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15" customHeight="1">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145" s="3">
         <v>1</v>
       </c>
-      <c r="C145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D145" s="2" t="s">
+      <c r="C145" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D145" s="3" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="15" customHeight="1">
-      <c r="A146" s="2" t="s">
+      <c r="A146" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="3">
         <v>2</v>
       </c>
-      <c r="C146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D146" s="2" t="s">
+      <c r="C146" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D146" s="3" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15" customHeight="1">
-      <c r="A147" s="2" t="s">
+      <c r="A147" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="3">
         <v>3</v>
       </c>
-      <c r="C147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D147" s="2" t="s">
+      <c r="C147" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D147" s="3" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="15" customHeight="1">
-      <c r="A148" s="2" t="s">
+      <c r="A148" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="3">
         <v>1</v>
       </c>
-      <c r="C148" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D148" s="2" t="s">
+      <c r="C148" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D148" s="3" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="15" customHeight="1">
-      <c r="A149" s="2" t="s">
+      <c r="A149" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="3">
         <v>2</v>
       </c>
-      <c r="C149" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D149" s="2" t="s">
+      <c r="C149" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D149" s="3" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1">
-      <c r="A150" s="2" t="s">
+      <c r="A150" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="3">
         <v>3</v>
       </c>
-      <c r="C150" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D150" s="2" t="s">
+      <c r="C150" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D150" s="3" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15" customHeight="1">
-      <c r="A151" s="2" t="s">
+      <c r="A151" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="3">
         <v>1</v>
       </c>
-      <c r="C151" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D151" s="2" t="s">
+      <c r="C151" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D151" s="3" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15" customHeight="1">
-      <c r="A152" s="2" t="s">
+      <c r="A152" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="3">
         <v>2</v>
       </c>
-      <c r="C152" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D152" s="2" t="s">
+      <c r="C152" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D152" s="3" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15" customHeight="1">
-      <c r="A153" s="2" t="s">
+      <c r="A153" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="3">
         <v>3</v>
       </c>
-      <c r="C153" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D153" s="2" t="s">
+      <c r="C153" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D153" s="3" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15" customHeight="1">
-      <c r="A154" s="2" t="s">
+      <c r="A154" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="3">
         <v>4</v>
       </c>
-      <c r="C154" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D154" s="2" t="s">
+      <c r="C154" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D154" s="3" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="15" customHeight="1">
-      <c r="A155" s="2" t="s">
+      <c r="A155" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B155" s="2">
-        <v>0</v>
-      </c>
-      <c r="C155" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D155" s="2" t="s">
+      <c r="B155" s="3">
+        <v>0</v>
+      </c>
+      <c r="C155" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D155" s="3" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="15" customHeight="1">
-      <c r="A156" s="2" t="s">
+      <c r="A156" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="3">
         <v>1</v>
       </c>
-      <c r="C156" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D156" s="2" t="s">
+      <c r="C156" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D156" s="3" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="15" customHeight="1">
-      <c r="A157" s="2" t="s">
+      <c r="A157" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="3">
         <v>1</v>
       </c>
-      <c r="C157" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D157" s="2" t="s">
+      <c r="C157" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D157" s="3" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15" customHeight="1">
-      <c r="A158" s="2" t="s">
+      <c r="A158" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158" s="3">
         <v>2</v>
       </c>
-      <c r="C158" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D158" s="2" t="s">
+      <c r="C158" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D158" s="3" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="15" customHeight="1">
-      <c r="A159" s="2" t="s">
+      <c r="A159" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159" s="3">
         <v>3</v>
       </c>
-      <c r="C159" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D159" s="2" t="s">
+      <c r="C159" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D159" s="3" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15" customHeight="1">
-      <c r="A160" s="2" t="s">
+      <c r="A160" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="3">
         <v>4</v>
       </c>
-      <c r="C160" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D160" s="2" t="s">
+      <c r="C160" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D160" s="3" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="15" customHeight="1">
-      <c r="A161" s="2" t="s">
+      <c r="A161" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B161" s="2">
-        <v>0</v>
-      </c>
-      <c r="C161" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D161" s="2" t="s">
+      <c r="B161" s="3">
+        <v>0</v>
+      </c>
+      <c r="C161" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D161" s="3" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="15" customHeight="1">
-      <c r="A162" s="2" t="s">
+      <c r="A162" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162" s="3">
         <v>1</v>
       </c>
-      <c r="C162" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D162" s="2" t="s">
+      <c r="C162" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D162" s="3" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="15" customHeight="1">
-      <c r="A163" s="2" t="s">
+      <c r="A163" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" s="3">
         <v>2</v>
       </c>
-      <c r="C163" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D163" s="2" t="s">
+      <c r="C163" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D163" s="3" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="15" customHeight="1">
-      <c r="A164" s="2" t="s">
+      <c r="A164" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164" s="3">
         <v>1</v>
       </c>
-      <c r="C164" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D164" s="2" t="s">
+      <c r="C164" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D164" s="3" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="15" customHeight="1">
-      <c r="A165" s="2" t="s">
+      <c r="A165" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165" s="3">
         <v>2</v>
       </c>
-      <c r="C165" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D165" s="2" t="s">
+      <c r="C165" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D165" s="3" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="15" customHeight="1">
-      <c r="A166" s="2" t="s">
+      <c r="A166" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B166" s="3">
         <v>3</v>
       </c>
-      <c r="C166" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D166" s="2" t="s">
+      <c r="C166" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D166" s="3" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="15" customHeight="1">
-      <c r="A167" s="2" t="s">
+      <c r="A167" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167" s="3">
         <v>4</v>
       </c>
-      <c r="C167" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D167" s="2" t="s">
+      <c r="C167" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D167" s="3" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="15" customHeight="1">
-      <c r="A168" s="2" t="s">
+      <c r="A168" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B168" s="2">
-        <v>0</v>
-      </c>
-      <c r="C168" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D168" s="2" t="s">
+      <c r="B168" s="3">
+        <v>0</v>
+      </c>
+      <c r="C168" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D168" s="3" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="15" customHeight="1">
-      <c r="A169" s="2" t="s">
+      <c r="A169" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169" s="3">
         <v>1</v>
       </c>
-      <c r="C169" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D169" s="2" t="s">
+      <c r="C169" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D169" s="3" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="15" customHeight="1">
-      <c r="A170" s="2" t="s">
+      <c r="A170" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170" s="3">
         <v>2</v>
       </c>
-      <c r="C170" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D170" s="2" t="s">
+      <c r="C170" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D170" s="3" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="15" customHeight="1">
-      <c r="A171" s="2" t="s">
+      <c r="A171" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B171" s="3">
         <v>1</v>
       </c>
-      <c r="C171" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D171" s="2" t="s">
+      <c r="C171" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D171" s="3" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15" customHeight="1">
-      <c r="A172" s="2" t="s">
+      <c r="A172" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B172" s="3">
         <v>2</v>
       </c>
-      <c r="C172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D172" s="2" t="s">
+      <c r="C172" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D172" s="3" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="15" customHeight="1">
-      <c r="A173" s="2" t="s">
+      <c r="A173" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173" s="3">
         <v>3</v>
       </c>
-      <c r="C173" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D173" s="2" t="s">
+      <c r="C173" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D173" s="3" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="15" customHeight="1">
-      <c r="A174" s="2" t="s">
+      <c r="A174" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B174" s="2">
+      <c r="B174" s="3">
         <v>4</v>
       </c>
-      <c r="C174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D174" s="2" t="s">
+      <c r="C174" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D174" s="3" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="15" customHeight="1">
-      <c r="A175" s="2" t="s">
+      <c r="A175" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B175" s="3">
         <v>1</v>
       </c>
-      <c r="C175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D175" s="2" t="s">
+      <c r="C175" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D175" s="3" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="15" customHeight="1">
-      <c r="A176" s="2" t="s">
+      <c r="A176" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B176" s="3">
         <v>2</v>
       </c>
-      <c r="C176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D176" s="2" t="s">
+      <c r="C176" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D176" s="3" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="15" customHeight="1">
-      <c r="A177" s="2" t="s">
+      <c r="A177" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B177" s="3">
         <v>3</v>
       </c>
-      <c r="C177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D177" s="2" t="s">
+      <c r="C177" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D177" s="3" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="15" customHeight="1">
-      <c r="A178" s="2" t="s">
+      <c r="A178" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B178" s="2">
+      <c r="B178" s="3">
         <v>4</v>
       </c>
-      <c r="C178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D178" s="2" t="s">
+      <c r="C178" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D178" s="3" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="15" customHeight="1">
-      <c r="A179" s="2" t="s">
+      <c r="A179" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B179" s="2">
-        <v>0</v>
-      </c>
-      <c r="C179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D179" s="2" t="s">
+      <c r="B179" s="3">
+        <v>0</v>
+      </c>
+      <c r="C179" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D179" s="3" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="15" customHeight="1">
-      <c r="A180" s="2" t="s">
+      <c r="A180" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B180" s="3">
         <v>1</v>
       </c>
-      <c r="C180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D180" s="2" t="s">
+      <c r="C180" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D180" s="3" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="15" customHeight="1">
-      <c r="A181" s="2" t="s">
+      <c r="A181" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B181" s="2">
-        <v>0</v>
-      </c>
-      <c r="C181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D181" s="2" t="s">
+      <c r="B181" s="3">
+        <v>0</v>
+      </c>
+      <c r="C181" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D181" s="3" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="15" customHeight="1">
-      <c r="A182" s="2" t="s">
+      <c r="A182" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B182" s="3">
         <v>1</v>
       </c>
-      <c r="C182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D182" s="2" t="s">
+      <c r="C182" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D182" s="3" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="15" customHeight="1">
-      <c r="A183" s="2" t="s">
+      <c r="A183" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B183" s="2">
-        <v>0</v>
-      </c>
-      <c r="C183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D183" s="2" t="s">
+      <c r="B183" s="3">
+        <v>0</v>
+      </c>
+      <c r="C183" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D183" s="3" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="15" customHeight="1">
-      <c r="A184" s="2" t="s">
+      <c r="A184" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B184" s="3">
         <v>1</v>
       </c>
-      <c r="C184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D184" s="2" t="s">
+      <c r="C184" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D184" s="3" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="15" customHeight="1">
-      <c r="A185" s="2" t="s">
+      <c r="A185" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B185" s="2">
-        <v>0</v>
-      </c>
-      <c r="C185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D185" s="2" t="s">
+      <c r="B185" s="3">
+        <v>0</v>
+      </c>
+      <c r="C185" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D185" s="3" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="15" customHeight="1">
-      <c r="A186" s="2" t="s">
+      <c r="A186" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B186" s="3">
         <v>1</v>
       </c>
-      <c r="C186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D186" s="2" t="s">
+      <c r="C186" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D186" s="3" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="15" customHeight="1">
-      <c r="A187" s="2" t="s">
+      <c r="A187" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B187" s="3">
         <v>2</v>
       </c>
-      <c r="C187" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D187" s="2" t="s">
+      <c r="C187" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D187" s="3" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="15" customHeight="1">
-      <c r="A188" s="2" t="s">
+      <c r="A188" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B188" s="3">
         <v>1</v>
       </c>
-      <c r="C188" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D188" s="2" t="s">
+      <c r="C188" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D188" s="3" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="15" customHeight="1">
-      <c r="A189" s="2" t="s">
+      <c r="A189" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B189" s="2">
+      <c r="B189" s="3">
         <v>2</v>
       </c>
-      <c r="C189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D189" s="2" t="s">
+      <c r="C189" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D189" s="3" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="15" customHeight="1">
-      <c r="A190" s="2" t="s">
+      <c r="A190" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B190" s="3">
         <v>3</v>
       </c>
-      <c r="C190" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D190" s="2" t="s">
+      <c r="C190" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D190" s="3" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="15" customHeight="1">
-      <c r="A191" s="2" t="s">
+      <c r="A191" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B191" s="3">
         <v>4</v>
       </c>
-      <c r="C191" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D191" s="2" t="s">
+      <c r="C191" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D191" s="3" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="15" customHeight="1">
-      <c r="A192" s="2" t="s">
+      <c r="A192" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B192" s="2">
-        <v>0</v>
-      </c>
-      <c r="C192" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D192" s="2" t="s">
+      <c r="B192" s="3">
+        <v>0</v>
+      </c>
+      <c r="C192" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D192" s="3" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="15" customHeight="1">
-      <c r="A193" s="2" t="s">
+      <c r="A193" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B193" s="2">
+      <c r="B193" s="3">
         <v>1</v>
       </c>
-      <c r="C193" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D193" s="2" t="s">
+      <c r="C193" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D193" s="3" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="15" customHeight="1">
-      <c r="A194" s="2" t="s">
+      <c r="A194" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B194" s="2">
+      <c r="B194" s="3">
         <v>1</v>
       </c>
-      <c r="C194" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D194" s="2" t="s">
+      <c r="C194" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D194" s="3" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="15" customHeight="1">
-      <c r="A195" s="2" t="s">
+      <c r="A195" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B195" s="2">
+      <c r="B195" s="3">
         <v>2</v>
       </c>
-      <c r="C195" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D195" s="2" t="s">
+      <c r="C195" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D195" s="3" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15" customHeight="1">
-      <c r="A196" s="2" t="s">
+      <c r="A196" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B196" s="2">
+      <c r="B196" s="3">
         <v>1</v>
       </c>
-      <c r="C196" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D196" s="2" t="s">
+      <c r="C196" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D196" s="3" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="15" customHeight="1">
-      <c r="A197" s="2" t="s">
+      <c r="A197" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B197" s="2">
+      <c r="B197" s="3">
         <v>2</v>
       </c>
-      <c r="C197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D197" s="2" t="s">
+      <c r="C197" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D197" s="3" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="15" customHeight="1">
-      <c r="A198" s="2" t="s">
+      <c r="A198" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B198" s="2">
+      <c r="B198" s="3">
         <v>3</v>
       </c>
-      <c r="C198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D198" s="2" t="s">
+      <c r="C198" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D198" s="3" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="15" customHeight="1">
-      <c r="A199" s="2" t="s">
+      <c r="A199" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B199" s="2">
+      <c r="B199" s="3">
         <v>1</v>
       </c>
-      <c r="C199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D199" s="2" t="s">
+      <c r="C199" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D199" s="3" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="15" customHeight="1">
-      <c r="A200" s="2" t="s">
+      <c r="A200" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B200" s="2">
+      <c r="B200" s="3">
         <v>2</v>
       </c>
-      <c r="C200" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D200" s="2" t="s">
+      <c r="C200" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D200" s="3" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="15" customHeight="1">
-      <c r="A201" s="2" t="s">
+      <c r="A201" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B201" s="2">
+      <c r="B201" s="3">
         <v>3</v>
       </c>
-      <c r="C201" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D201" s="2" t="s">
+      <c r="C201" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D201" s="3" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="15" customHeight="1">
-      <c r="A202" s="2" t="s">
+      <c r="A202" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B202" s="2">
-        <v>0</v>
-      </c>
-      <c r="C202" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D202" s="2" t="s">
+      <c r="B202" s="3">
+        <v>0</v>
+      </c>
+      <c r="C202" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D202" s="3" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="15" customHeight="1">
-      <c r="A203" s="2" t="s">
+      <c r="A203" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B203" s="2">
+      <c r="B203" s="3">
         <v>1</v>
       </c>
-      <c r="C203" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D203" s="2" t="s">
+      <c r="C203" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D203" s="3" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="15" customHeight="1">
-      <c r="A204" s="2" t="s">
+      <c r="A204" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B204" s="2">
-        <v>0</v>
-      </c>
-      <c r="C204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D204" s="2" t="s">
+      <c r="B204" s="3">
+        <v>0</v>
+      </c>
+      <c r="C204" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D204" s="3" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="15" customHeight="1">
-      <c r="A205" s="2" t="s">
+      <c r="A205" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B205" s="2">
+      <c r="B205" s="3">
         <v>1</v>
       </c>
-      <c r="C205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D205" s="2" t="s">
+      <c r="C205" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D205" s="3" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="15" customHeight="1">
-      <c r="A206" s="2" t="s">
+      <c r="A206" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B206" s="2">
-        <v>0</v>
-      </c>
-      <c r="C206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D206" s="2" t="s">
+      <c r="B206" s="3">
+        <v>0</v>
+      </c>
+      <c r="C206" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D206" s="3" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="15" customHeight="1">
-      <c r="A207" s="2" t="s">
+      <c r="A207" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B207" s="2">
+      <c r="B207" s="3">
         <v>1</v>
       </c>
-      <c r="C207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D207" s="2" t="s">
+      <c r="C207" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D207" s="3" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="15" customHeight="1">
-      <c r="A208" s="2" t="s">
+      <c r="A208" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B208" s="2">
+      <c r="B208" s="3">
         <v>1</v>
       </c>
-      <c r="C208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D208" s="2" t="s">
+      <c r="C208" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D208" s="3" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="15" customHeight="1">
-      <c r="A209" s="2" t="s">
+      <c r="A209" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B209" s="2">
+      <c r="B209" s="3">
         <v>2</v>
       </c>
-      <c r="C209" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D209" s="2" t="s">
+      <c r="C209" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D209" s="3" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="15" customHeight="1">
-      <c r="A210" s="2" t="s">
+      <c r="A210" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B210" s="2">
+      <c r="B210" s="3">
         <v>3</v>
       </c>
-      <c r="C210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D210" s="2" t="s">
+      <c r="C210" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D210" s="3" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="15" customHeight="1">
-      <c r="A211" s="2" t="s">
+      <c r="A211" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B211" s="2">
+      <c r="B211" s="3">
         <v>4</v>
       </c>
-      <c r="C211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D211" s="2" t="s">
+      <c r="C211" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D211" s="3" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15" customHeight="1">
-      <c r="A212" s="2" t="s">
+      <c r="A212" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B212" s="2">
+      <c r="B212" s="3">
         <v>5</v>
       </c>
-      <c r="C212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D212" s="2" t="s">
+      <c r="C212" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D212" s="3" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="15" customHeight="1">
-      <c r="A213" s="2" t="s">
+      <c r="A213" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B213" s="2">
-        <v>0</v>
-      </c>
-      <c r="C213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D213" s="2" t="s">
+      <c r="B213" s="3">
+        <v>0</v>
+      </c>
+      <c r="C213" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D213" s="3" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="15" customHeight="1">
-      <c r="A214" s="2" t="s">
+      <c r="A214" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B214" s="2">
+      <c r="B214" s="3">
         <v>1</v>
       </c>
-      <c r="C214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D214" s="2" t="s">
+      <c r="C214" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D214" s="3" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="15" customHeight="1">
-      <c r="A215" s="2" t="s">
+      <c r="A215" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B215" s="2">
-        <v>0</v>
-      </c>
-      <c r="C215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D215" s="2" t="s">
+      <c r="B215" s="3">
+        <v>0</v>
+      </c>
+      <c r="C215" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D215" s="3" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="15" customHeight="1">
-      <c r="A216" s="2" t="s">
+      <c r="A216" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B216" s="2">
+      <c r="B216" s="3">
         <v>1</v>
       </c>
-      <c r="C216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D216" s="2" t="s">
+      <c r="C216" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D216" s="3" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="15" customHeight="1">
-      <c r="A217" s="2" t="s">
+      <c r="A217" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B217" s="2">
+      <c r="B217" s="3">
         <v>1</v>
       </c>
-      <c r="C217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D217" s="2" t="s">
+      <c r="C217" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D217" s="3" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="15" customHeight="1">
-      <c r="A218" s="2" t="s">
+      <c r="A218" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B218" s="2">
+      <c r="B218" s="3">
         <v>2</v>
       </c>
-      <c r="C218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D218" s="2" t="s">
+      <c r="C218" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D218" s="3" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="15" customHeight="1">
-      <c r="A219" s="2" t="s">
+      <c r="A219" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B219" s="2">
+      <c r="B219" s="3">
         <v>3</v>
       </c>
-      <c r="C219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D219" s="2" t="s">
+      <c r="C219" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D219" s="3" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="15" customHeight="1">
-      <c r="A220" s="2" t="s">
+      <c r="A220" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B220" s="2">
+      <c r="B220" s="3">
         <v>4</v>
       </c>
-      <c r="C220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D220" s="2" t="s">
+      <c r="C220" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D220" s="3" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="15" customHeight="1">
-      <c r="A221" s="2" t="s">
+      <c r="A221" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B221" s="2">
+      <c r="B221" s="3">
         <v>5</v>
       </c>
-      <c r="C221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D221" s="2" t="s">
+      <c r="C221" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D221" s="3" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="15" customHeight="1">
-      <c r="A222" s="2" t="s">
+      <c r="A222" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B222" s="2">
+      <c r="B222" s="3">
         <v>1</v>
       </c>
-      <c r="C222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D222" s="2" t="s">
+      <c r="C222" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D222" s="3" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="15" customHeight="1">
-      <c r="A223" s="2" t="s">
+      <c r="A223" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B223" s="2">
+      <c r="B223" s="3">
         <v>2</v>
       </c>
-      <c r="C223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D223" s="2" t="s">
+      <c r="C223" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D223" s="3" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="15" customHeight="1">
-      <c r="A224" s="2" t="s">
+      <c r="A224" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B224" s="2">
+      <c r="B224" s="3">
         <v>3</v>
       </c>
-      <c r="C224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D224" s="2" t="s">
+      <c r="C224" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D224" s="3" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="15" customHeight="1">
-      <c r="A225" s="2" t="s">
+      <c r="A225" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B225" s="2">
+      <c r="B225" s="3">
         <v>4</v>
       </c>
-      <c r="C225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D225" s="2" t="s">
+      <c r="C225" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D225" s="3" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="15" customHeight="1">
-      <c r="A226" s="2" t="s">
+      <c r="A226" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B226" s="2">
+      <c r="B226" s="3">
         <v>5</v>
       </c>
-      <c r="C226" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D226" s="2" t="s">
+      <c r="C226" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D226" s="3" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="15" customHeight="1">
-      <c r="A227" s="2" t="s">
+      <c r="A227" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B227" s="2">
-        <v>0</v>
-      </c>
-      <c r="C227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D227" s="2" t="s">
+      <c r="B227" s="3">
+        <v>0</v>
+      </c>
+      <c r="C227" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D227" s="3" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15" customHeight="1">
-      <c r="A228" s="2" t="s">
+      <c r="A228" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B228" s="2">
+      <c r="B228" s="3">
         <v>1</v>
       </c>
-      <c r="C228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D228" s="2" t="s">
+      <c r="C228" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D228" s="3" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="15" customHeight="1">
-      <c r="A229" s="2" t="s">
+      <c r="A229" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B229" s="2">
+      <c r="B229" s="3">
         <v>2</v>
       </c>
-      <c r="C229" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D229" s="2" t="s">
+      <c r="C229" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D229" s="3" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="15" customHeight="1">
-      <c r="A230" s="2" t="s">
+      <c r="A230" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B230" s="2">
+      <c r="B230" s="3">
         <v>3</v>
       </c>
-      <c r="C230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D230" s="2" t="s">
+      <c r="C230" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D230" s="3" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="15" customHeight="1">
-      <c r="A231" s="2" t="s">
+      <c r="A231" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B231" s="2">
+      <c r="B231" s="3">
         <v>4</v>
       </c>
-      <c r="C231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D231" s="2" t="s">
+      <c r="C231" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D231" s="3" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="15" customHeight="1">
-      <c r="A232" s="2" t="s">
+      <c r="A232" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B232" s="2">
+      <c r="B232" s="3">
         <v>5</v>
       </c>
-      <c r="C232" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D232" s="2" t="s">
+      <c r="C232" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D232" s="3" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="15" customHeight="1">
-      <c r="A233" s="2" t="s">
+      <c r="A233" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B233" s="2">
+      <c r="B233" s="3">
         <v>6</v>
       </c>
-      <c r="C233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D233" s="2" t="s">
+      <c r="C233" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D233" s="3" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="15" customHeight="1">
-      <c r="A234" s="2" t="s">
+      <c r="A234" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B234" s="2">
+      <c r="B234" s="3">
         <v>7</v>
       </c>
-      <c r="C234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D234" s="2" t="s">
+      <c r="C234" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D234" s="3" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="15" customHeight="1">
-      <c r="A235" s="2" t="s">
+      <c r="A235" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B235" s="2">
+      <c r="B235" s="3">
         <v>8</v>
       </c>
-      <c r="C235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D235" s="2" t="s">
+      <c r="C235" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D235" s="3" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="15" customHeight="1">
-      <c r="A236" s="2" t="s">
+      <c r="A236" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B236" s="2">
+      <c r="B236" s="3">
         <v>9</v>
       </c>
-      <c r="C236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D236" s="2" t="s">
+      <c r="C236" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D236" s="3" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="15" customHeight="1">
-      <c r="A237" s="2" t="s">
+      <c r="A237" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B237" s="2">
-        <v>0</v>
-      </c>
-      <c r="C237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D237" s="2" t="s">
+      <c r="B237" s="3">
+        <v>0</v>
+      </c>
+      <c r="C237" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D237" s="3" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="15" customHeight="1">
-      <c r="A238" s="2" t="s">
+      <c r="A238" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B238" s="2">
+      <c r="B238" s="3">
         <v>1</v>
       </c>
-      <c r="C238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D238" s="2" t="s">
+      <c r="C238" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D238" s="3" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="15" customHeight="1">
-      <c r="A239" s="2" t="s">
+      <c r="A239" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B239" s="2">
+      <c r="B239" s="3">
         <v>2</v>
       </c>
-      <c r="C239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D239" s="2" t="s">
+      <c r="C239" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D239" s="3" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="15" customHeight="1">
-      <c r="A240" s="2" t="s">
+      <c r="A240" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B240" s="2">
+      <c r="B240" s="3">
         <v>3</v>
       </c>
-      <c r="C240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D240" s="2" t="s">
+      <c r="C240" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D240" s="3" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="15" customHeight="1">
-      <c r="A241" s="2" t="s">
+      <c r="A241" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B241" s="2">
+      <c r="B241" s="3">
         <v>4</v>
       </c>
-      <c r="C241" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D241" s="2" t="s">
+      <c r="C241" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D241" s="3" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="15" customHeight="1">
-      <c r="A242" s="2" t="s">
+      <c r="A242" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B242" s="2">
+      <c r="B242" s="3">
         <v>5</v>
       </c>
-      <c r="C242" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D242" s="2" t="s">
+      <c r="C242" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D242" s="3" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="15" customHeight="1">
-      <c r="A243" s="2" t="s">
+      <c r="A243" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B243" s="2">
+      <c r="B243" s="3">
         <v>6</v>
       </c>
-      <c r="C243" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D243" s="2" t="s">
+      <c r="C243" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D243" s="3" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="15" customHeight="1">
-      <c r="A244" s="2" t="s">
+      <c r="A244" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B244" s="2">
+      <c r="B244" s="3">
         <v>7</v>
       </c>
-      <c r="C244" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D244" s="2" t="s">
+      <c r="C244" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D244" s="3" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="15" customHeight="1">
-      <c r="A245" s="2" t="s">
+      <c r="A245" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B245" s="2">
+      <c r="B245" s="3">
         <v>8</v>
       </c>
-      <c r="C245" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D245" s="2" t="s">
+      <c r="C245" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D245" s="3" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="15" customHeight="1">
-      <c r="A246" s="2" t="s">
+      <c r="A246" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B246" s="2">
+      <c r="B246" s="3">
         <v>9</v>
       </c>
-      <c r="C246" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D246" s="2" t="s">
+      <c r="C246" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D246" s="3" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="15" customHeight="1">
-      <c r="A247" s="2" t="s">
+      <c r="A247" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B247" s="2">
+      <c r="B247" s="3">
         <v>1001</v>
       </c>
-      <c r="C247" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D247" s="2" t="s">
+      <c r="C247" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D247" s="3" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="15" customHeight="1">
-      <c r="A248" s="2" t="s">
+      <c r="A248" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B248" s="2">
+      <c r="B248" s="3">
         <v>1102</v>
       </c>
-      <c r="C248" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D248" s="2" t="s">
+      <c r="C248" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D248" s="3" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="15" customHeight="1">
-      <c r="A249" s="2" t="s">
+      <c r="A249" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B249" s="2">
+      <c r="B249" s="3">
         <v>1103</v>
       </c>
-      <c r="C249" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D249" s="2" t="s">
+      <c r="C249" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D249" s="3" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="15" customHeight="1">
-      <c r="A250" s="2" t="s">
+      <c r="A250" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B250" s="2">
+      <c r="B250" s="3">
         <v>1104</v>
       </c>
-      <c r="C250" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D250" s="2" t="s">
+      <c r="C250" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D250" s="3" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="15" customHeight="1">
-      <c r="A251" s="2" t="s">
+      <c r="A251" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B251" s="2">
+      <c r="B251" s="3">
         <v>1201</v>
       </c>
-      <c r="C251" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D251" s="2" t="s">
+      <c r="C251" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D251" s="3" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="15" customHeight="1">
-      <c r="A252" s="2" t="s">
+      <c r="A252" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B252" s="2">
+      <c r="B252" s="3">
         <v>1202</v>
       </c>
-      <c r="C252" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D252" s="2" t="s">
+      <c r="C252" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D252" s="3" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="15" customHeight="1">
-      <c r="A253" s="2" t="s">
+      <c r="A253" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B253" s="2">
+      <c r="B253" s="3">
         <v>1203</v>
       </c>
-      <c r="C253" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D253" s="2" t="s">
+      <c r="C253" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D253" s="3" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="15" customHeight="1">
-      <c r="A254" s="2" t="s">
+      <c r="A254" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B254" s="2">
+      <c r="B254" s="3">
         <v>1301</v>
       </c>
-      <c r="C254" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D254" s="2" t="s">
+      <c r="C254" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D254" s="3" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="15" customHeight="1">
-      <c r="A255" s="2" t="s">
+      <c r="A255" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B255" s="2">
+      <c r="B255" s="3">
         <v>1401</v>
       </c>
-      <c r="C255" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D255" s="2" t="s">
+      <c r="C255" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D255" s="3" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="15" customHeight="1">
-      <c r="A256" s="2" t="s">
+      <c r="A256" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B256" s="2">
+      <c r="B256" s="3">
         <v>1501</v>
       </c>
-      <c r="C256" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D256" s="2" t="s">
+      <c r="C256" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D256" s="3" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="15" customHeight="1">
-      <c r="A257" s="2" t="s">
+      <c r="A257" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B257" s="2">
+      <c r="B257" s="3">
         <v>1601</v>
       </c>
-      <c r="C257" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D257" s="2" t="s">
+      <c r="C257" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D257" s="3" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="15" customHeight="1">
-      <c r="A258" s="2" t="s">
+      <c r="A258" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B258" s="2">
+      <c r="B258" s="3">
         <v>1701</v>
       </c>
-      <c r="C258" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D258" s="2" t="s">
+      <c r="C258" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D258" s="3" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="15" customHeight="1">
-      <c r="A259" s="2" t="s">
+      <c r="A259" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B259" s="2">
+      <c r="B259" s="3">
         <v>1801</v>
       </c>
-      <c r="C259" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D259" s="2" t="s">
+      <c r="C259" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D259" s="3" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="15" customHeight="1">
-      <c r="A260" s="2" t="s">
+      <c r="A260" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B260" s="2">
+      <c r="B260" s="3">
         <v>1802</v>
       </c>
-      <c r="C260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D260" s="2" t="s">
+      <c r="C260" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D260" s="3" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="15" customHeight="1">
-      <c r="A261" s="2" t="s">
+      <c r="A261" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B261" s="2">
+      <c r="B261" s="3">
         <v>1901</v>
       </c>
-      <c r="C261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D261" s="2" t="s">
+      <c r="C261" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D261" s="3" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="15" customHeight="1">
-      <c r="A262" s="2" t="s">
+      <c r="A262" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B262" s="2">
+      <c r="B262" s="3">
         <v>2001</v>
       </c>
-      <c r="C262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D262" s="2" t="s">
+      <c r="C262" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D262" s="3" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="15" customHeight="1">
-      <c r="A263" s="2" t="s">
+      <c r="A263" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B263" s="2">
+      <c r="B263" s="3">
         <v>1</v>
       </c>
-      <c r="C263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D263" s="2" t="s">
+      <c r="C263" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D263" s="3" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="15" customHeight="1">
-      <c r="A264" s="2" t="s">
+      <c r="A264" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B264" s="2">
-        <v>0</v>
-      </c>
-      <c r="C264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D264" s="2" t="s">
+      <c r="B264" s="3">
+        <v>0</v>
+      </c>
+      <c r="C264" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D264" s="3" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="15" customHeight="1">
-      <c r="A265" s="2" t="s">
+      <c r="A265" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B265" s="2">
+      <c r="B265" s="3">
         <v>1</v>
       </c>
-      <c r="C265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D265" s="2" t="s">
+      <c r="C265" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D265" s="3" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="15" customHeight="1">
-      <c r="A266" s="2" t="s">
+      <c r="A266" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B266" s="2">
-        <v>0</v>
-      </c>
-      <c r="C266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D266" s="2" t="s">
+      <c r="B266" s="3">
+        <v>0</v>
+      </c>
+      <c r="C266" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D266" s="3" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="15" customHeight="1">
-      <c r="A267" s="2" t="s">
+      <c r="A267" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B267" s="2">
+      <c r="B267" s="3">
         <v>1</v>
       </c>
-      <c r="C267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D267" s="2" t="s">
+      <c r="C267" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D267" s="3" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="15" customHeight="1">
-      <c r="A268" s="2" t="s">
+      <c r="A268" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B268" s="2">
+      <c r="B268" s="3">
         <v>2</v>
       </c>
-      <c r="C268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D268" s="2" t="s">
+      <c r="C268" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D268" s="3" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="15" customHeight="1">
-      <c r="A269" s="2" t="s">
+      <c r="A269" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B269" s="2">
+      <c r="B269" s="3">
         <v>3</v>
       </c>
-      <c r="C269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D269" s="2" t="s">
+      <c r="C269" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D269" s="3" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="15" customHeight="1">
-      <c r="A270" s="2" t="s">
+      <c r="A270" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B270" s="2">
+      <c r="B270" s="3">
         <v>4</v>
       </c>
-      <c r="C270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D270" s="2" t="s">
+      <c r="C270" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D270" s="3" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="15" customHeight="1">
-      <c r="A271" s="2" t="s">
+      <c r="A271" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B271" s="2">
+      <c r="B271" s="3">
         <v>5</v>
       </c>
-      <c r="C271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D271" s="2" t="s">
+      <c r="C271" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D271" s="3" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="15" customHeight="1">
-      <c r="A272" s="2" t="s">
+      <c r="A272" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B272" s="2">
+      <c r="B272" s="3">
         <v>6</v>
       </c>
-      <c r="C272" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D272" s="2" t="s">
+      <c r="C272" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D272" s="3" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="15" customHeight="1">
-      <c r="A273" s="2" t="s">
+      <c r="A273" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B273" s="2">
+      <c r="B273" s="3">
         <v>1</v>
       </c>
-      <c r="C273" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D273" s="2" t="s">
+      <c r="C273" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D273" s="3" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="15" customHeight="1">
-      <c r="A274" s="2" t="s">
+      <c r="A274" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B274" s="2">
+      <c r="B274" s="3">
         <v>2</v>
       </c>
-      <c r="C274" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D274" s="2" t="s">
+      <c r="C274" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D274" s="3" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="15" customHeight="1">
-      <c r="A275" s="2" t="s">
+      <c r="A275" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B275" s="2">
+      <c r="B275" s="3">
         <v>3</v>
       </c>
-      <c r="C275" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D275" s="2" t="s">
+      <c r="C275" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D275" s="3" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="15" customHeight="1">
-      <c r="A276" s="2" t="s">
+      <c r="A276" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B276" s="2">
+      <c r="B276" s="3">
         <v>4</v>
       </c>
-      <c r="C276" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D276" s="2" t="s">
+      <c r="C276" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D276" s="3" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="15" customHeight="1">
-      <c r="A277" s="2" t="s">
+      <c r="A277" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B277" s="2">
+      <c r="B277" s="3">
         <v>5</v>
       </c>
-      <c r="C277" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D277" s="2" t="s">
+      <c r="C277" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D277" s="3" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="15" customHeight="1">
-      <c r="A278" s="2" t="s">
+      <c r="A278" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B278" s="2">
+      <c r="B278" s="3">
         <v>6</v>
       </c>
-      <c r="C278" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D278" s="2" t="s">
+      <c r="C278" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D278" s="3" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="15" customHeight="1">
-      <c r="A279" s="2" t="s">
+      <c r="A279" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B279" s="2">
+      <c r="B279" s="3">
         <v>1</v>
       </c>
-      <c r="C279" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D279" s="2" t="s">
+      <c r="C279" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D279" s="3" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="15" customHeight="1">
-      <c r="A280" s="2" t="s">
+      <c r="A280" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B280" s="2">
+      <c r="B280" s="3">
         <v>2</v>
       </c>
-      <c r="C280" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D280" s="2" t="s">
+      <c r="C280" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D280" s="3" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="15" customHeight="1">
-      <c r="A281" s="2" t="s">
+      <c r="A281" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B281" s="2">
+      <c r="B281" s="3">
         <v>3</v>
       </c>
-      <c r="C281" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D281" s="2" t="s">
+      <c r="C281" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D281" s="3" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="15" customHeight="1">
-      <c r="A282" s="2" t="s">
+      <c r="A282" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B282" s="2">
+      <c r="B282" s="3">
         <v>1</v>
       </c>
-      <c r="C282" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D282" s="2" t="s">
+      <c r="C282" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D282" s="3" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="15" customHeight="1">
-      <c r="A283" s="2" t="s">
+      <c r="A283" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B283" s="2">
+      <c r="B283" s="3">
         <v>2</v>
       </c>
-      <c r="C283" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D283" s="2" t="s">
+      <c r="C283" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D283" s="3" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="15" customHeight="1">
-      <c r="A284" s="2" t="s">
+      <c r="A284" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B284" s="2">
+      <c r="B284" s="3">
         <v>3</v>
       </c>
-      <c r="C284" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D284" s="2" t="s">
+      <c r="C284" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D284" s="3" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="15" customHeight="1">
-      <c r="A285" s="2" t="s">
+      <c r="A285" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B285" s="2">
+      <c r="B285" s="3">
         <v>4</v>
       </c>
-      <c r="C285" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D285" s="2" t="s">
+      <c r="C285" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D285" s="3" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="15" customHeight="1">
-      <c r="A286" s="2" t="s">
+      <c r="A286" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B286" s="2">
+      <c r="B286" s="3">
         <v>5</v>
       </c>
-      <c r="C286" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D286" s="2" t="s">
+      <c r="C286" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D286" s="3" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="15" customHeight="1">
-      <c r="A287" s="2" t="s">
+      <c r="A287" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B287" s="2">
+      <c r="B287" s="3">
         <v>1</v>
       </c>
-      <c r="C287" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D287" s="2" t="s">
+      <c r="C287" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D287" s="3" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="15" customHeight="1">
-      <c r="A288" s="2" t="s">
+      <c r="A288" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B288" s="2">
+      <c r="B288" s="3">
         <v>2</v>
       </c>
-      <c r="C288" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D288" s="2" t="s">
+      <c r="C288" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D288" s="3" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="15" customHeight="1">
-      <c r="A289" s="2" t="s">
+      <c r="A289" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B289" s="2">
+      <c r="B289" s="3">
         <v>3</v>
       </c>
-      <c r="C289" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D289" s="2" t="s">
+      <c r="C289" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D289" s="3" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="15" customHeight="1">
-      <c r="A290" s="2" t="s">
+      <c r="A290" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B290" s="2">
+      <c r="B290" s="3">
         <v>1</v>
       </c>
-      <c r="C290" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D290" s="2" t="s">
+      <c r="C290" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D290" s="3" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="15" customHeight="1">
-      <c r="A291" s="2" t="s">
+      <c r="A291" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B291" s="2">
+      <c r="B291" s="3">
         <v>2</v>
       </c>
-      <c r="C291" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D291" s="2" t="s">
+      <c r="C291" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D291" s="3" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="15" customHeight="1">
-      <c r="A292" s="2" t="s">
+      <c r="A292" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B292" s="2">
+      <c r="B292" s="3">
         <v>3</v>
       </c>
-      <c r="C292" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D292" s="2" t="s">
+      <c r="C292" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D292" s="3" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="15" customHeight="1">
-      <c r="A293" s="2" t="s">
+      <c r="A293" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B293" s="2">
+      <c r="B293" s="3">
         <v>1</v>
       </c>
-      <c r="C293" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D293" s="2" t="s">
+      <c r="C293" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D293" s="3" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="15" customHeight="1">
-      <c r="A294" s="2" t="s">
+      <c r="A294" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B294" s="2">
+      <c r="B294" s="3">
         <v>2</v>
       </c>
-      <c r="C294" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D294" s="2" t="s">
+      <c r="C294" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D294" s="3" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="15" customHeight="1">
-      <c r="A295" s="2" t="s">
+      <c r="A295" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B295" s="2">
+      <c r="B295" s="3">
         <v>3</v>
       </c>
-      <c r="C295" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D295" s="2" t="s">
+      <c r="C295" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D295" s="3" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="15" customHeight="1">
-      <c r="A296" s="2" t="s">
+      <c r="A296" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B296" s="2">
-        <v>0</v>
-      </c>
-      <c r="C296" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D296" s="2" t="s">
+      <c r="B296" s="3">
+        <v>0</v>
+      </c>
+      <c r="C296" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D296" s="3" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="15" customHeight="1">
-      <c r="A297" s="2" t="s">
+      <c r="A297" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B297" s="2">
+      <c r="B297" s="3">
         <v>1</v>
       </c>
-      <c r="C297" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D297" s="2" t="s">
+      <c r="C297" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D297" s="3" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="15" customHeight="1">
-      <c r="A298" s="2" t="s">
+      <c r="A298" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B298" s="2">
-        <v>0</v>
-      </c>
-      <c r="C298" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D298" s="2" t="s">
+      <c r="B298" s="3">
+        <v>0</v>
+      </c>
+      <c r="C298" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D298" s="3" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="15" customHeight="1">
-      <c r="A299" s="2" t="s">
+      <c r="A299" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B299" s="2">
+      <c r="B299" s="3">
         <v>1</v>
       </c>
-      <c r="C299" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D299" s="2" t="s">
+      <c r="C299" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D299" s="3" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="15" customHeight="1">
-      <c r="A300" s="2" t="s">
+      <c r="A300" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B300" s="2">
-        <v>0</v>
-      </c>
-      <c r="C300" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D300" s="2" t="s">
+      <c r="B300" s="3">
+        <v>0</v>
+      </c>
+      <c r="C300" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D300" s="3" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="15" customHeight="1">
-      <c r="A301" s="2" t="s">
+      <c r="A301" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B301" s="2">
+      <c r="B301" s="3">
         <v>1</v>
       </c>
-      <c r="C301" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D301" s="2" t="s">
+      <c r="C301" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="15" customHeight="1">
+      <c r="A302" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="B302" s="3">
+        <v>0</v>
+      </c>
+      <c r="C302" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="15" customHeight="1">
+      <c r="A303" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="B303" s="5">
+        <v>1</v>
+      </c>
+      <c r="C303" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="15" customHeight="1">
+      <c r="A304" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="B304" s="5">
+        <v>0</v>
+      </c>
+      <c r="C304" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="15" customHeight="1">
+      <c r="A305" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="B305" s="5">
+        <v>1</v>
+      </c>
+      <c r="C305" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D305" s="3" t="s">
         <v>696</v>
       </c>
     </row>
